--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.546</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.46</v>
+        <v>17.754</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9467117345.558001</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1705273.791</v>
+        <v>17.752</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.97</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.912</v>
+        <v>8.654</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1681155.567769382</v>
+        <v>23.34397965078463</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2050028.683295596</v>
+        <v>23.36631414036023</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1597499.946920668</v>
+        <v>23.37175796165875</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3307021.599900156</v>
+        <v>23.30720528152787</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1307543.730854533</v>
+        <v>23.37067874856867</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-893956.8886601317</v>
+        <v>23.38100715849815</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3529419.617265306</v>
+        <v>23.31365436881729</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-466417.174798566</v>
+        <v>23.40136493676471</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-444438.6970611889</v>
+        <v>23.41097222734164</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-714873.8059301582</v>
+        <v>23.40381520705667</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-36186.62005275348</v>
+        <v>23.42264475233571</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-120805.0729967688</v>
+        <v>23.43095206581665</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1003546.126994834</v>
+        <v>23.34305376567937</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-452257.4345199373</v>
+        <v>23.39959495839908</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-66356.1634898512</v>
+        <v>23.42442925715093</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-817789.0175726074</v>
+        <v>23.36302829321739</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>416300.3885444597</v>
+        <v>23.41941955498161</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>995506.8018870472</v>
+        <v>23.443938313689</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1453548.14749774</v>
+        <v>23.31979124822584</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36101.01837681088</v>
+        <v>23.40366273429498</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108835.564660148</v>
+        <v>23.44614701303824</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1634365.12029655</v>
+        <v>23.32004114909678</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1352822.022029026</v>
+        <v>23.45960150807568</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2694610.509894047</v>
+        <v>23.51067207867593</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>970192.4964906957</v>
+        <v>23.46093583157021</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1580306.178004431</v>
+        <v>23.50061001874333</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1973232.818680985</v>
+        <v>23.53310290802687</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-403990.9271729096</v>
+        <v>23.37069205055363</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1817342.714715411</v>
+        <v>23.52978317743584</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2201029.303519947</v>
+        <v>23.56473783899094</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-158397.9441446528</v>
+        <v>23.37899464777898</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1087261.417182965</v>
+        <v>23.46205307376823</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1458716.018387752</v>
+        <v>23.49054079396161</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1055403.7429047</v>
+        <v>23.32521990287351</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>595762.2883906553</v>
+        <v>23.46017266042672</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1302035.319928217</v>
+        <v>23.49729521327488</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1147986.160673268</v>
+        <v>23.33843837920251</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2322173.092083126</v>
+        <v>23.53329771615018</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2871526.161606987</v>
+        <v>23.57838847660755</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1905643.56523793</v>
+        <v>23.62129441308248</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2451419.368271771</v>
+        <v>23.65396373147971</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2665763.574125052</v>
+        <v>23.69466320139076</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>271350.5863245718</v>
+        <v>23.41835214584129</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2384798.31162529</v>
+        <v>23.64798278260171</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2472649.357071845</v>
+        <v>23.69491520451241</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1971136.439487067</v>
+        <v>23.3539883433719</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>847249.599113282</v>
+        <v>23.42858761932244</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1258488.609339242</v>
+        <v>23.43769070995812</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2522387.363505314</v>
+        <v>23.33054867859974</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1209103.033221965</v>
+        <v>23.44792447322811</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1605261.493069382</v>
+        <v>23.45896399696003</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2645855.16345639</v>
+        <v>23.34204409440332</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3374210.211725621</v>
+        <v>23.49812383352781</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3281225.090303109</v>
+        <v>23.50753176463381</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1747407.130576788</v>
+        <v>23.52469439860384</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2281972.550419129</v>
+        <v>23.55736794092223</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2185591.315414412</v>
+        <v>23.55305649816544</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1088058.859137801</v>
+        <v>23.36546724566933</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2122003.867340925</v>
+        <v>23.5115940878257</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2621593.714135251</v>
+        <v>23.53015195536386</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-924910.8705967745</v>
+        <v>23.34513886123699</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>543313.4125918009</v>
+        <v>23.44897465583871</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>933244.1115589158</v>
+        <v>23.47251081618683</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1422320.379693013</v>
+        <v>23.3035578464169</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>168883.9247073048</v>
+        <v>23.43933650107151</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>719611.2670479796</v>
+        <v>23.47379733830931</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1367327.203525122</v>
+        <v>23.30972276818187</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1548813.195429936</v>
+        <v>23.51635454824133</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2419103.06623858</v>
+        <v>23.5628344681546</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>864781.6365559883</v>
+        <v>23.53102276834139</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1407002.689155562</v>
+        <v>23.58867434639734</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1485766.644261423</v>
+        <v>23.59696926038457</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-670171.1069643232</v>
+        <v>23.35438770386208</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1441684.05766363</v>
+        <v>23.61202635454359</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1701155.160048485</v>
+        <v>23.62773481203013</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-820042.564238055</v>
+        <v>23.34431839148563</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>756569.7527389631</v>
+        <v>23.48927523561473</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>934667.2906624171</v>
+        <v>23.51341184517283</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1235150.674512178</v>
+        <v>23.28962942089883</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>613205.0840719745</v>
+        <v>23.49399426840432</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>937089.1585395238</v>
+        <v>23.51899337535493</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1194011.833214331</v>
+        <v>23.30973314901046</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2007010.861000694</v>
+        <v>23.58911109419415</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2235537.386393712</v>
+        <v>23.62501784983846</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1509103.539565479</v>
+        <v>23.6813333852803</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1997166.724950357</v>
+        <v>23.73874387041016</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1983066.359042697</v>
+        <v>23.759035755869</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-494459.1366405188</v>
+        <v>23.36536646605417</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1755085.919975905</v>
+        <v>23.72905264671864</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1860244.084381725</v>
+        <v>23.75088549499746</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-433351.8478170404</v>
+        <v>23.3709464258588</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1249289.368931234</v>
+        <v>23.43280171406894</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1550238.837102431</v>
+        <v>23.434078978469</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-1867464.903566493</v>
+        <v>23.33351070103349</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1500993.331135745</v>
+        <v>23.44270456783034</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1792915.447343645</v>
+        <v>23.44363198952572</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-2049390.15575356</v>
+        <v>23.34741768740088</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3746277.341355058</v>
+        <v>23.49188267941496</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3178884.163991138</v>
+        <v>23.49244044162293</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1774990.021653768</v>
+        <v>23.52021533527</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2578285.563402169</v>
+        <v>23.55107967638433</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2463008.293141111</v>
+        <v>23.54441721117861</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-105181.7259429765</v>
+        <v>23.38097351464844</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2274295.590009727</v>
+        <v>23.50327334649745</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2632673.941457369</v>
+        <v>23.5143691293047</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-227839.8769392743</v>
+        <v>23.38532347800396</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1006640.76660528</v>
+        <v>23.47970271341459</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1158269.865189406</v>
+        <v>23.4882996481976</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1169563.491765296</v>
+        <v>23.33028837341225</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>643789.8342790311</v>
+        <v>23.46529666247702</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>811302.3191755447</v>
+        <v>23.48033967342787</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1225818.981625885</v>
+        <v>23.34034025778028</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2094750.036251417</v>
+        <v>23.53982272193599</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2414122.545894282</v>
+        <v>23.5696849159506</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1118225.851695245</v>
+        <v>23.56209789719495</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1563866.190954167</v>
+        <v>23.61208275230414</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1491333.493442461</v>
+        <v>23.61412967068651</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-60244.63609405601</v>
+        <v>23.40330380602547</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1578087.790610438</v>
+        <v>23.63435990621315</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1613452.553977643</v>
+        <v>23.63495914812053</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>67411.74369284193</v>
+        <v>23.37958509574893</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1139103.958114427</v>
+        <v>23.51524668926202</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1221729.248416683</v>
+        <v>23.52260362928897</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-906359.1868448323</v>
+        <v>23.31455753819656</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>960735.6084310194</v>
+        <v>23.51973675190465</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1021470.930601641</v>
+        <v>23.52298355395952</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-940724.0321465395</v>
+        <v>23.33707913226264</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2354878.685245397</v>
+        <v>23.60982316766464</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2259537.056609639</v>
+        <v>23.62693803776821</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1720216.557098733</v>
+        <v>23.71000461670898</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1937971.511653362</v>
+        <v>23.75862231389524</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2022414.558494773</v>
+        <v>23.77388141044623</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>175940.6266403166</v>
+        <v>23.41555979008211</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1895666.934604238</v>
+        <v>23.75346449087122</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1955786.047265116</v>
+        <v>23.75972884783482</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-1379968.502138196</v>
+        <v>23.35433623287185</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-1372787.340657535</v>
+        <v>23.37285751831722</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-1245039.278506519</v>
+        <v>23.37902994039303</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-3024908.795459613</v>
+        <v>23.31459804555438</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-836140.5628169265</v>
+        <v>23.37378270954664</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-731365.7889677085</v>
+        <v>23.38591655239945</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-3075169.33633938</v>
+        <v>23.31985283692278</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34514.63834033429</v>
+        <v>23.4033215356474</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-233231.4215992497</v>
+        <v>23.41389421436552</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-454355.6768674701</v>
+        <v>23.40493534215151</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-13462.8571937238</v>
+        <v>23.41821283246251</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>146678.8277090231</v>
+        <v>23.43760786458237</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2695843.085791848</v>
+        <v>23.377879149331</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2710356.353056956</v>
+        <v>23.42317585537299</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3076188.849809144</v>
+        <v>23.4460519656648</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1002276.654578116</v>
+        <v>23.37024308775723</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>575232.6510392211</v>
+        <v>23.41595792241387</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>922421.7408752425</v>
+        <v>23.44082732568418</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1448085.362118227</v>
+        <v>23.32598968957526</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>266792.0588305783</v>
+        <v>23.39850862452887</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1238073.660669125</v>
+        <v>23.44239970790772</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-1595003.34814188</v>
+        <v>23.31919416556665</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1311031.624968508</v>
+        <v>23.44723731237302</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2586079.416418354</v>
+        <v>23.49899081296792</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>524075.3358701123</v>
+        <v>23.43946124975265</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1063713.809161385</v>
+        <v>23.47288448997306</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1612292.115684382</v>
+        <v>23.51703340425204</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-418352.728836073</v>
+        <v>23.39507275407725</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1672082.155719743</v>
+        <v>23.52991555264252</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1971921.48195589</v>
+        <v>23.55993287037339</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-193.5507174302163</v>
+        <v>23.39346787102774</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1110557.544041202</v>
+        <v>23.46155721848453</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1533978.147201992</v>
+        <v>23.49100763547204</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1020273.205356677</v>
+        <v>23.32949426468442</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>655259.5396665705</v>
+        <v>23.44843105496901</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1192888.181477582</v>
+        <v>23.48759988917874</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-985512.9060498669</v>
+        <v>23.34009621993641</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2028393.969288482</v>
+        <v>23.5191585604989</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2763693.921140085</v>
+        <v>23.56563431877693</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1457352.843545034</v>
+        <v>23.59738894339456</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1988720.488987518</v>
+        <v>23.61972734298696</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2452005.565550396</v>
+        <v>23.67527575878987</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>425719.6160013276</v>
+        <v>23.4417987337086</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2097588.772190862</v>
+        <v>23.63998591064176</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2241113.505741824</v>
+        <v>23.68141730975747</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-376331.7686254492</v>
+        <v>23.37938752609975</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2102330.436363786</v>
+        <v>23.43096405285397</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1930583.353440959</v>
+        <v>23.42893760800252</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-2380772.154627023</v>
+        <v>23.34396454401613</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2252467.945016811</v>
+        <v>23.4404890899789</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2631316.978950274</v>
+        <v>23.44405450344477</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-2222592.230752358</v>
+        <v>23.35738142999369</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>5372942.461431865</v>
+        <v>23.4801110211307</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4615424.317213306</v>
+        <v>23.48107431545495</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2305194.690680059</v>
+        <v>23.48850551670389</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3360320.778334914</v>
+        <v>23.50999076368287</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>3219997.761197497</v>
+        <v>23.51753413758338</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-342841.7885910705</v>
+        <v>23.39608820682201</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-737636.9009680882</v>
+        <v>23.47280654975008</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-158694.3470816667</v>
+        <v>23.48967176891253</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>241084.8017545449</v>
+        <v>23.40295462136564</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2088033.036061954</v>
+        <v>23.48850708667453</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1844223.380588772</v>
+        <v>23.49345891430006</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1418243.155588393</v>
+        <v>23.35687990093977</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1152812.4684136</v>
+        <v>23.47536294221887</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1463086.698739997</v>
+        <v>23.49798490218133</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1388704.69996375</v>
+        <v>23.36548985446836</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3102131.024791605</v>
+        <v>23.54177077790602</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3297993.458882024</v>
+        <v>23.5709525799807</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1979186.100645417</v>
+        <v>23.55904167467236</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2400978.658935788</v>
+        <v>23.59641692891378</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2387656.167979059</v>
+        <v>23.62308162994169</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>654732.3603011286</v>
+        <v>23.44963444217889</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2495801.792256683</v>
+        <v>23.62474076963161</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>2436667.939967905</v>
+        <v>23.63868057617566</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>454166.4104037767</v>
+        <v>23.39099978931716</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1762879.822426467</v>
+        <v>23.50105349096001</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1789110.01469153</v>
+        <v>23.51165212920687</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-1132228.068323489</v>
+        <v>23.32977209834293</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1097493.26122296</v>
+        <v>23.49596444545341</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1279531.539098528</v>
+        <v>23.51491986996115</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-1095380.35138011</v>
+        <v>23.35116906224495</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2937637.814798585</v>
+        <v>23.58056403191927</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>3105636.104094728</v>
+        <v>23.60573049542045</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2323358.643219242</v>
+        <v>23.67322414029423</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2611044.431703789</v>
+        <v>23.70140235305936</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2680665.232191316</v>
+        <v>23.73473517782136</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>819620.6528153028</v>
+        <v>23.44771201336374</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2594164.949838137</v>
+        <v>23.69274692770551</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2403236.272564599</v>
+        <v>23.71761510421247</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-843107.0318227056</v>
+        <v>23.34564751386834</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>294295.8786605867</v>
+        <v>23.44323150289339</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>577375.5734068167</v>
+        <v>23.44464649598151</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-1229901.678695357</v>
+        <v>23.31278038512121</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>895110.6441834059</v>
+        <v>23.46670092640185</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1071315.048966835</v>
+        <v>23.47316265740625</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-1259031.468674987</v>
+        <v>23.33193313721024</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2551695.54674295</v>
+        <v>23.53878591697742</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2262045.024352894</v>
+        <v>23.53727015707497</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1305031.076984595</v>
+        <v>23.54229006303426</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1626307.186857819</v>
+        <v>23.58138787913056</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1669109.122772153</v>
+        <v>23.58683725401206</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-517807.5257235613</v>
+        <v>23.34070511116792</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-811447.5912127503</v>
+        <v>23.48002916938417</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-675967.1867157116</v>
+        <v>23.50953606818044</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-72562.69483081876</v>
+        <v>23.37543624943822</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>873301.1594651703</v>
+        <v>23.53747152251468</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>900229.7003264454</v>
+        <v>23.53990447683555</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-720075.3662719559</v>
+        <v>23.30147777656677</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>563410.6212363554</v>
+        <v>23.51002950822292</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>674066.1469035944</v>
+        <v>23.53011800290495</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-723565.0609010677</v>
+        <v>23.32772025230599</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1533937.049949811</v>
+        <v>23.63010130393539</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1576876.427856981</v>
+        <v>23.65501005062834</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>671040.6713713809</v>
+        <v>23.63024624597243</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1020847.864921024</v>
+        <v>23.70003045227921</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1055546.584315799</v>
+        <v>23.72360295578504</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-69039.32638525742</v>
+        <v>23.40837659450042</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1158820.53792651</v>
+        <v>23.72331311931408</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1212162.004723635</v>
+        <v>23.73581327044959</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-62897.37796434063</v>
+        <v>23.35671855609612</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>656082.806073286</v>
+        <v>23.55748259249817</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>749968.9117117778</v>
+        <v>23.5652822198868</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-656790.7465277549</v>
+        <v>23.26258089957512</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>510480.6209186179</v>
+        <v>23.54114571998181</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>553799.9157365737</v>
+        <v>23.55383900633283</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-626168.5472667333</v>
+        <v>23.30349652816036</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1352086.690912985</v>
+        <v>23.6838820393025</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1337726.84698245</v>
+        <v>23.70046995867563</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>932421.647194688</v>
+        <v>23.77752359200103</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1176757.049791825</v>
+        <v>23.84089580705263</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1142453.050939711</v>
+        <v>23.86718624426522</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-63718.6463363825</v>
+        <v>23.38991491314054</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1121195.669062429</v>
+        <v>23.81860994239741</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1098566.548829964</v>
+        <v>23.8406028516387</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1174852.567848522</v>
+        <v>23.31497905633677</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-1390961.359143519</v>
+        <v>23.32621070275456</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-1141639.210327648</v>
+        <v>23.33577612545248</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1654986.791941154</v>
+        <v>23.27522506081956</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-930000.9957547907</v>
+        <v>23.34106296992113</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-767679.4136074812</v>
+        <v>23.35101462715505</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-1806075.843293</v>
+        <v>23.27574854731777</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-478975.1358604864</v>
+        <v>23.37815492417383</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-499461.3682882929</v>
+        <v>23.38807729918623</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-333745.7949158473</v>
+        <v>23.39881216618749</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-3305.757677383959</v>
+        <v>23.42496748733149</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>49756.82809753596</v>
+        <v>23.42752372234112</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-655769.0080250528</v>
+        <v>23.30503496835722</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-448162.331559481</v>
+        <v>23.36149222035098</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-373415.5124217597</v>
+        <v>23.39419807563995</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-558229.4202728823</v>
+        <v>23.34113984409842</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-15485.629873143</v>
+        <v>23.41111779710736</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>207612.53674602</v>
+        <v>23.45038146227482</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-814462.7144402168</v>
+        <v>23.29206524450196</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-70068.47232655867</v>
+        <v>23.40609636117484</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>231726.6137090034</v>
+        <v>23.45846372113283</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-828253.378385951</v>
+        <v>23.29414665177378</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>496947.7457308665</v>
+        <v>23.48198377628148</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>909228.450115819</v>
+        <v>23.55010146598961</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>246381.3567670224</v>
+        <v>23.48990380205268</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>525429.5729484092</v>
+        <v>23.54964693333949</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>570419.257521485</v>
+        <v>23.58036283836624</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-304264.2001556995</v>
+        <v>23.35005065915927</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>537081.1866152724</v>
+        <v>23.56842670504329</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>561648.7369683821</v>
+        <v>23.61042789050553</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-305587.6664449529</v>
+        <v>23.35825265896999</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>318210.2379310689</v>
+        <v>23.47671361092716</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>486555.3164593473</v>
+        <v>23.51724049972723</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-595841.3045840932</v>
+        <v>23.29508739276871</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>298372.9413093386</v>
+        <v>23.49487028060447</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>502562.1292837211</v>
+        <v>23.5350967824135</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-552761.3136224478</v>
+        <v>23.31780263063294</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1062919.354406793</v>
+        <v>23.59373974176752</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1179413.601884743</v>
+        <v>23.64837649306887</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>819626.8282136165</v>
+        <v>23.71525293574869</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>992869.0162029945</v>
+        <v>23.77458648006815</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1020848.442119911</v>
+        <v>23.81236416091821</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>58979.97911917906</v>
+        <v>23.42693052347741</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1003074.166871259</v>
+        <v>23.76260250086362</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1082945.884806409</v>
+        <v>23.82037967105895</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1642220.088896761</v>
+        <v>23.32475365453134</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1860542.460653395</v>
+        <v>23.3338035594209</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1914169.757115036</v>
+        <v>23.3450723028865</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-2643146.095114024</v>
+        <v>23.28864964563887</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-1487055.55503627</v>
+        <v>23.33947401536696</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-1309440.732496259</v>
+        <v>23.35573657159684</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-3201504.906599546</v>
+        <v>23.28387591638587</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-1336176.904380733</v>
+        <v>23.36888828837462</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-1725086.23244302</v>
+        <v>23.38488683965587</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-1326741.761310462</v>
+        <v>23.35281345293687</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-1078516.536413584</v>
+        <v>23.37239529707695</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1287651.638555134</v>
+        <v>23.38894881438257</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-994610.4275879207</v>
+        <v>23.29825301097789</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-957961.1283512067</v>
+        <v>23.33144844149318</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-812100.0278222113</v>
+        <v>23.35500635556058</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1373552.74335062</v>
+        <v>23.2984193400313</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-1114423.037623678</v>
+        <v>23.32345175621836</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-924715.4531156889</v>
+        <v>23.35500652702944</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-1648204.089838783</v>
+        <v>23.25336785161815</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1152901.1555596</v>
+        <v>23.30367955237672</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-803775.8850377136</v>
+        <v>23.35308899972143</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-1846433.317398003</v>
+        <v>23.23545634600103</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-797940.312761185</v>
+        <v>23.35672999508792</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-28468.49915324751</v>
+        <v>23.41813998738431</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-678973.0401416796</v>
+        <v>23.32476477167765</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-285757.830541087</v>
+        <v>23.36489895718725</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35326.92352535432</v>
+        <v>23.41055049824168</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-951551.2845958184</v>
+        <v>23.25959200367478</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-298134.7616335303</v>
+        <v>23.37548664118864</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-474211.4281033252</v>
+        <v>23.40584712451667</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1081132.320909635</v>
+        <v>23.3129506700371</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-783570.4050263853</v>
+        <v>23.36322838630448</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>176481.9546863029</v>
+        <v>23.4101609901541</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1316327.606375413</v>
+        <v>23.25444854581813</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-619629.2415030742</v>
+        <v>23.35565837672861</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>187806.135759917</v>
+        <v>23.41116189089572</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1485393.55612179</v>
+        <v>23.25020932839663</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-136227.7738883732</v>
+        <v>23.42891151977384</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1398733.848631965</v>
+        <v>23.49482553225768</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-75523.43297101682</v>
+        <v>23.48550635470492</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>656751.141783367</v>
+        <v>23.51805619449096</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1332840.4127483</v>
+        <v>23.57976284870607</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-671628.9151605249</v>
+        <v>23.28686378228998</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>131912.3441527266</v>
+        <v>23.4819019264508</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>416315.2273222297</v>
+        <v>23.53402127874805</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1155388.927052181</v>
+        <v>23.34526509434098</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-269713.115777734</v>
+        <v>23.4355334528952</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>726598.0427523693</v>
+        <v>23.44557975254732</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1618599.602092857</v>
+        <v>23.32542311437629</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1094980.393443958</v>
+        <v>23.47835343941748</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1495804.455229509</v>
+        <v>23.48578899894742</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-1630755.536424155</v>
+        <v>23.3414588800336</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2798668.7012807</v>
+        <v>23.53381453622706</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2905988.85293475</v>
+        <v>23.54078669337912</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1604970.283490034</v>
+        <v>23.57226248209484</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2230281.373286707</v>
+        <v>23.61423992106173</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>2094364.831303956</v>
+        <v>23.60415217661233</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-33874.5635919612</v>
+        <v>23.38390545195287</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1233417.914662973</v>
+        <v>23.54253695503409</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2146326.393857521</v>
+        <v>23.5803765159093</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-393851.0404193004</v>
+        <v>23.32154505006106</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>288566.9470301738</v>
+        <v>23.45161230700732</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>430299.4560400681</v>
+        <v>23.46531410877297</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1055741.868549536</v>
+        <v>23.25506414817158</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>171138.7840021448</v>
+        <v>23.43921114783599</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>226155.3093244407</v>
+        <v>23.45936982452717</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1067651.395332391</v>
+        <v>23.27270501980023</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1097268.722828133</v>
+        <v>23.53296448866958</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1284907.822240603</v>
+        <v>23.56773245628875</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>503517.2431957566</v>
+        <v>23.54124496117533</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>765181.7607988019</v>
+        <v>23.60389266916559</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>718035.5724682487</v>
+        <v>23.60547156083086</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-41644.48490182904</v>
+        <v>23.34289383995267</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>932645.8490217758</v>
+        <v>23.6363845517994</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>925583.4341768349</v>
+        <v>23.64835556431384</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-268763.5080827769</v>
+        <v>23.31520776741909</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>336869.4310590255</v>
+        <v>23.49041959108075</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>528849.2066772385</v>
+        <v>23.50686276289218</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-712976.1036065022</v>
+        <v>23.24520803337246</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>497947.4100783122</v>
+        <v>23.50721459459907</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>561989.1463589197</v>
+        <v>23.5177948081689</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-692900.5690601254</v>
+        <v>23.27517271028927</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1421691.016156794</v>
+        <v>23.6179361639945</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1448908.113215551</v>
+        <v>23.64205897979591</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1013502.036190266</v>
+        <v>23.71436968471572</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1168237.410826857</v>
+        <v>23.77778113834589</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1199262.482720554</v>
+        <v>23.78236551587543</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>103350.5889264948</v>
+        <v>23.3586202489812</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1135220.561289639</v>
+        <v>23.77068799789562</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1295909.380169026</v>
+        <v>23.79685518321504</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1766004.69147403</v>
+        <v>23.33227252321189</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1552339.608553695</v>
+        <v>23.33573219819384</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1308478.110107445</v>
+        <v>23.35115890247458</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-2229808.476141582</v>
+        <v>23.29117123123337</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1621055.078828937</v>
+        <v>23.32924702456088</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1180759.151017859</v>
+        <v>23.34921696975578</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-2484081.419587554</v>
+        <v>23.29335973620002</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-962096.3792140627</v>
+        <v>23.36906421454413</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-825871.3396715644</v>
+        <v>23.38753181825088</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-707898.0714239861</v>
+        <v>23.36858621111504</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-389582.4324452787</v>
+        <v>23.38436038797394</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-378892.4637621979</v>
+        <v>23.39987809652992</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-1015643.610816192</v>
+        <v>23.29664039681371</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-567186.8887696362</v>
+        <v>23.34963043603946</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-369444.6695156916</v>
+        <v>23.37438520987608</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-958125.7013114913</v>
+        <v>23.326416181069</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-341152.9688226106</v>
+        <v>23.36044816399426</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>49043.00000554207</v>
+        <v>23.41334653892444</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1078096.532262262</v>
+        <v>23.28199455448878</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-472418.4425107095</v>
+        <v>23.33734255036654</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>75213.75957119456</v>
+        <v>23.40593855490417</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1154763.248125899</v>
+        <v>23.27944753163869</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>99570.29543676431</v>
+        <v>23.40457275364446</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>904369.7157089898</v>
+        <v>23.48682312450268</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-184167.1842592097</v>
+        <v>23.37961904072583</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>250628.8361917587</v>
+        <v>23.42296714175183</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>285237.9668431313</v>
+        <v>23.47386840878981</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-636512.6989484119</v>
+        <v>23.2816596869438</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>230044.9706418579</v>
+        <v>23.44291369288153</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>484318.985700939</v>
+        <v>23.49897138808215</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-452806.5252288702</v>
+        <v>23.35114461972654</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>116159.9668827549</v>
+        <v>23.42240335062291</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>595565.1782129883</v>
+        <v>23.48306104068473</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-777137.494807521</v>
+        <v>23.28900841188758</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-42684.80727024868</v>
+        <v>23.41033867919028</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>512414.0144497715</v>
+        <v>23.47700866196035</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-670363.3090753586</v>
+        <v>23.305668963859</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>673355.0848686135</v>
+        <v>23.50094634181809</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1330464.753358442</v>
+        <v>23.57889590023629</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>484553.8607330938</v>
+        <v>23.56978614532785</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>788647.3578328203</v>
+        <v>23.61402705157088</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1265519.4338201</v>
+        <v>23.69241965271881</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-62001.82845647636</v>
+        <v>23.34492681578735</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>797911.0812017685</v>
+        <v>23.6024501196252</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1138208.158884352</v>
+        <v>23.6789027097398</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2403731.192795095</v>
+        <v>23.30081244245887</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2434113.162420613</v>
+        <v>23.34727921341056</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-2180770.252724545</v>
+        <v>23.34637561240685</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2755565.183598211</v>
+        <v>23.25098870786737</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1886879.16364139</v>
+        <v>23.33779825623204</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-1514727.022716199</v>
+        <v>23.34135957490505</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-3321056.812433126</v>
+        <v>23.262107231892</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-1502269.984921459</v>
+        <v>23.39185178736175</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1710379.172554726</v>
+        <v>23.39071510719625</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1699400.025072875</v>
+        <v>23.38724351420145</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1606712.770328848</v>
+        <v>23.40670294633235</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-988869.2508993044</v>
+        <v>23.41000653449069</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1554144.768555491</v>
+        <v>23.26456448277579</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1307465.060985361</v>
+        <v>23.35239102064459</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-922041.0498356465</v>
+        <v>23.36023479162868</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-529153.678848221</v>
+        <v>23.36110581627529</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>460339.9468262462</v>
+        <v>23.44773612841052</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>482679.6652715846</v>
+        <v>23.45395434781528</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-1086052.26828006</v>
+        <v>23.30716212581316</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>275346.1679391715</v>
+        <v>23.4262908799768</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>388602.3031036523</v>
+        <v>23.44548659504097</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-1166912.344238209</v>
+        <v>23.31261624446761</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1363788.691822576</v>
+        <v>23.50576440079003</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1444583.063863046</v>
+        <v>23.53429694980453</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>620703.0842506769</v>
+        <v>23.51571930098434</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>911170.9798866797</v>
+        <v>23.5572117619849</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>893395.4267447409</v>
+        <v>23.5716162846644</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-317125.1591803619</v>
+        <v>23.36945464690482</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1087741.426039186</v>
+        <v>23.57805207678105</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1077438.696523799</v>
+        <v>23.58159910728752</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-314264.5351831118</v>
+        <v>23.37421410288537</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>658293.1974287661</v>
+        <v>23.49904061606892</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>795401.4341717032</v>
+        <v>23.50594077395455</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-871017.1738429517</v>
+        <v>23.30494742952427</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>741842.7761474313</v>
+        <v>23.49033632858367</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>872517.9389185095</v>
+        <v>23.49964084458488</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-953925.4892812059</v>
+        <v>23.32397703931454</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1802841.991973637</v>
+        <v>23.58780492301713</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1724691.427669066</v>
+        <v>23.60553944498479</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1400603.747502151</v>
+        <v>23.68413322131269</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1668071.512111508</v>
+        <v>23.72062256460656</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1591127.381599698</v>
+        <v>23.74994411523483</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-98377.16885116923</v>
+        <v>23.39805033197464</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1589008.468161305</v>
+        <v>23.71148504040993</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1544541.435812571</v>
+        <v>23.71778770105935</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-1982506.352563575</v>
+        <v>23.34806813165607</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-1775681.79566968</v>
+        <v>23.35153514787901</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1276016.963476179</v>
+        <v>23.36116785692668</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-2850836.065879848</v>
+        <v>23.30535779796171</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-1581477.966486721</v>
+        <v>23.3461886960497</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1148555.339316048</v>
+        <v>23.35733265094197</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-3119331.981473173</v>
+        <v>23.3077545540837</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-834741.5794270503</v>
+        <v>23.38105194728111</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-590853.5319438097</v>
+        <v>23.39248365994053</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-811914.2478427007</v>
+        <v>23.38045894773424</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-440050.3776962864</v>
+        <v>23.39314916731234</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-228356.1466868944</v>
+        <v>23.40175811078007</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-1077966.630490801</v>
+        <v>23.33186140961494</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-366318.2815606253</v>
+        <v>23.3645407502924</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-78696.72473905864</v>
+        <v>23.38178533030477</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-1333639.54041603</v>
+        <v>23.32078145773478</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-1011093.064400558</v>
+        <v>23.33578357579272</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-543539.9048618381</v>
+        <v>23.36785874178248</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1639604.445182769</v>
+        <v>23.27257705274575</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-1103949.001512206</v>
+        <v>23.3135936755532</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-545531.6192133285</v>
+        <v>23.35577438349429</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1836357.226157425</v>
+        <v>23.26138526561973</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-689643.5457595501</v>
+        <v>23.36437161536767</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>215395.6020082387</v>
+        <v>23.42115399176701</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-696164.59367685</v>
+        <v>23.33568641036502</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-293662.6749925989</v>
+        <v>23.36610539288445</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-54207.90198650287</v>
+        <v>23.39065472334876</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-951514.908869363</v>
+        <v>23.28116259582794</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-291550.684347518</v>
+        <v>23.38603631264323</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-15326.03787410752</v>
+        <v>23.41165816906123</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-430134.3317197228</v>
+        <v>23.35934885640923</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>50321.64026690301</v>
+        <v>23.41112046485291</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>397717.89992163</v>
+        <v>23.43863036356103</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1175995.340710018</v>
+        <v>23.28540161769164</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-208432.8113015936</v>
+        <v>23.39159293811019</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>81895.96228687491</v>
+        <v>23.41803305991455</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1065169.76796904</v>
+        <v>23.29750324137217</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>714616.3487835481</v>
+        <v>23.46809191853337</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1119193.140809412</v>
+        <v>23.5090564283474</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>601835.8176821063</v>
+        <v>23.52518991996226</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>830396.2711507799</v>
+        <v>23.54955576324544</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1122430.732442633</v>
+        <v>23.58988389457784</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-141794.308856234</v>
+        <v>23.34384914042732</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>656074.7512640944</v>
+        <v>23.54096165838163</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>782336.3659840127</v>
+        <v>23.56606337747738</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2248156.996527191</v>
+        <v>23.340432585231</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2454373.167338617</v>
+        <v>23.3247430631647</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2430570.288269533</v>
+        <v>23.32345329116085</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2711998.832464397</v>
+        <v>23.29586476919676</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2294885.467822485</v>
+        <v>23.31203051434168</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2131377.703502918</v>
+        <v>23.31463726009405</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2887145.075583882</v>
+        <v>23.2867010348632</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-2137744.829794171</v>
+        <v>23.33895758376546</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-2373762.972717318</v>
+        <v>23.33955173784603</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1862081.670793717</v>
+        <v>23.32018550448477</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1860885.912436272</v>
+        <v>23.32215173187089</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1644578.015384652</v>
+        <v>23.33203188207963</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1340469.352072373</v>
+        <v>23.30477207278961</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1137832.578670001</v>
+        <v>23.3092426066757</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-935695.6541718051</v>
+        <v>23.30986440617713</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1322160.679195724</v>
+        <v>23.30882999584545</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1201475.515657745</v>
+        <v>23.30143771561537</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1233874.124789912</v>
+        <v>23.31889458048477</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1497317.98035529</v>
+        <v>23.26426336818486</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1273748.473939115</v>
+        <v>23.27606338230354</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1124269.093585607</v>
+        <v>23.3063187796623</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1723510.770275393</v>
+        <v>23.23589373548623</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1195195.480326851</v>
+        <v>23.3142249567417</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1033603.507623262</v>
+        <v>23.35676801129292</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-887101.3556342648</v>
+        <v>23.26720610376546</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-771205.7424542255</v>
+        <v>23.28709575691121</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-905484.6600096314</v>
+        <v>23.30998287405455</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1017865.674393219</v>
+        <v>23.24983434561075</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-735349.9084794958</v>
+        <v>23.31943809111955</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-688408.6488476555</v>
+        <v>23.32434205000633</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-434406.2215606671</v>
+        <v>23.36135599750085</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-251209.2743657688</v>
+        <v>23.38587638259664</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-88463.83047525494</v>
+        <v>23.40152193531091</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-1038767.595793595</v>
+        <v>23.2827178732286</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-463896.8825377949</v>
+        <v>23.35467352401652</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-290023.6094874981</v>
+        <v>23.37314452060581</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-983884.3714374774</v>
+        <v>23.27936728798093</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>23982.8103577857</v>
+        <v>23.42053919798238</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>188819.3728126585</v>
+        <v>23.44995783140769</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>211454.3792868742</v>
+        <v>23.46403551725158</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>384953.0725209995</v>
+        <v>23.47671186412874</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>324754.0624995142</v>
+        <v>23.51790082859448</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-160626.462439884</v>
+        <v>23.32319422470183</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>120261.0348522798</v>
+        <v>23.47832815878578</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>264438.9059348447</v>
+        <v>23.48542356600406</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1122852.966387017</v>
+        <v>23.37473298086715</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-717564.174239794</v>
+        <v>23.3989866558396</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>145233.2571511862</v>
+        <v>23.40619934098636</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-2619140.217752513</v>
+        <v>23.32028249359549</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-726969.7300884173</v>
+        <v>23.39123799553572</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-104515.7133839099</v>
+        <v>23.40110936632544</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2751263.81052272</v>
+        <v>23.33805008024049</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>533925.7606164356</v>
+        <v>23.43734232411198</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1039879.781050427</v>
+        <v>23.44836268873161</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>127152.0979784789</v>
+        <v>23.45833489063697</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>819562.8465921376</v>
+        <v>23.480849287058</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1021191.808062324</v>
+        <v>23.48597741061469</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>261947.2828076149</v>
+        <v>23.40467357037885</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1423493.449760471</v>
+        <v>23.4670303242059</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>2168467.184565503</v>
+        <v>23.49252579181029</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-970796.6744105483</v>
+        <v>23.33962172752519</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-305162.7582234279</v>
+        <v>23.38861724902178</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-234885.196431107</v>
+        <v>23.40998696968274</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-1655719.233632847</v>
+        <v>23.26540626849012</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-770971.0641182916</v>
+        <v>23.34530587097847</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-439240.1306261568</v>
+        <v>23.38119898586273</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1778697.254533198</v>
+        <v>23.27484548215294</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>75831.36503901755</v>
+        <v>23.4185798913017</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>450835.6555403024</v>
+        <v>23.46867579705597</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21276.17161456017</v>
+        <v>23.4181111374153</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>325375.706101161</v>
+        <v>23.45692317511955</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>303056.0515159281</v>
+        <v>23.48116974837622</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-422054.9770667627</v>
+        <v>23.34888919856407</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>496240.9144652781</v>
+        <v>23.50422259527627</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>633315.619488848</v>
+        <v>23.53077575148651</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-315470.6941279377</v>
+        <v>23.37106459394311</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>402252.1674066788</v>
+        <v>23.45114516267281</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>655041.4414448563</v>
+        <v>23.4761619228616</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1071297.584708359</v>
+        <v>23.28526728662164</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>76043.42128367646</v>
+        <v>23.42458754334353</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>335224.1925479312</v>
+        <v>23.45256330550519</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-1116437.453091168</v>
+        <v>23.31147072633362</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1219140.32392007</v>
+        <v>23.51918816895898</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1439972.382704838</v>
+        <v>23.56136566206714</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1180437.332464603</v>
+        <v>23.61941153992587</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1349745.346290434</v>
+        <v>23.65035062149071</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1568838.906484315</v>
+        <v>23.68607293051405</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>66394.90621894499</v>
+        <v>23.41703671040549</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1142234.865168102</v>
+        <v>23.65376300899822</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1321355.552229476</v>
+        <v>23.69275587106343</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-1185393.465891591</v>
+        <v>23.37212930123415</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>988593.4316100054</v>
+        <v>23.42827754305143</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>1429364.996412333</v>
+        <v>23.43664733806076</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-1954257.74072684</v>
+        <v>23.34162594893113</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1147568.01967402</v>
+        <v>23.4391167161291</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1605230.252029734</v>
+        <v>23.4484519702398</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-2012652.931854588</v>
+        <v>23.35544309659602</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3154862.823199644</v>
+        <v>23.48344122666076</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>3252900.948797643</v>
+        <v>23.49389935145648</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2619344.929477387</v>
+        <v>23.51951999376013</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2930506.084070652</v>
+        <v>23.54038397326253</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>2854185.529063246</v>
+        <v>23.54300378610554</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-349335.858313875</v>
+        <v>23.38295406377013</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>2561116.212662323</v>
+        <v>23.50756171290681</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2957211.640969037</v>
+        <v>23.52321395318883</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-764905.6804884877</v>
+        <v>23.34648897915208</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>384586.5558567007</v>
+        <v>23.42610927740717</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>682378.5818313707</v>
+        <v>23.45244650832366</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-1300987.720279974</v>
+        <v>23.30357859190806</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>16545.00094471258</v>
+        <v>23.41371716978902</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>426063.7963579125</v>
+        <v>23.44918254304441</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-1404368.588219378</v>
+        <v>23.30894063539565</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1097043.566468799</v>
+        <v>23.47889831909797</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1781934.770358211</v>
+        <v>23.52960781661739</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>667045.0047427739</v>
+        <v>23.49455592538084</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1071224.168512533</v>
+        <v>23.53804953724859</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1007141.058729053</v>
+        <v>23.5529371636526</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-495172.2895002369</v>
+        <v>23.34011304706007</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1130657.833001712</v>
+        <v>23.56010982554764</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1349942.040203876</v>
+        <v>23.58453945501233</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-506995.329115664</v>
+        <v>23.3428913984525</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>604471.2608560447</v>
+        <v>23.46021826905635</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>946263.2078124264</v>
+        <v>23.48821592762302</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1122926.750942906</v>
+        <v>23.28596219470869</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>414557.8094825475</v>
+        <v>23.46006354244622</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>784911.386616332</v>
+        <v>23.48834600121098</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-1174807.924227556</v>
+        <v>23.30501256437253</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1483836.431773504</v>
+        <v>23.54230494640422</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1893019.464343407</v>
+        <v>23.58416486302991</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1304159.252093137</v>
+        <v>23.63374476016754</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1663403.795896955</v>
+        <v>23.67679742452851</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1853252.696163645</v>
+        <v>23.71158846758521</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-361988.6312165883</v>
+        <v>23.35203927665611</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1447384.536225841</v>
+        <v>23.66839883296822</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1693980.132750088</v>
+        <v>23.70108552359868</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-977477.9898328542</v>
+        <v>23.35616544951941</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>244494.7886276438</v>
+        <v>23.40882370798459</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1225370.141479391</v>
+        <v>23.41432626755609</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-2785603.590275825</v>
+        <v>23.33240977392094</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1637312.055732531</v>
+        <v>23.42907689239539</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2262456.249848444</v>
+        <v>23.43830771088794</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-2730289.070001235</v>
+        <v>23.34244804351436</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>3877773.414365128</v>
+        <v>23.46542026288887</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>4038732.26186835</v>
+        <v>23.4733812097178</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>2585883.257958267</v>
+        <v>23.47935844469771</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>3197163.869364204</v>
+        <v>23.50359616298889</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3124024.609626987</v>
+        <v>23.50564063090775</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-220586.5543778306</v>
+        <v>23.37424144906589</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1330556.479835243</v>
+        <v>23.4712406624913</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>3091949.108722399</v>
+        <v>23.49798536359371</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-453792.8842395873</v>
+        <v>23.34878283813699</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>848494.4121374347</v>
+        <v>23.43183886198578</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>936961.6373381224</v>
+        <v>23.44691849595874</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-1722193.885031216</v>
+        <v>23.30487847600382</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>350644.3390956866</v>
+        <v>23.41952569210964</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>700183.7270902999</v>
+        <v>23.44988550426919</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-1933034.003418711</v>
+        <v>23.30973678254465</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1928001.760694233</v>
+        <v>23.4818587952218</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2543598.940516416</v>
+        <v>23.52027059519451</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1143383.005308938</v>
+        <v>23.48604535164842</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1559603.452427575</v>
+        <v>23.52764850861364</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1536586.943948199</v>
+        <v>23.54652303693505</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-307361.6146850119</v>
+        <v>23.36065121795508</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1805338.949478642</v>
+        <v>23.55659588333803</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1979187.856833369</v>
+        <v>23.57964883422017</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-213251.6784245177</v>
+        <v>23.35022587660403</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1014328.768395755</v>
+        <v>23.46029582010739</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1280746.877561564</v>
+        <v>23.47957346010762</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1321963.817660316</v>
+        <v>23.29924133834493</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>755685.8790436329</v>
+        <v>23.46420458707826</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1105428.679103576</v>
+        <v>23.4897191837143</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-1578336.735960404</v>
+        <v>23.31438436377966</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2405086.71892707</v>
+        <v>23.5416613546752</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2752829.440238301</v>
+        <v>23.57462327017843</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>2111777.334049053</v>
+        <v>23.62361336267597</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2400925.763014051</v>
+        <v>23.65917039066908</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2482070.424214797</v>
+        <v>23.68387686250123</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-80503.31207013497</v>
+        <v>23.38050692719992</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2082348.786898348</v>
+        <v>23.6505959681383</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2270281.355159463</v>
+        <v>23.6848914104046</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-2031544.467605365</v>
+        <v>23.37971224430149</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>293588.1584858019</v>
+        <v>23.40843781806338</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>1073169.054253279</v>
+        <v>23.40971768601566</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-3483515.971807086</v>
+        <v>23.37388061603326</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>5787926.908246351</v>
+        <v>23.4361346193195</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>5730567.95962778</v>
+        <v>23.4412949969682</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-5027048.407004056</v>
+        <v>23.36950764628439</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>7062345.918716231</v>
+        <v>23.44838315293482</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>6225277.593448045</v>
+        <v>23.45241123459898</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>4330586.004474603</v>
+        <v>23.459018382396</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>5363351.850172543</v>
+        <v>23.47105802712122</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>5136039.684255398</v>
+        <v>23.47812564944604</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>492797.9942414666</v>
+        <v>23.40247925198064</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2801803.387863681</v>
+        <v>23.45308464329327</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>5192345.66679201</v>
+        <v>23.47000061729803</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-760087.9121243532</v>
+        <v>23.37663635453238</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1326238.094339524</v>
+        <v>23.42484761530953</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>1298491.526828186</v>
+        <v>23.43366830757718</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>374533.1862190401</v>
+        <v>23.37112226162839</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2795885.207118532</v>
+        <v>23.44203059389545</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>3609078.560986452</v>
+        <v>23.46452146152379</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-3082075.332686986</v>
+        <v>23.35174840256581</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3188235.319856571</v>
+        <v>23.46366119619473</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>4156291.938067934</v>
+        <v>23.4910898174644</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1791661.104530189</v>
+        <v>23.46588607056537</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2559500.000944762</v>
+        <v>23.48867697538863</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>2364630.197705134</v>
+        <v>23.51011092599904</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>136881.1737159741</v>
+        <v>23.39679049893553</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>2964371.191971715</v>
+        <v>23.51192396571959</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>3263759.777831768</v>
+        <v>23.52834597915863</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54581.58414191945</v>
+        <v>23.37946877614221</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1751925.755476602</v>
+        <v>23.44457281026923</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2024870.384607626</v>
+        <v>23.45670554473902</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>607326.9539682989</v>
+        <v>23.36804469382225</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>3003038.586572107</v>
+        <v>23.47295781278358</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>3214553.380033163</v>
+        <v>23.49187310084899</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-2393283.164430918</v>
+        <v>23.35665163339884</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>4013456.25983757</v>
+        <v>23.50632903037176</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4379791.550860815</v>
+        <v>23.52995771972775</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>3928456.301820772</v>
+        <v>23.5720248136077</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>4094557.39696622</v>
+        <v>23.58612655253315</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4426109.021180572</v>
+        <v>23.61273361590699</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>762867.1156787436</v>
+        <v>23.41567526769207</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>3744706.098831329</v>
+        <v>23.57888568919754</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>4079199.935243965</v>
+        <v>23.60435759903617</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-1959455.952415296</v>
+        <v>23.35689272945806</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>233702.6725304806</v>
+        <v>23.41267882038956</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1095674.120459619</v>
+        <v>23.41812607057209</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-3253158.607149729</v>
+        <v>23.33046069664577</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-45022.17655195118</v>
+        <v>23.42484885152211</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1379804.188465234</v>
+        <v>23.43167175531064</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-3434194.244338789</v>
+        <v>23.34406873748405</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2978709.991927268</v>
+        <v>23.46998670647754</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3476655.019903863</v>
+        <v>23.476762611906</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2436751.533957465</v>
+        <v>23.49760262957758</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2847569.114738285</v>
+        <v>23.52041265579556</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2993686.934317185</v>
+        <v>23.5218694970062</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-1289110.137822798</v>
+        <v>23.35816978536119</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>2375390.635070716</v>
+        <v>23.47604660805425</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3166745.325536779</v>
+        <v>23.49376281881984</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-1103424.529816045</v>
+        <v>23.34088377533117</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>334773.0188917482</v>
+        <v>23.42190276949374</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>511572.9892047283</v>
+        <v>23.43705336244964</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1981840.187096381</v>
+        <v>23.29471880503236</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-131432.8194119086</v>
+        <v>23.40519249527436</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>154345.0110313857</v>
+        <v>23.428369577057</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-2163140.349772602</v>
+        <v>23.30307438190734</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1202926.439197886</v>
+        <v>23.47194451145495</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1811569.243700405</v>
+        <v>23.50929361272115</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>620552.0408801755</v>
+        <v>23.47809219143566</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1086753.108905142</v>
+        <v>23.51726500847713</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>969352.1705367889</v>
+        <v>23.53200222405461</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-1056894.604145643</v>
+        <v>23.3185898080132</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>853242.1333871048</v>
+        <v>23.52826113352402</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1319278.630233284</v>
+        <v>23.5484470427857</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-880016.9476058926</v>
+        <v>23.33241683993424</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>388393.0838708782</v>
+        <v>23.44447355442863</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>845104.0313551562</v>
+        <v>23.46567690885296</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1633387.621086804</v>
+        <v>23.27896758994578</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>320651.9438866292</v>
+        <v>23.44387740765729</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>760331.158233562</v>
+        <v>23.46502458325196</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1761448.038648809</v>
+        <v>23.29669561305256</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1513405.074576495</v>
+        <v>23.52484299025302</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2095076.963657187</v>
+        <v>23.55812208308114</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1389935.852588608</v>
+        <v>23.60399591792201</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1866978.319018084</v>
+        <v>23.64151276127768</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2143685.127117554</v>
+        <v>23.67503145877026</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-806092.6588886537</v>
+        <v>23.32344868980051</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1549600.975083984</v>
+        <v>23.6198416279103</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1964457.372651127</v>
+        <v>23.65516236810982</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1751174.367228166</v>
+        <v>23.35501589735093</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-1847540.441944931</v>
+        <v>23.36582688498923</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-1463127.395683993</v>
+        <v>23.37221157507114</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-2873849.883660214</v>
+        <v>23.31872890522304</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-1288899.837036674</v>
+        <v>23.36951015509916</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-877106.6567377889</v>
+        <v>23.37807715032127</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-2818113.367493025</v>
+        <v>23.32509612207359</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-234889.8263514451</v>
+        <v>23.39666371537866</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-50849.72247975695</v>
+        <v>23.40646902638957</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-571695.1831864434</v>
+        <v>23.39944336134405</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-92978.02963955709</v>
+        <v>23.41268524255517</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>76380.29838673233</v>
+        <v>23.42278934724032</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-730606.5835992494</v>
+        <v>23.34217613421</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-402077.5452301489</v>
+        <v>23.38259369576506</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>65397.10164382233</v>
+        <v>23.40447451157079</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-1038234.980487961</v>
+        <v>23.35470940111587</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>180043.8586787693</v>
+        <v>23.40187026121108</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>613273.2025680472</v>
+        <v>23.43175304031717</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-1426245.746558025</v>
+        <v>23.32000647861272</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>66256.35897790646</v>
+        <v>23.39645334137643</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>749884.3583060888</v>
+        <v>23.43903269608317</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-1569668.046009238</v>
+        <v>23.31885753707382</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1064687.538179965</v>
+        <v>23.4433272826587</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>2075950.679980323</v>
+        <v>23.49807937139593</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>630087.9244021565</v>
+        <v>23.43905091637576</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>922327.8612922961</v>
+        <v>23.47500195740069</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>1338598.525153917</v>
+        <v>23.51338071730885</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-708612.0942666819</v>
+        <v>23.34352626072633</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>938399.430833631</v>
+        <v>23.49016019605194</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1380192.2635978</v>
+        <v>23.53229564062043</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-571430.2575781653</v>
+        <v>23.36990767769925</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>527405.7116448856</v>
+        <v>23.44298439421181</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1130060.555772471</v>
+        <v>23.47721726709107</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1280408.384119414</v>
+        <v>23.32066432748591</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>265431.7236409094</v>
+        <v>23.44772871823727</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>1012032.133204682</v>
+        <v>23.48514274511605</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-1146059.007152988</v>
+        <v>23.3338902855445</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1620156.57263354</v>
+        <v>23.51172900590192</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2451864.999806902</v>
+        <v>23.56098979712441</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1128558.266563087</v>
+        <v>23.58272443803914</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1368236.752486089</v>
+        <v>23.60949987269222</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>2156784.802110535</v>
+        <v>23.66280724673152</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-271202.3125679756</v>
+        <v>23.37873059891234</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1163158.730521718</v>
+        <v>23.59340546336952</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1937483.406177014</v>
+        <v>23.65134025493359</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-3772394.584693857</v>
+        <v>23.3638764616172</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-2768099.425889612</v>
+        <v>23.38687509649749</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-1809949.034728133</v>
+        <v>23.3923533482522</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-7021092.109992239</v>
+        <v>23.34631961586267</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-327735.4374486425</v>
+        <v>23.40136306354364</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>389740.9826287688</v>
+        <v>23.41159857503557</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-7214520.872492202</v>
+        <v>23.34810431849863</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>2024236.043347225</v>
+        <v>23.41975954635506</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>1950334.058589862</v>
+        <v>23.42830618478423</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>58592.66104408249</v>
+        <v>23.42358077001226</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1607009.721299771</v>
+        <v>23.43564957272891</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2125567.549148889</v>
+        <v>23.44709123931284</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-1539364.878115781</v>
+        <v>23.37268328596313</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>989829.8721293877</v>
+        <v>23.41945013532968</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3168802.924800522</v>
+        <v>23.44180486985471</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-3138372.238190259</v>
+        <v>23.3500047692342</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-1254666.129711615</v>
+        <v>23.39186849721625</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-74360.16795888112</v>
+        <v>23.40949766668682</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-3184440.045040394</v>
+        <v>23.3302089173689</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-1094323.996989872</v>
+        <v>23.3929905337491</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1791243.955311432</v>
+        <v>23.42600678322766</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-4813755.311475372</v>
+        <v>23.31985187226153</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>307242.2171960311</v>
+        <v>23.42338336706985</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2932451.791012418</v>
+        <v>23.46015040590611</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>6906.890146168649</v>
+        <v>23.41622046559023</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1003271.654657532</v>
+        <v>23.43989618011621</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1720839.848896809</v>
+        <v>23.46929125981989</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1876413.252895332</v>
+        <v>23.35002825675111</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1346816.053257269</v>
+        <v>23.46128836688157</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2419230.446873531</v>
+        <v>23.48914044412317</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1396982.941121987</v>
+        <v>23.34772130071004</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-81485.32410426682</v>
+        <v>23.40633745035696</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>1128073.112840911</v>
+        <v>23.42785058778027</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-2511206.797057495</v>
+        <v>23.31960882436937</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-459539.8375955373</v>
+        <v>23.41627553414222</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1227768.435372452</v>
+        <v>23.44624872415731</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-3758534.539114247</v>
+        <v>23.31881080479069</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1510874.89507804</v>
+        <v>23.45983773456925</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3277766.750556674</v>
+        <v>23.4934257996968</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>2312727.725741651</v>
+        <v>23.51439371662349</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2588721.324836086</v>
+        <v>23.52961405162666</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3441258.222912018</v>
+        <v>23.56494081209678</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-1005420.753902922</v>
+        <v>23.36175147715681</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1822480.303550656</v>
+        <v>23.52021389524532</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>3133641.004502344</v>
+        <v>23.55858458187387</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-823054.2051720651</v>
+        <v>23.36760610406225</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>265737.109995887</v>
+        <v>23.41777754528038</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>857485.678458006</v>
+        <v>23.42010724416068</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-2181513.099600634</v>
+        <v>23.33935925699126</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>1495388.177081133</v>
+        <v>23.44235517807934</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>1846021.448677999</v>
+        <v>23.44312433588695</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-2215794.120110775</v>
+        <v>23.35685804968993</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>3419143.591050013</v>
+        <v>23.48374454356438</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>3175788.120219267</v>
+        <v>23.48571943542455</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>2374683.451476839</v>
+        <v>23.51798156242646</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2585946.521492266</v>
+        <v>23.5339680304965</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>2830526.847801464</v>
+        <v>23.53319527976954</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-205399.9288868334</v>
+        <v>23.40305295340341</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>758828.8902724644</v>
+        <v>23.48741602437925</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>2952477.044982033</v>
+        <v>23.51755023979196</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-203126.631178765</v>
+        <v>23.3679284181016</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>737104.3882693066</v>
+        <v>23.44700137787851</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>722730.0526461524</v>
+        <v>23.45316671512684</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-1319743.830913752</v>
+        <v>23.31652980092465</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>422584.6316954633</v>
+        <v>23.43736052866985</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>539664.6979897744</v>
+        <v>23.45105173945616</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-1421209.246673543</v>
+        <v>23.32593619984348</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1596190.279347426</v>
+        <v>23.50306753492717</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1718315.140690218</v>
+        <v>23.52970087017944</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>950308.578891508</v>
+        <v>23.5163055401259</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1179219.236174761</v>
+        <v>23.5422685464133</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1141343.497016439</v>
+        <v>23.55464957040279</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-58326.81969493747</v>
+        <v>23.38584922215467</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1269583.041151743</v>
+        <v>23.56542666924802</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1374407.950319592</v>
+        <v>23.5805256008663</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-163238.2634005104</v>
+        <v>23.35665291394802</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>696954.3940364383</v>
+        <v>23.46712380546202</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>876499.1633934359</v>
+        <v>23.47634156363281</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-1078572.785062919</v>
+        <v>23.29598641516008</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>660801.0998718457</v>
+        <v>23.47407669689809</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>748083.0857547685</v>
+        <v>23.4813457144605</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-1207816.336967618</v>
+        <v>23.31773640260596</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1916076.989348988</v>
+        <v>23.55676533708552</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>1889540.763516448</v>
+        <v>23.57544440760194</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1704965.983860621</v>
+        <v>23.64943437151041</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1698579.415614441</v>
+        <v>23.67005924901827</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>1843608.910075423</v>
+        <v>23.6864211881249</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>118341.7706422959</v>
+        <v>23.3913002225779</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1493661.791281817</v>
+        <v>23.65023741564141</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1748323.973908296</v>
+        <v>23.67981717136768</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-1871869.598948436</v>
+        <v>23.35224865767387</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>282385.8681634073</v>
+        <v>23.40827868243174</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>898804.100476003</v>
+        <v>23.41283665439801</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-2952502.686891096</v>
+        <v>23.32818451187813</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>642702.1598626608</v>
+        <v>23.42418017780693</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1460964.397796628</v>
+        <v>23.42996228378033</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-3280391.316961993</v>
+        <v>23.34052525449005</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2941060.640851372</v>
+        <v>23.46776401144961</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3108627.010345154</v>
+        <v>23.47384711766998</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>2049423.048567992</v>
+        <v>23.493880029414</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>2800853.612367836</v>
+        <v>23.51846174433249</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2650952.316419009</v>
+        <v>23.51453711500147</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-1286633.446950307</v>
+        <v>23.35258668273233</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>2197935.842994733</v>
+        <v>23.47309573412121</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>2834404.297271696</v>
+        <v>23.48974644923863</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-980208.9477960828</v>
+        <v>23.33873384515375</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>448000.7090888277</v>
+        <v>23.42099630278437</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>527028.9693135896</v>
+        <v>23.43484359640517</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-1718452.668231907</v>
+        <v>23.29334978132597</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>166610.6020402602</v>
+        <v>23.40602884804309</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>341943.3569121485</v>
+        <v>23.42824018840626</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1857754.310965731</v>
+        <v>23.30031344367717</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1405514.069578827</v>
+        <v>23.47181901619352</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1876060.538041234</v>
+        <v>23.50849478675456</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>786064.3431556515</v>
+        <v>23.48057121512911</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1246287.417529338</v>
+        <v>23.5182667003473</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1144857.215985151</v>
+        <v>23.53006441874385</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-806972.7805686779</v>
+        <v>23.31661217770496</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1311066.377818756</v>
+        <v>23.5329666329958</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1420462.081677712</v>
+        <v>23.54968195767487</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-934755.9249361586</v>
+        <v>23.32566601094547</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>158806.2343840606</v>
+        <v>23.43744284673514</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>652857.458658218</v>
+        <v>23.45905192905659</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1530292.30435889</v>
+        <v>23.27302598870124</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>251342.3933880677</v>
+        <v>23.43870512357606</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>679474.3051483934</v>
+        <v>23.46054137258582</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-1644822.920073749</v>
+        <v>23.2902882572512</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1201363.19334431</v>
+        <v>23.52004942117533</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>1904799.288215956</v>
+        <v>23.55422350315897</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>1120946.603019004</v>
+        <v>23.59698207571561</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1556915.087470793</v>
+        <v>23.63184276825858</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>1908338.752287457</v>
+        <v>23.6638374994491</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-760972.6406870865</v>
+        <v>23.31156888120602</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1231845.312057678</v>
+        <v>23.61102906645297</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1720357.43774036</v>
+        <v>23.64698912029507</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.53</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.754</v>
+        <v>17.46</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.026</v>
+        <v>-0.873</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.752</v>
+        <v>23.985</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.908</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.654</v>
+        <v>4.912</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.34397965078463</v>
+        <v>18.53632919557182</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.36631414036023</v>
+        <v>15.95491687447528</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.37175796165875</v>
+        <v>19.1217599068332</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.30720528152787</v>
+        <v>3.646360212538212</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.37067874856867</v>
+        <v>19.76229920451303</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.38100715849815</v>
+        <v>23.09583963518059</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.31365436881729</v>
+        <v>4.593432774996714</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.40136493676471</v>
+        <v>26.90390542909974</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.41097222734164</v>
+        <v>27.06399352427754</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.40381520705667</v>
+        <v>22.53891814548733</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.42264475233571</v>
+        <v>29.90819411374486</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.43095206581665</v>
+        <v>28.98939566767516</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.34305376567937</v>
+        <v>19.19689566605691</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.39959495839908</v>
+        <v>25.29689045286475</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.42442925715093</v>
+        <v>29.56687780003599</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.36302829321739</v>
+        <v>20.19507062455862</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.41941955498161</v>
+        <v>35.44558611187409</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23.443938313689</v>
+        <v>42.60324935187148</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.31979124822584</v>
+        <v>9.612656001096337</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.40366273429498</v>
+        <v>30.81483689557376</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.44614701303824</v>
+        <v>46.08307080130751</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23.32004114909678</v>
+        <v>9.279342662828508</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.45960150807568</v>
+        <v>47.70146795555433</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.51067207867593</v>
+        <v>64.95996665039952</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.46093583157021</v>
+        <v>48.90333103431874</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>23.50061001874333</v>
+        <v>60.6016500275862</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>23.53310290802687</v>
+        <v>68.13562496186876</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.37069205055363</v>
+        <v>22.40717022794501</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.52978317743584</v>
+        <v>65.8103650073745</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.56473783899094</v>
+        <v>73.3073134324579</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.37899464777898</v>
+        <v>27.97742143296011</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23.46205307376823</v>
+        <v>46.2502888088241</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>23.49054079396161</v>
+        <v>51.6992428926558</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>23.32521990287351</v>
+        <v>12.46956185930311</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>23.46017266042672</v>
+        <v>40.36651608149673</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.49729521327488</v>
+        <v>52.29921458409129</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.33843837920251</v>
+        <v>12.77327235070824</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>23.53329771615018</v>
+        <v>65.75643335978128</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.57838847660755</v>
+        <v>74.1440778490917</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>23.62129441308248</v>
+        <v>73.67419330046171</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>23.65396373147971</v>
+        <v>86.09633501693401</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>23.69466320139076</v>
+        <v>90.97492085092199</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.41835214584129</v>
+        <v>36.5944704307641</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>23.64798278260171</v>
+        <v>85.61397534084031</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23.69491520451241</v>
+        <v>87.65160073467975</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>23.3539883433719</v>
+        <v>12.4172901979629</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.42858761932244</v>
+        <v>37.98815819453718</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.43769070995812</v>
+        <v>41.71927887903826</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.33054867859974</v>
+        <v>3.942946099309644</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.44792447322811</v>
+        <v>42.93588399604542</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.45896399696003</v>
+        <v>47.07561921702977</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.34204409440332</v>
+        <v>5.315422170556616</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.49812383352781</v>
+        <v>62.1650010738859</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.50753176463381</v>
+        <v>61.28691011179431</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>23.52469439860384</v>
+        <v>54.8998140041238</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>23.55736794092223</v>
+        <v>62.42505909753804</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>23.55305649816544</v>
+        <v>61.06827022026577</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23.36546724566933</v>
+        <v>14.69228416706723</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.5115940878257</v>
+        <v>60.74216542261017</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>23.53015195536386</v>
+        <v>67.90902011725015</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>23.34513886123699</v>
+        <v>15.48251974051879</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>23.44897465583871</v>
+        <v>39.00563945490227</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>23.47251081618683</v>
+        <v>45.25290468347936</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>23.3035578464169</v>
+        <v>4.055157328636813</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.43933650107151</v>
+        <v>33.41725637926867</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23.47379733830931</v>
+        <v>43.57969166867782</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.30972276818187</v>
+        <v>7.499825202394387</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23.51635454824133</v>
+        <v>56.12845119886864</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>23.5628344681546</v>
+        <v>70.64112714932621</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.53102276834139</v>
+        <v>51.79798180239594</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.58867434639734</v>
+        <v>65.2768581168441</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.59696926038457</v>
+        <v>67.23482268465051</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.35438770386208</v>
+        <v>13.32378131437824</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23.61202635454359</v>
+        <v>66.82167095966084</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>23.62773481203013</v>
+        <v>73.39463895198621</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.34431839148563</v>
+        <v>14.70503868584848</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>23.48927523561473</v>
+        <v>44.68954741829005</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>23.51341184517283</v>
+        <v>48.0766623885262</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>23.28962942089883</v>
+        <v>3.245587755446248</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>23.49399426840432</v>
+        <v>43.73264631748444</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>23.51899337535493</v>
+        <v>50.82712119299437</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.30973314901046</v>
+        <v>6.665510488246532</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23.58911109419415</v>
+        <v>70.02940013542792</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>23.62501784983846</v>
+        <v>74.55305739116228</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.6813333852803</v>
+        <v>74.83189765013867</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.73874387041016</v>
+        <v>89.2338997180577</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>23.759035755869</v>
+        <v>88.81781937223097</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>23.36536646605417</v>
+        <v>15.43185046373381</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.72905264671864</v>
+        <v>83.07700965449415</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>23.75088549499746</v>
+        <v>86.23917826744</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>23.3709464258588</v>
+        <v>26.36941963027015</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.43280171406894</v>
+        <v>41.63581530842671</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.434078978469</v>
+        <v>44.36629261666225</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23.33351070103349</v>
+        <v>10.78668629222801</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>23.44270456783034</v>
+        <v>45.98604868873608</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>23.44363198952572</v>
+        <v>49.03654587290741</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>23.34741768740088</v>
+        <v>10.94804946033123</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.49188267941496</v>
+        <v>65.67856086517983</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23.49244044162293</v>
+        <v>60.32046901808175</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.52021533527</v>
+        <v>55.2881070137995</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>23.55107967638433</v>
+        <v>66.59635032644509</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23.54441721117861</v>
+        <v>64.97355603370909</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.38097351464844</v>
+        <v>28.79212554993623</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.50327334649745</v>
+        <v>62.92686283903518</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>23.5143691293047</v>
+        <v>68.06797126429765</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.38532347800396</v>
+        <v>26.65062574515365</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>23.47970271341459</v>
+        <v>46.42882741072219</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>23.4882996481976</v>
+        <v>48.85814933314144</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>23.33028837341225</v>
+        <v>8.719217599552174</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.46529666247702</v>
+        <v>42.18057754300182</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>23.48033967342787</v>
+        <v>45.2716439510978</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.34034025778028</v>
+        <v>9.859571118822174</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.53982272193599</v>
+        <v>65.23231960641073</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>23.5696849159506</v>
+        <v>70.55807358263981</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>23.56209789719495</v>
+        <v>58.09825954354278</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>23.61208275230414</v>
+        <v>69.17627096490253</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>23.61412967068651</v>
+        <v>67.37320696761434</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.40330380602547</v>
+        <v>28.77454686728132</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.63435990621315</v>
+        <v>70.27707451887156</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>23.63495914812053</v>
+        <v>71.17294097772694</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.37958509574893</v>
+        <v>31.58292373042201</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>23.51524668926202</v>
+        <v>51.96470320518034</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>23.52260362928897</v>
+        <v>53.53609695360576</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>23.31455753819656</v>
+        <v>10.44755639923391</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>23.51973675190465</v>
+        <v>51.345081654391</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>23.52298355395952</v>
+        <v>52.67545029911002</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>23.33707913226264</v>
+        <v>11.6793144530987</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23.60982316766464</v>
+        <v>76.91540518221603</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>23.62693803776821</v>
+        <v>75.02812820458672</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>23.71000461670898</v>
+        <v>81.06152161302975</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>23.75862231389524</v>
+        <v>87.4871390324673</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>23.77388141044623</v>
+        <v>89.97892487423857</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.41555979008211</v>
+        <v>35.59117048944185</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>23.75346449087122</v>
+        <v>87.30436446375265</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>23.75972884783482</v>
+        <v>89.11218197529435</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>23.35433623287185</v>
+        <v>20.38988263538876</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.37285751831722</v>
+        <v>20.4414598614897</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.37902994039303</v>
+        <v>21.35898423456503</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>23.31459804555438</v>
+        <v>5.278489161753551</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.37378270954664</v>
+        <v>23.38445530218948</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.38591655239945</v>
+        <v>24.25117498470038</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>23.31985283692278</v>
+        <v>7.312570566067432</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.4033215356474</v>
+        <v>30.55923236873928</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.41389421436552</v>
+        <v>28.55767782008021</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.40493534215151</v>
+        <v>25.23780012804776</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>23.41821283246251</v>
+        <v>30.15107556216287</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>23.43760786458237</v>
+        <v>31.93568209531688</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>23.377879149331</v>
+        <v>60.91564978662859</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.42317585537299</v>
+        <v>61.08046545123142</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.4460519656648</v>
+        <v>65.23493494346988</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>23.37024308775723</v>
+        <v>17.58921766532098</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.41595792241387</v>
+        <v>37.5967138713925</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>23.44082732568418</v>
+        <v>42.00010114330841</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>23.32598968957526</v>
+        <v>9.147919481187422</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.39850862452887</v>
+        <v>34.19819656108474</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23.44239970790772</v>
+        <v>48.38630875583289</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>23.31919416556665</v>
+        <v>9.245643763369429</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23.44723731237302</v>
+        <v>47.60777291537787</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>23.49899081296792</v>
+        <v>64.4394864023745</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>23.43946124975265</v>
+        <v>40.61394841026488</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>23.47288448997306</v>
+        <v>51.23331258701059</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>23.51703340425204</v>
+        <v>62.02860073779786</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.39507275407725</v>
+        <v>21.91138590391297</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>23.52991555264252</v>
+        <v>63.83198319453042</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.55993287037339</v>
+        <v>69.84481992046599</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>23.39346787102774</v>
+        <v>30.29807210847089</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>23.46155721848453</v>
+        <v>47.02079795141111</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>23.49100763547204</v>
+        <v>53.39553545680076</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23.32949426468442</v>
+        <v>12.60938496495263</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.44843105496901</v>
+        <v>41.66311373830028</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23.48759988917874</v>
+        <v>50.98559149133401</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.34009621993641</v>
+        <v>14.85789570426019</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>23.5191585604989</v>
+        <v>62.08607488616811</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>23.56563431877693</v>
+        <v>73.60828818434669</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>23.59738894339456</v>
+        <v>64.34389153952704</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>23.61972734298696</v>
+        <v>76.75641902549134</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>23.67527575878987</v>
+        <v>87.57856598155104</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>23.4417987337086</v>
+        <v>40.43479297550817</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>23.63998591064176</v>
+        <v>80.2329178106782</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>23.68141730975747</v>
+        <v>83.64946224637723</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.37938752609975</v>
+        <v>27.66762147520712</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23.43096405285397</v>
+        <v>45.0135566666802</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.42893760800252</v>
+        <v>43.81165276718696</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.34396454401613</v>
+        <v>11.11199900877929</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.4404890899789</v>
+        <v>48.45625569548683</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.44405450344477</v>
+        <v>51.50980683129157</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.35738142999369</v>
+        <v>14.11217695430287</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23.4801110211307</v>
+        <v>69.43696765437092</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.48107431545495</v>
+        <v>63.91931360119196</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.48850551670389</v>
+        <v>55.33122461255235</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.50999076368287</v>
+        <v>66.78792437502689</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>23.51753413758338</v>
+        <v>65.26427834265465</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.39608820682201</v>
+        <v>26.50757167827721</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.47280654975008</v>
+        <v>22.1391742120682</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>23.48967176891253</v>
+        <v>28.54515824325576</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>23.40295462136564</v>
+        <v>33.28032320084574</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.48850708667453</v>
+        <v>56.10436861599943</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.49345891430006</v>
+        <v>53.09144029142218</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.35687990093977</v>
+        <v>10.11515205324621</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.47536294221887</v>
+        <v>46.70899419986308</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.49798490218133</v>
+        <v>51.12512821918598</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>23.36548985446836</v>
+        <v>12.43910299915011</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.54177077790602</v>
+        <v>70.20162160428397</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>23.5709525799807</v>
+        <v>72.72086483351845</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.55904167467236</v>
+        <v>68.24977318307185</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.59641692891378</v>
+        <v>76.33722318685639</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>23.62308162994169</v>
+        <v>76.0817777613253</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.44963444217889</v>
+        <v>43.09382989816474</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.62474076963161</v>
+        <v>79.06694697106551</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>23.63868057617566</v>
+        <v>77.91151581000503</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.39099978931716</v>
+        <v>36.96327066056524</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>23.50105349096001</v>
+        <v>56.16109259594359</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23.51165212920687</v>
+        <v>56.5458693971972</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>23.32977209834293</v>
+        <v>11.17159142584082</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.49596444545341</v>
+        <v>48.843414052792</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.51491986996115</v>
+        <v>51.91900633626342</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>23.35116906224495</v>
+        <v>13.57646951279217</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.58056403191927</v>
+        <v>75.15348523085424</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>23.60573049542045</v>
+        <v>77.71852036690919</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>23.67322414029423</v>
+        <v>83.18160617392935</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>23.70140235305936</v>
+        <v>89.72948465169461</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>23.73473517782136</v>
+        <v>91.31409035473771</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.44771201336374</v>
+        <v>49.31109781390212</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>23.69274692770551</v>
+        <v>90.47004479882628</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>23.71761510421247</v>
+        <v>86.04162713746558</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>23.34564751386834</v>
+        <v>17.9403744993322</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.44323150289339</v>
+        <v>34.61561103816133</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.44464649598151</v>
+        <v>38.76578581415792</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.31278038512121</v>
+        <v>9.533311963870368</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>23.46670092640185</v>
+        <v>45.41540426741947</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.47316265740625</v>
+        <v>48.3907200567255</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.33193313721024</v>
+        <v>11.08885920513071</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>23.53878591697742</v>
+        <v>69.23843620389493</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.53727015707497</v>
+        <v>64.81853016331308</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>23.54229006303426</v>
+        <v>59.9868647402869</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>23.58138787913056</v>
+        <v>67.29507269519013</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.58683725401206</v>
+        <v>68.26870702068646</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>23.34070511116792</v>
+        <v>18.29756784040911</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>23.48002916938417</v>
+        <v>11.49076792980234</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.50953606818044</v>
+        <v>14.63130668320138</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.37543624943822</v>
+        <v>28.42208255535131</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>23.53747152251468</v>
+        <v>52.90954720229013</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.53990447683555</v>
+        <v>53.60670006349652</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>23.30147777656677</v>
+        <v>8.829562838640538</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.51002950822292</v>
+        <v>47.10013564496047</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.53011800290495</v>
+        <v>50.39962655696566</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.32772025230599</v>
+        <v>10.80335453422177</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>23.63010130393539</v>
+        <v>71.63427817938172</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>23.65501005062834</v>
+        <v>72.79132782566393</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.63024624597243</v>
+        <v>57.25519381559783</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>23.70003045227921</v>
+        <v>71.30656560345082</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.72360295578504</v>
+        <v>72.70037515273739</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.40837659450042</v>
+        <v>27.47413954536846</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>23.72331311931408</v>
+        <v>77.73547231237158</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.73581327044959</v>
+        <v>79.91895700056344</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.35671855609612</v>
+        <v>28.36757610955156</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.55748259249817</v>
+        <v>50.46296348170173</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.5652822198868</v>
+        <v>53.3482305850246</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>23.26258089957512</v>
+        <v>7.053185232059558</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>23.54114571998181</v>
+        <v>48.36889043878227</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>23.55383900633283</v>
+        <v>49.90218189471623</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.30349652816036</v>
+        <v>10.27157751565363</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>23.6838820393025</v>
+        <v>73.54889743679306</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>23.70046995867563</v>
+        <v>73.08957731425595</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>23.77752359200103</v>
+        <v>74.76024153935481</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>23.84089580705263</v>
+        <v>86.41077719292819</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>23.86718624426522</v>
+        <v>84.77507496787798</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>23.38991491314054</v>
+        <v>27.20382524019612</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.81860994239741</v>
+        <v>84.77984646619092</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>23.8406028516387</v>
+        <v>83.68027775485231</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>23.31497905633677</v>
+        <v>13.07671955969382</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.32621070275456</v>
+        <v>9.908391802001098</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.33577612545248</v>
+        <v>13.56365395014132</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.27522506081956</v>
+        <v>2.355497931391199</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.34106296992113</v>
+        <v>14.59731270933084</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.35101462715505</v>
+        <v>17.33820881179553</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.27574854731777</v>
+        <v>2.741265988695247</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.37815492417383</v>
+        <v>22.99208544118664</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.38807729918623</v>
+        <v>22.6794769165781</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.39881216618749</v>
+        <v>22.70889167138899</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.42496748733149</v>
+        <v>30.22555548345287</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>23.42752372234112</v>
+        <v>31.43259329158927</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.30503496835722</v>
+        <v>15.09951581766311</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.36149222035098</v>
+        <v>19.91199637767493</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.39419807563995</v>
+        <v>21.6446844595181</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.34113984409842</v>
+        <v>15.84865910181529</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>23.41111779710736</v>
+        <v>29.89975040781669</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>23.45038146227482</v>
+        <v>35.67553774028646</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.29206524450196</v>
+        <v>6.015151216522479</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.40609636117484</v>
+        <v>28.21125956260759</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>23.45846372113283</v>
+        <v>37.21008847474517</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23.29414665177378</v>
+        <v>7.982410528520305</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.48198377628148</v>
+        <v>43.69143955141945</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>23.55010146598961</v>
+        <v>54.8008050436011</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>23.48990380205268</v>
+        <v>40.19709431761243</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>23.54964693333949</v>
+        <v>51.4061554936098</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>23.58036283836624</v>
+        <v>53.2133418414371</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>23.35005065915927</v>
+        <v>17.84542213283277</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>23.56842670504329</v>
+        <v>52.2851344205059</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.61042789050553</v>
+        <v>53.29078486927254</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.35825265896999</v>
+        <v>20.90932335865623</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.47671361092716</v>
+        <v>40.07961016923411</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>23.51724049972723</v>
+        <v>45.25311815298494</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>23.29508739276871</v>
+        <v>9.210497786866515</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.49487028060447</v>
+        <v>40.86131455949835</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>23.5350967824135</v>
+        <v>48.08861451049923</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>23.31780263063294</v>
+        <v>12.619612753063</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.59373974176752</v>
+        <v>64.29946707527711</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>23.64837649306887</v>
+        <v>68.0257020041023</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>23.71525293574869</v>
+        <v>69.38189666542689</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>23.77458648006815</v>
+        <v>77.6425263835087</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>23.81236416091821</v>
+        <v>78.97665682775319</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>23.42693052347741</v>
+        <v>33.1658585887863</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>23.76260250086362</v>
+        <v>79.04021953365975</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>23.82037967105895</v>
+        <v>82.92125605033263</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>23.32475365453134</v>
+        <v>15.24042251523344</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>23.3338035594209</v>
+        <v>13.23819582995537</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.3450723028865</v>
+        <v>12.74638180663364</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.28864964563887</v>
+        <v>2.382446672714224</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>23.33947401536696</v>
+        <v>14.59384760250029</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.35573657159684</v>
+        <v>16.46993406279016</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>23.28387591638587</v>
+        <v>-0.2586273900449108</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>23.36888828837462</v>
+        <v>17.54675346485299</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.38488683965587</v>
+        <v>13.83444190574129</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>23.35281345293687</v>
+        <v>11.42213221786938</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>23.37239529707695</v>
+        <v>14.95425436369081</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>23.38894881438257</v>
+        <v>11.97836532562177</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>23.29825301097789</v>
+        <v>15.87858692706338</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>23.33144844149318</v>
+        <v>16.41002257627552</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.35500635556058</v>
+        <v>18.52509135709214</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>23.2984193400313</v>
+        <v>8.056696304124305</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>23.32345175621836</v>
+        <v>12.25322049663922</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>23.35500652702944</v>
+        <v>15.32547524125813</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>23.25336785161815</v>
+        <v>-0.4418333875820686</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>23.30367955237672</v>
+        <v>8.796679488094313</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.35308899972143</v>
+        <v>15.30865041278588</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>23.23545634600103</v>
+        <v>-0.8224811023498262</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>23.35672999508792</v>
+        <v>16.85087872291136</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.41813998738431</v>
+        <v>29.82106753404243</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.32476477167765</v>
+        <v>13.23986266011838</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>23.36489895718725</v>
+        <v>23.12033333569399</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>23.41055049824168</v>
+        <v>31.18835415348086</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>23.25959200367478</v>
+        <v>5.935199724041507</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.37548664118864</v>
+        <v>22.66661374062301</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>23.40584712451667</v>
+        <v>18.1579863921596</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.3129506700371</v>
+        <v>9.517254436255079</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>23.36322838630448</v>
+        <v>15.23756202559167</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.4101609901541</v>
+        <v>33.69353540888844</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>23.25444854581813</v>
+        <v>1.155730836203546</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>23.35565837672861</v>
+        <v>16.58145159436188</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>23.41116189089572</v>
+        <v>34.45901997676961</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.25020932839663</v>
+        <v>0.579753395149055</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.42891151977384</v>
+        <v>27.57506885698194</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.49482553225768</v>
+        <v>58.28795363912354</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23.48550635470492</v>
+        <v>28.04786337972833</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.51805619449096</v>
+        <v>49.88978213374321</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>23.57976284870607</v>
+        <v>70.05583382525576</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.28686378228998</v>
+        <v>9.885895366689489</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.4819019264508</v>
+        <v>34.31008827331006</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>23.53402127874805</v>
+        <v>42.95471081287653</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.34526509434098</v>
+        <v>15.92791005479368</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.4355334528952</v>
+        <v>26.94580684737192</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.44557975254732</v>
+        <v>39.34001856484353</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.32542311437629</v>
+        <v>7.109874205494627</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.47835343941748</v>
+        <v>45.98977815778688</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.48578899894742</v>
+        <v>51.73274540018318</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.3414588800336</v>
+        <v>9.185916467049672</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.53381453622706</v>
+        <v>66.53840239278826</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23.54078669337912</v>
+        <v>67.92799100678725</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.57226248209484</v>
+        <v>61.27973709636605</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.61423992106173</v>
+        <v>73.34939173159668</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.60415217661233</v>
+        <v>70.725952378426</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.38390545195287</v>
+        <v>29.63454961251682</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>23.54253695503409</v>
+        <v>54.56159346153002</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.5803765159093</v>
+        <v>72.51807160803739</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.32154505006106</v>
+        <v>21.64883784728812</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.45161230700732</v>
+        <v>36.63988279793159</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>23.46531410877297</v>
+        <v>39.75339746579073</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.25506414817158</v>
+        <v>3.589203451036873</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.43921114783599</v>
+        <v>34.6306818431709</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.45936982452717</v>
+        <v>36.0226626185222</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.27270501980023</v>
+        <v>5.889389983191304</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.53296448866958</v>
+        <v>55.38929552239502</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.56773245628875</v>
+        <v>59.67957746788796</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.54124496117533</v>
+        <v>47.46251565758614</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>23.60389266916559</v>
+        <v>56.38120572740886</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>23.60547156083086</v>
+        <v>54.77425402625556</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23.34289383995267</v>
+        <v>28.85392142989873</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.6363845517994</v>
+        <v>62.69466047441986</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.64835556431384</v>
+        <v>62.44935645212794</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.31520776741909</v>
+        <v>23.29221391302061</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>23.49041959108075</v>
+        <v>39.08506116142311</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>23.50686276289218</v>
+        <v>44.09124077149715</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>23.24520803337246</v>
+        <v>8.887184966106613</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>23.50721459459907</v>
+        <v>45.25576107165844</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.5177948081689</v>
+        <v>47.17917467584705</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>23.27517271028927</v>
+        <v>11.49433896424977</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>23.6179361639945</v>
+        <v>68.88728261885454</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>23.64205897979591</v>
+        <v>69.6259923199886</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.71436968471572</v>
+        <v>71.30649592686633</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>23.77778113834589</v>
+        <v>77.56708723985003</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>23.78236551587543</v>
+        <v>78.82236125872612</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.3586202489812</v>
+        <v>34.56141244216788</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>23.77068799789562</v>
+        <v>77.10615756158073</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.79685518321504</v>
+        <v>83.73147376019615</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>23.33227252321189</v>
+        <v>10.57211041013791</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.33573219819384</v>
+        <v>12.95907858811159</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.35115890247458</v>
+        <v>15.68338725225193</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.29117123123337</v>
+        <v>1.610475964953107</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.32924702456088</v>
+        <v>9.443205124645221</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.34921696975578</v>
+        <v>15.10841991914821</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.29335973620002</v>
+        <v>1.416915906500865</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.36906421454413</v>
+        <v>19.11411392778321</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>23.38753181825088</v>
+        <v>20.69809894490867</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>23.36858621111504</v>
+        <v>18.03052047801489</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.38436038797394</v>
+        <v>23.54806499662484</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.39987809652992</v>
+        <v>23.73336025356105</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>23.29664039681371</v>
+        <v>12.36082525033317</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.34963043603946</v>
+        <v>20.28225574700305</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.37438520987608</v>
+        <v>23.77512622718896</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>23.326416181069</v>
+        <v>11.39948300955481</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.36044816399426</v>
+        <v>23.57077184463348</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.41334653892444</v>
+        <v>31.26833705101222</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.28199455448878</v>
+        <v>5.805221252945412</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.33734255036654</v>
+        <v>19.56689000295028</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.40593855490417</v>
+        <v>32.00969268874406</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>23.27944753163869</v>
+        <v>6.59010758988769</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>23.40457275364446</v>
+        <v>32.34529341657444</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>23.48682312450268</v>
+        <v>48.87021115372397</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>23.37961904072583</v>
+        <v>24.6633900803627</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.42296714175183</v>
+        <v>37.97194664845412</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.47386840878981</v>
+        <v>39.03128838890679</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.2816596869438</v>
+        <v>10.4465127733312</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.44291369288153</v>
+        <v>37.47601656168514</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.49897138808215</v>
+        <v>45.40728379813937</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.35114461972654</v>
+        <v>19.69714624619915</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.42240335062291</v>
+        <v>33.02090606111108</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>23.48306104068473</v>
+        <v>44.24736663188211</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.28900841188758</v>
+        <v>9.340367885022058</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>23.41033867919028</v>
+        <v>29.14936858614073</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>23.47700866196035</v>
+        <v>44.12099730400018</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.305668963859</v>
+        <v>13.96148095306177</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.50094634181809</v>
+        <v>46.71284707997062</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.57889590023629</v>
+        <v>62.7290298123317</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.56978614532785</v>
+        <v>47.90618974969446</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.61402705157088</v>
+        <v>58.9551658456943</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.69241965271881</v>
+        <v>76.28190324286233</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>23.34492681578735</v>
+        <v>28.0046231181786</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.6024501196252</v>
+        <v>59.84400134002594</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.6789027097398</v>
+        <v>72.44393703401565</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>23.30081244245887</v>
+        <v>6.359852186384984</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.34727921341056</v>
+        <v>6.057246181313001</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>23.34637561240685</v>
+        <v>8.580554800253719</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.25098870786737</v>
+        <v>-1.309374661722401</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.33779825623204</v>
+        <v>8.655758066607312</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.34135957490505</v>
+        <v>12.92490180122836</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>23.262107231892</v>
+        <v>-4.127441100458398</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.39185178736175</v>
+        <v>14.72746918210951</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.39071510719625</v>
+        <v>12.5700530394097</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.38724351420145</v>
+        <v>4.038717819037295</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>23.40670294633235</v>
+        <v>5.471091829386967</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>23.41000653449069</v>
+        <v>15.01914676032403</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>23.26456448277579</v>
+        <v>5.825943010724899</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>23.35239102064459</v>
+        <v>9.710710639655307</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>23.36023479162868</v>
+        <v>15.78045483011102</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.36110581627529</v>
+        <v>20.99409689711316</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.44773612841052</v>
+        <v>38.39741836617109</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>23.45395434781528</v>
+        <v>38.790331763028</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.30716212581316</v>
+        <v>8.300533324540627</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>23.4262908799768</v>
+        <v>35.87854983835892</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.44548659504097</v>
+        <v>38.17279337703268</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.31261624446761</v>
+        <v>8.93905883799566</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.50576440079003</v>
+        <v>55.26679062646929</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>23.53429694980453</v>
+        <v>56.745835343555</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>23.51571930098434</v>
+        <v>47.23922819363379</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.5572117619849</v>
+        <v>55.16592188511368</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>23.5716162846644</v>
+        <v>54.68083776026001</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.36945464690482</v>
+        <v>21.481589431962</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>23.57805207678105</v>
+        <v>60.54986378584365</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.58159910728752</v>
+        <v>60.26335269109922</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.37421410288537</v>
+        <v>23.73959838179821</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.49904061606892</v>
+        <v>44.0446472617468</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>23.50594077395455</v>
+        <v>46.90719141265456</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>23.30494742952427</v>
+        <v>9.356020376696627</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.49033632858367</v>
+        <v>48.13924755666383</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.49964084458488</v>
+        <v>51.28149467152353</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>23.32397703931454</v>
+        <v>9.571506822984752</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>23.58780492301713</v>
+        <v>69.47744009960249</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>23.60553944498479</v>
+        <v>67.77918933213927</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>23.68413322131269</v>
+        <v>75.67150007262867</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>23.72062256460656</v>
+        <v>84.33582822546784</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>23.74994411523483</v>
+        <v>81.84330656715582</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.39805033197464</v>
+        <v>27.05291348556878</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>23.71148504040993</v>
+        <v>82.75519713948594</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>23.71778770105935</v>
+        <v>81.2872960297419</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>23.34806813165607</v>
+        <v>12.31413238266369</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.35153514787901</v>
+        <v>14.19062601070123</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.36116785692668</v>
+        <v>18.72402324286197</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.30535779796171</v>
+        <v>0.5107572170372201</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.3461886960497</v>
+        <v>13.77516266258404</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.35733265094197</v>
+        <v>18.29907223238051</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>23.3077545540837</v>
+        <v>0.8442152903609141</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.38105194728111</v>
+        <v>22.41839999246347</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.39248365994053</v>
+        <v>24.72151996457133</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.38045894773424</v>
+        <v>18.87144417223086</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.39314916731234</v>
+        <v>24.10628851562777</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.40175811078007</v>
+        <v>27.08637460813506</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.33186140961494</v>
+        <v>14.83706200176963</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.3645407502924</v>
+        <v>25.04599707759163</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.38178533030477</v>
+        <v>29.17206552756739</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.32078145773478</v>
+        <v>8.934083278223831</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.33578357579272</v>
+        <v>14.10175381442229</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.36785874178248</v>
+        <v>21.59264541089019</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.27257705274575</v>
+        <v>0.04566826718125938</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.3135936755532</v>
+        <v>9.929985542197972</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.35577438349429</v>
+        <v>20.23432323492009</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.26138526561973</v>
+        <v>-0.3215696659311398</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>23.36437161536767</v>
+        <v>18.80066145472799</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>23.42115399176701</v>
+        <v>33.89280525025212</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.33568641036502</v>
+        <v>12.99498610545543</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.36610539288445</v>
+        <v>23.00063518946383</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>23.39065472334876</v>
+        <v>28.95315446694109</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>23.28116259582794</v>
+        <v>6.196730217883129</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.38603631264323</v>
+        <v>22.91506102231749</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>23.41165816906123</v>
+        <v>29.91243276534905</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.35934885640923</v>
+        <v>22.12043603934182</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.41112046485291</v>
+        <v>31.25789877032516</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>23.43863036356103</v>
+        <v>37.8647900581005</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.28540161769164</v>
+        <v>4.541347758779978</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.39159293811019</v>
+        <v>25.73519023670217</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>23.41803305991455</v>
+        <v>32.09465756539716</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.29750324137217</v>
+        <v>9.215924897638864</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>23.46809191853337</v>
+        <v>44.44659392766634</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>23.5090564283474</v>
+        <v>52.4551467098966</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.52518991996226</v>
+        <v>48.05980748231227</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>23.54955576324544</v>
+        <v>54.80427873536254</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>23.58988389457784</v>
+        <v>63.42177139076979</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.34384914042732</v>
+        <v>26.03669180544589</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>23.54096165838163</v>
+        <v>50.02908948002326</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.56606337747738</v>
+        <v>53.82585140852564</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.340432585231</v>
+        <v>7.909379310702501</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.3247430631647</v>
+        <v>5.855455473648338</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.32345329116085</v>
+        <v>6.092533392989402</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>23.29586476919676</v>
+        <v>-0.8096032120113712</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.31203051434168</v>
+        <v>3.975313254842195</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.31463726009405</v>
+        <v>5.850992770943698</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.2867010348632</v>
+        <v>0.3708138599861641</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.33895758376546</v>
+        <v>8.139659656737081</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.33955173784603</v>
+        <v>5.692918322040274</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.32018550448477</v>
+        <v>1.524661685484322</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.32215173187089</v>
+        <v>1.543140743889762</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.33203188207963</v>
+        <v>4.885928388488434</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.30477207278961</v>
+        <v>9.190951625452229</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.3092426066757</v>
+        <v>12.38212120116874</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.30986440617713</v>
+        <v>15.5654190436919</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.30882999584545</v>
+        <v>7.046603556917717</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.30143771561537</v>
+        <v>9.169227334474293</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.31889458048477</v>
+        <v>8.599397074584353</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>23.26426336818486</v>
+        <v>-0.03052707440887303</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.27606338230354</v>
+        <v>4.498348070368195</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.3063187796623</v>
+        <v>7.526370367288752</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.23589373548623</v>
+        <v>-1.25019000171519</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.3142249567417</v>
+        <v>8.42129971742694</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.35676801129292</v>
+        <v>11.37944825568175</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.26720610376546</v>
+        <v>6.092154382079489</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.28709575691121</v>
+        <v>9.254875769422288</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.30998287405455</v>
+        <v>5.590485092598719</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.24983434561075</v>
+        <v>1.994527110710937</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.31943809111955</v>
+        <v>9.851076314840135</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>23.32434205000633</v>
+        <v>11.15647714728068</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.36135599750085</v>
+        <v>21.23128166946886</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.38587638259664</v>
+        <v>25.05606537404119</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.40152193531091</v>
+        <v>28.45386283364397</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.2827178732286</v>
+        <v>5.322252457736198</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>23.35467352401652</v>
+        <v>19.14573506789256</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.37314452060581</v>
+        <v>23.32673457084043</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.27936728798093</v>
+        <v>8.920485361182262</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>23.42053919798238</v>
+        <v>30.82194225040725</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>23.44995783140769</v>
+        <v>34.40392302285673</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.46403551725158</v>
+        <v>37.15029597909524</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.47671186412874</v>
+        <v>42.77059797872035</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>23.51790082859448</v>
+        <v>40.82051633780191</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.32319422470183</v>
+        <v>24.99800218806966</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.47832815878578</v>
+        <v>34.27037876033215</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>23.48542356600406</v>
+        <v>39.02983415422656</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.37473298086715</v>
+        <v>20.00351987341117</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.3989866558396</v>
+        <v>23.72040893224703</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.40619934098636</v>
+        <v>31.63309340530745</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.32028249359549</v>
+        <v>2.636012793160845</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.39123799553572</v>
+        <v>22.62238207079675</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.40110936632544</v>
+        <v>29.19715739749654</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.33805008024049</v>
+        <v>4.039123023093392</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>23.43734232411198</v>
+        <v>35.39771058790412</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.44836268873161</v>
+        <v>40.22726550702744</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>23.45833489063697</v>
+        <v>32.1103225506672</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>23.480849287058</v>
+        <v>41.96298494708201</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>23.48597741061469</v>
+        <v>44.83206531691003</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.40467357037885</v>
+        <v>34.09938722895129</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.4670303242059</v>
+        <v>50.94246620127255</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.49252579181029</v>
+        <v>61.74500836844558</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>23.33962172752519</v>
+        <v>14.57920433633792</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.38861724902178</v>
+        <v>25.35893653570664</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.40998696968274</v>
+        <v>26.49705957499692</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.26540626849012</v>
+        <v>-0.5820077089901012</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.34530587097847</v>
+        <v>15.92053404898777</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.38119898586273</v>
+        <v>22.10806149577578</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.27484548215294</v>
+        <v>0.3192755015205506</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.4185798913017</v>
+        <v>31.57914223882673</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.46867579705597</v>
+        <v>37.90020087511398</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>23.4181111374153</v>
+        <v>30.83529547509168</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.45692317511955</v>
+        <v>38.47652211025409</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.48116974837622</v>
+        <v>37.91568751577739</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.34888919856407</v>
+        <v>19.49350691431006</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.50422259527627</v>
+        <v>43.00743441845877</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.53077575148651</v>
+        <v>46.51737571984007</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.37106459394311</v>
+        <v>24.23627518708621</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.45114516267281</v>
+        <v>38.03372476893153</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.4761619228616</v>
+        <v>42.89332650422425</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.28526728662164</v>
+        <v>6.580983545522216</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.42458754334353</v>
+        <v>31.98446210264611</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.45256330550519</v>
+        <v>37.72302904206909</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.31147072633362</v>
+        <v>7.962157043418411</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.51918816895898</v>
+        <v>54.69448579525749</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.56136566206714</v>
+        <v>59.11309110639465</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.61941153992587</v>
+        <v>65.5100311821225</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.65035062149071</v>
+        <v>70.56006570452446</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.68607293051405</v>
+        <v>77.09507853477092</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.41703671040549</v>
+        <v>32.31864038647747</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.65376300899822</v>
+        <v>65.0195407938585</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.69275587106343</v>
+        <v>70.46403809085132</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.37212930123415</v>
+        <v>20.07638194809484</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.42827754305143</v>
+        <v>38.82845002163078</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.43664733806076</v>
+        <v>42.63039491722823</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.34162594893113</v>
+        <v>10.88634988397108</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.4391167161291</v>
+        <v>41.70178365092659</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>23.4484519702398</v>
+        <v>46.24848011235902</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>23.35544309659602</v>
+        <v>12.23183430463886</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.48344122666076</v>
+        <v>58.62511782768502</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>23.49389935145648</v>
+        <v>59.5052913525528</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>23.51951999376013</v>
+        <v>65.35682502009323</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.54038397326253</v>
+        <v>69.52122484145306</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.54300378610554</v>
+        <v>68.49979494589175</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.38295406377013</v>
+        <v>25.53665968827978</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.50756171290681</v>
+        <v>65.23046220922953</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>23.52321395318883</v>
+        <v>70.63255553605219</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.34648897915208</v>
+        <v>18.65012943073437</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.42610927740717</v>
+        <v>36.15890660462977</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>23.45244650832366</v>
+        <v>40.69479998615567</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.30357859190806</v>
+        <v>7.477444094766312</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>23.41371716978902</v>
+        <v>30.59116268442436</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.44918254304441</v>
+        <v>37.77542615042633</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.30894063539565</v>
+        <v>8.03651382557906</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.47889831909797</v>
+        <v>47.69316911164783</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>23.52960781661739</v>
+        <v>58.55123355744487</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>23.49455592538084</v>
+        <v>46.0652081826691</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>23.53804953724859</v>
+        <v>55.61730004829142</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>23.5529371636526</v>
+        <v>54.10280398674987</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>23.34011304706007</v>
+        <v>18.37522586034288</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.56010982554764</v>
+        <v>57.53092143262545</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>23.58453945501233</v>
+        <v>62.81205477010088</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>23.3428913984525</v>
+        <v>21.13397868988027</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.46021826905635</v>
+        <v>41.23025958314707</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>23.48821592762302</v>
+        <v>47.41015471905678</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>23.28596219470869</v>
+        <v>6.916243541294858</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>23.46006354244622</v>
+        <v>38.93383666485961</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>23.48834600121098</v>
+        <v>46.64632396375329</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>23.30501256437253</v>
+        <v>8.19196872970825</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>23.54230494640422</v>
+        <v>58.22543357286932</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>23.58416486302991</v>
+        <v>65.92591627499993</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>23.63374476016754</v>
+        <v>66.88741548945015</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>23.67679742452851</v>
+        <v>76.96564529164434</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>23.71158846758521</v>
+        <v>82.29165755148918</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>23.35203927665611</v>
+        <v>19.9519137070483</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.66839883296822</v>
+        <v>71.67893017127551</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>23.70108552359868</v>
+        <v>78.72869453770882</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.35616544951941</v>
+        <v>23.89240030818766</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.40882370798459</v>
+        <v>31.90427590219156</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.41432626755609</v>
+        <v>38.33539404066046</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>23.33240977392094</v>
+        <v>9.265821072499079</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>23.42907689239539</v>
+        <v>42.66532070709073</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>23.43830771088794</v>
+        <v>47.38607618923164</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>23.34244804351436</v>
+        <v>11.66911220013763</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>23.46542026288887</v>
+        <v>56.76405701299737</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.4733812097178</v>
+        <v>57.8624773688082</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>23.47935844469771</v>
+        <v>56.6072285471065</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>23.50359616298889</v>
+        <v>62.8257635470307</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>23.50564063090775</v>
+        <v>62.08172056896484</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>23.37424144906589</v>
+        <v>28.01436225171499</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>23.4712406624913</v>
+        <v>44.09467595485028</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.49798536359371</v>
+        <v>62.3545948676573</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>23.34878283813699</v>
+        <v>25.04711802186216</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>23.43183886198578</v>
+        <v>40.12488386612625</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.44691849595874</v>
+        <v>41.14914948722184</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.30487847600382</v>
+        <v>7.335804390109764</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>23.41952569210964</v>
+        <v>34.97683534712879</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>23.44988550426919</v>
+        <v>39.63789810243669</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>23.30973678254465</v>
+        <v>7.006719579709056</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>23.4818587952218</v>
+        <v>53.53479276530226</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>23.52027059519451</v>
+        <v>60.9531520827251</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>23.48604535164842</v>
+        <v>50.8407220097715</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>23.52764850861364</v>
+        <v>58.31773952588059</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>23.54652303693505</v>
+        <v>57.9042691203505</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>23.36065121795508</v>
+        <v>24.67423857274255</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>23.55659588333803</v>
+        <v>63.34993502651346</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>23.57964883422017</v>
+        <v>66.53246249099294</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.35022587660403</v>
+        <v>27.37018552460794</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>23.46029582010739</v>
+        <v>44.24152869198268</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>23.47957346010762</v>
+        <v>47.90306578910889</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>23.29924133834493</v>
+        <v>9.375363379738467</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>23.46420458707826</v>
+        <v>42.26284816178013</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>23.4897191837143</v>
+        <v>47.79898884653886</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>23.31438436377966</v>
+        <v>7.723271555580659</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>23.5416613546752</v>
+        <v>64.70521091985044</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>23.57462327017843</v>
+        <v>69.67958908589969</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>23.62361336267597</v>
+        <v>75.33293939142982</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>23.65917039066908</v>
+        <v>81.49882310929564</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>23.68387686250123</v>
+        <v>83.22917505027017</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.38050692719992</v>
+        <v>28.55140666078594</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>23.6505959681383</v>
+        <v>75.55126225579676</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>23.6848914104046</v>
+        <v>79.63513076168491</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.37971224430149</v>
+        <v>22.63943996072307</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.40843781806338</v>
+        <v>31.40858389674954</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.40971768601566</v>
+        <v>34.34874180776511</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.37388061603326</v>
+        <v>15.1696737034786</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.4361346193195</v>
+        <v>55.44280831925623</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.4412949969682</v>
+        <v>55.19365350171434</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>23.36950764628439</v>
+        <v>10.5678474692115</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.44838315293482</v>
+        <v>58.02427752143184</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>23.45241123459898</v>
+        <v>54.7383995562714</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.459018382396</v>
+        <v>55.64268413648551</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.47105802712122</v>
+        <v>61.68615081255318</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.47812564944604</v>
+        <v>60.35598143727086</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.40247925198064</v>
+        <v>33.2399152412908</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.45308464329327</v>
+        <v>47.00897929092427</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>23.47000061729803</v>
+        <v>61.26426420400264</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.37663635453238</v>
+        <v>25.2391393217385</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.42484761530953</v>
+        <v>39.13383901382971</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>23.43366830757718</v>
+        <v>38.94904995312554</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>23.37112226162839</v>
+        <v>33.17407960000581</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.44203059389545</v>
+        <v>51.74714397495134</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.46452146152379</v>
+        <v>57.98477170537012</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>23.35174840256581</v>
+        <v>8.936802947906308</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.46366119619473</v>
+        <v>52.4015447429489</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.4910898174644</v>
+        <v>59.11195085918717</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>23.46588607056537</v>
+        <v>48.81501813414526</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>23.48867697538863</v>
+        <v>56.74937806499557</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.51011092599904</v>
+        <v>54.73571717105376</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.39679049893553</v>
+        <v>31.74251058513521</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>23.51192396571959</v>
+        <v>61.51657186367636</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>23.52834597915863</v>
+        <v>64.6691962916822</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.37946877614221</v>
+        <v>30.73270454887282</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>23.44457281026923</v>
+        <v>44.15128001379264</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>23.45670554473902</v>
+        <v>46.30907933675451</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>23.36804469382225</v>
+        <v>35.8310716722849</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>23.47295781278358</v>
+        <v>57.64478892456888</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.49187310084899</v>
+        <v>59.57069846912474</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>23.35665163339884</v>
+        <v>10.60820393477179</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>23.50632903037176</v>
+        <v>63.32568046981181</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>23.52995771972775</v>
+        <v>66.3400487513308</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>23.5720248136077</v>
+        <v>78.48844045033761</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>23.58612655253315</v>
+        <v>80.52587558787221</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>23.61273361590699</v>
+        <v>84.59276586628755</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>23.41567526769207</v>
+        <v>39.83682540929264</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>23.57888568919754</v>
+        <v>77.10951153661303</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>23.60435759903617</v>
+        <v>81.29065070830265</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.35689272945806</v>
+        <v>16.22783234227358</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.41267882038956</v>
+        <v>31.97974637154083</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>23.41812607057209</v>
+        <v>38.17068030081752</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>23.33046069664577</v>
+        <v>3.390357151982659</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.42484885152211</v>
+        <v>29.92875839521073</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>23.43167175531064</v>
+        <v>41.7152315065525</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>23.34406873748405</v>
+        <v>4.628654553072167</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>23.46998670647754</v>
+        <v>52.5687723165678</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>23.476762611906</v>
+        <v>56.29119548109075</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>23.49760262957758</v>
+        <v>57.45607496148763</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>23.52041265579556</v>
+        <v>62.03419426278789</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>23.5218694970062</v>
+        <v>63.6625199269589</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>23.35816978536119</v>
+        <v>15.66169683690633</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.47604660805425</v>
+        <v>57.27652548232793</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>23.49376281881984</v>
+        <v>66.26331301013973</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.34088377533117</v>
+        <v>16.30636264641909</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.42190276949374</v>
+        <v>34.54697263641395</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>23.43705336244964</v>
+        <v>36.78932057228628</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>23.29471880503236</v>
+        <v>1.35103202141946</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>23.40519249527436</v>
+        <v>28.38107901191106</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.428369577057</v>
+        <v>32.55561285814707</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>23.30307438190734</v>
+        <v>1.74575293815138</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>23.47194451145495</v>
+        <v>46.18069267136627</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.50929361272115</v>
+        <v>54.2152944878672</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>23.47809219143566</v>
+        <v>42.51248106829762</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>23.51726500847713</v>
+        <v>51.68669522458296</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>23.53200222405461</v>
+        <v>49.37640160963443</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>23.3185898080132</v>
+        <v>9.106367672629595</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>23.52826113352402</v>
+        <v>47.41135078198698</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>23.5484470427857</v>
+        <v>56.75702734496311</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>23.33241683993424</v>
+        <v>17.05203928815872</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>23.44447355442863</v>
+        <v>36.14837267275949</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>23.46567690885296</v>
+        <v>43.02430734461242</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.27896758994578</v>
+        <v>1.977984298768874</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>23.44387740765729</v>
+        <v>35.86101982985908</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>23.46502458325196</v>
+        <v>43.48505503827674</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>23.29669561305256</v>
+        <v>2.6989256392655</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>23.52484299025302</v>
+        <v>54.01615474524822</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>23.55812208308114</v>
+        <v>63.13100312605522</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>23.60399591792201</v>
+        <v>62.76905863344958</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>23.64151276127768</v>
+        <v>73.91257250245341</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.67503145877026</v>
+        <v>80.37632860530735</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>23.32344868980051</v>
+        <v>11.11203257403044</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.6198416279103</v>
+        <v>67.18830443488332</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>23.65516236810982</v>
+        <v>77.06378221250807</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.35501589735093</v>
+        <v>17.88819335835776</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.36582688498923</v>
+        <v>17.20511153807433</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>23.37221157507114</v>
+        <v>19.9299871143843</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.31872890522304</v>
+        <v>6.838857537240685</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.36951015509916</v>
+        <v>19.77851485831967</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.37807715032127</v>
+        <v>23.14042689559587</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.32509612207359</v>
+        <v>9.509611077254849</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.39666371537866</v>
+        <v>28.56823765136107</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.40646902638957</v>
+        <v>29.92605727420357</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.39944336134405</v>
+        <v>24.013465842919</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.41268524255517</v>
+        <v>29.27851394902245</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.42278934724032</v>
+        <v>31.14115817979855</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>23.34217613421</v>
+        <v>22.1126443306899</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.38259369576506</v>
+        <v>25.79471673868435</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.40447451157079</v>
+        <v>31.03405724641032</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.35470940111587</v>
+        <v>17.30530127424954</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.40187026121108</v>
+        <v>32.55470222209548</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>23.43175304031717</v>
+        <v>37.97750671885395</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.32000647861272</v>
+        <v>9.739302369069044</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.39645334137643</v>
+        <v>31.25620097353008</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>23.43903269608317</v>
+        <v>41.11183487190452</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>23.31885753707382</v>
+        <v>9.850970245375105</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.4433272826587</v>
+        <v>44.17209651978045</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>23.49807937139593</v>
+        <v>57.34711746026829</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>23.43905091637576</v>
+        <v>42.53805313760993</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>23.47500195740069</v>
+        <v>48.21376636662793</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>23.51338071730885</v>
+        <v>56.29833187424805</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>23.34352626072633</v>
+        <v>16.2764310355532</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.49016019605194</v>
+        <v>48.87306269923636</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.53229564062043</v>
+        <v>57.61675272313721</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.36990767769925</v>
+        <v>21.81038343048711</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.44298439421181</v>
+        <v>38.13746100386326</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>23.47721726709107</v>
+        <v>47.09202079771404</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>23.32066432748591</v>
+        <v>8.388887525990615</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.44772871823727</v>
+        <v>34.84334128425364</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>23.48514274511605</v>
+        <v>47.62015171345155</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>23.3338902855445</v>
+        <v>12.57689695201498</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>23.51172900590192</v>
+        <v>55.35708262749517</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>23.56098979712441</v>
+        <v>68.21965241501869</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>23.58272443803914</v>
+        <v>56.31877139015051</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>23.60949987269222</v>
+        <v>61.84437132417717</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>23.66280724673152</v>
+        <v>80.02372953483382</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.37873059891234</v>
+        <v>23.92927008690301</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>23.59340546336952</v>
+        <v>57.62726611357576</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>23.65134025493359</v>
+        <v>75.81877373245278</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>23.3638764616172</v>
+        <v>16.12591440621119</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>23.38687509649749</v>
+        <v>19.89972420859284</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.3923533482522</v>
+        <v>23.50013720134896</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>23.34631961586267</v>
+        <v>-0.0852775975225093</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>23.40136306354364</v>
+        <v>28.88290473997464</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.41159857503557</v>
+        <v>31.98807136659615</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>23.34810431849863</v>
+        <v>2.084561028034418</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>23.41975954635506</v>
+        <v>38.21832742550896</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.42830618478423</v>
+        <v>37.92928885918924</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>23.42358077001226</v>
+        <v>30.64288039365752</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>23.43564957272891</v>
+        <v>39.6706690376004</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.44709123931284</v>
+        <v>42.69403437607804</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.37268328596313</v>
+        <v>21.15528288498307</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>23.41945013532968</v>
+        <v>36.18223543503356</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.44180486985471</v>
+        <v>49.12838150273096</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.3500047692342</v>
+        <v>9.476451858512188</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>23.39186849721625</v>
+        <v>21.97585598681776</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>23.40949766668682</v>
+        <v>29.80782146412371</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>23.3302089173689</v>
+        <v>5.964163820691489</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.3929905337491</v>
+        <v>21.93785197998747</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.42600678322766</v>
+        <v>43.99077228338998</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.31985187226153</v>
+        <v>-2.944906868928882</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>23.42338336706985</v>
+        <v>32.42319746799338</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>23.46015040590611</v>
+        <v>50.55417401956952</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.41622046559023</v>
+        <v>30.37224076926104</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>23.43989618011621</v>
+        <v>40.63039727462171</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>23.46929125981989</v>
+        <v>48.01818044596451</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.35002825675111</v>
+        <v>10.61434564939147</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>23.46128836688157</v>
+        <v>44.43152424569288</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>23.48914044412317</v>
+        <v>55.68298221951348</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.34772130071004</v>
+        <v>19.29755347348255</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>23.40633745035696</v>
+        <v>29.65936613052</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>23.42785058778027</v>
+        <v>39.18672502439478</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.31960882436937</v>
+        <v>7.519432857528415</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.41627553414222</v>
+        <v>26.1322098126961</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.44624872415731</v>
+        <v>41.43951512096105</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.31881080479069</v>
+        <v>-0.5126068179975753</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>23.45983773456925</v>
+        <v>42.68788270246202</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>23.4934257996968</v>
+        <v>57.17348949382157</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>23.51439371662349</v>
+        <v>58.56581055103401</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>23.52961405162666</v>
+        <v>61.93883490092958</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>23.56494081209678</v>
+        <v>72.35801754078062</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.36175147715681</v>
+        <v>17.77935839027852</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>23.52021389524532</v>
+        <v>52.99859067046417</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>23.55858458187387</v>
+        <v>69.32804221253829</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.36760610406225</v>
+        <v>23.63625523352644</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>23.41777754528038</v>
+        <v>32.45308717301846</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>23.42010724416068</v>
+        <v>37.24495831111683</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>23.33935925699126</v>
+        <v>9.954909589182794</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.44235517807934</v>
+        <v>44.248149861106</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>23.44312433588695</v>
+        <v>47.51839024162919</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>23.35685804968993</v>
+        <v>11.62542305039003</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>23.48374454356438</v>
+        <v>59.11935082296392</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>23.48571943542455</v>
+        <v>57.06823548733121</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>23.51798156242646</v>
+        <v>60.13760004228945</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>23.5339680304965</v>
+        <v>62.79199960665733</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>23.53319527976954</v>
+        <v>65.8650114281775</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.40305295340341</v>
+        <v>27.67116052458353</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>23.48741602437925</v>
+        <v>40.01692611151706</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>23.51755023979196</v>
+        <v>68.10389609221778</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.3679284181016</v>
+        <v>27.39636903438213</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>23.44700137787851</v>
+        <v>40.84134450809182</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>23.45316671512684</v>
+        <v>40.63579652476984</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>23.31652980092465</v>
+        <v>8.565238871739535</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.43736052866985</v>
+        <v>37.26075951685523</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>23.45105173945616</v>
+        <v>39.18902593250408</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>23.32593619984348</v>
+        <v>9.148354268681437</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>23.50306753492717</v>
+        <v>54.05796701803171</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>23.52970087017944</v>
+        <v>55.87561833754582</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>23.5163055401259</v>
+        <v>51.38534662683884</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>23.5422685464133</v>
+        <v>56.46420670116581</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>23.55464957040279</v>
+        <v>55.62385447956171</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.38584922215467</v>
+        <v>28.98200331938351</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>23.56542666924802</v>
+        <v>59.00569140330906</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.5805256008663</v>
+        <v>61.37575466518955</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>23.35665291394802</v>
+        <v>27.53005307155539</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>23.46712380546202</v>
+        <v>42.13132458791453</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>23.47634156363281</v>
+        <v>45.17899292599922</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.29598641516008</v>
+        <v>9.214420680368914</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>23.47407669689809</v>
+        <v>43.21971431895869</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>23.4813457144605</v>
+        <v>44.92610394859247</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>23.31773640260596</v>
+        <v>8.961767622177231</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>23.55676533708552</v>
+        <v>64.15326720484219</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>23.57544440760194</v>
+        <v>63.68443746452282</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>23.64943437151041</v>
+        <v>75.20468884080063</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>23.67005924901827</v>
+        <v>75.03648446123862</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>23.6864211881249</v>
+        <v>78.85615649694748</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.3913002225779</v>
+        <v>33.47679370744527</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>23.65023741564141</v>
+        <v>70.38889043394828</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>23.67981717136768</v>
+        <v>77.2237470321376</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.35224865767387</v>
+        <v>16.3850224609774</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>23.40827868243174</v>
+        <v>32.40058155410158</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>23.41283665439801</v>
+        <v>36.98327045817887</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.32818451187813</v>
+        <v>5.020206592155489</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>23.42418017780693</v>
+        <v>35.80435749747705</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>23.42996228378033</v>
+        <v>42.81077556999099</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>23.34052525449005</v>
+        <v>4.917701802365908</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.46776401144961</v>
+        <v>53.05898979597125</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>23.47384711766998</v>
+        <v>54.35561008759187</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>23.493880029414</v>
+        <v>53.94130180478133</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>23.51846174433249</v>
+        <v>62.60909522704417</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>23.51453711500147</v>
+        <v>60.8799754259496</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>23.35258668273233</v>
+        <v>15.17697907148859</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>23.47309573412121</v>
+        <v>56.13736213846713</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>23.48974644923863</v>
+        <v>63.61891567578946</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>23.33873384515375</v>
+        <v>17.43274712386166</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>23.42099630278437</v>
+        <v>36.18245001872981</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>23.43484359640517</v>
+        <v>37.21994223310461</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>23.29334978132597</v>
+        <v>4.317425019028924</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>23.40602884804309</v>
+        <v>32.82019019700307</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>23.42824018840626</v>
+        <v>35.47127805115223</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>23.30031344367717</v>
+        <v>4.916344552730763</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>23.47181901619352</v>
+        <v>49.50622121933318</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>23.50849478675456</v>
+        <v>55.93585143906496</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>23.48057121512911</v>
+        <v>46.31244665591818</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.5182667003473</v>
+        <v>55.68689263162943</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>23.53006441874385</v>
+        <v>53.62082511431626</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>23.31661217770496</v>
+        <v>13.55017674920465</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>23.5329666329958</v>
+        <v>57.51510963624889</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>23.54968195767487</v>
+        <v>59.78587727491394</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.32566601094547</v>
+        <v>15.73396879264714</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>23.43744284673514</v>
+        <v>32.77576648902645</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>23.45905192905659</v>
+        <v>40.47493653068405</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>23.27302598870124</v>
+        <v>2.834294531559394</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>23.43870512357606</v>
+        <v>34.81214239564392</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>23.46054137258582</v>
+        <v>42.49651066560666</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>23.2902882572512</v>
+        <v>3.621791874848725</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>23.52004942117533</v>
+        <v>49.78715756944838</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>23.55422350315897</v>
+        <v>61.19694711533666</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>23.59698207571561</v>
+        <v>57.40460128720605</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>23.63184276825858</v>
+        <v>67.94608698149726</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>23.6638374994491</v>
+        <v>76.4433239777882</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>23.31156888120602</v>
+        <v>11.55027657027946</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>23.61102906645297</v>
+        <v>60.6534502722487</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>23.64698912029507</v>
+        <v>72.69042320792227</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.53632919557182</v>
+        <v>18.53632919557169</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.95491687447528</v>
+        <v>15.95491687447524</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.1217599068332</v>
+        <v>19.12175990683322</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.646360212538212</v>
+        <v>3.646360212538216</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.76229920451303</v>
+        <v>19.76229920451296</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.09583963518059</v>
+        <v>23.09583963518048</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.593432774996714</v>
+        <v>4.593432774996593</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.90390542909974</v>
+        <v>26.90390542909977</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.06399352427754</v>
+        <v>27.06399352427773</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.53891814548733</v>
+        <v>22.53891814548749</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.90819411374486</v>
+        <v>29.90819411374514</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.98939566767516</v>
+        <v>28.98939566767532</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.19689566605691</v>
+        <v>19.19689566605695</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.29689045286475</v>
+        <v>25.29689045286482</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.56687780003599</v>
+        <v>29.56687780003595</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.19507062455862</v>
+        <v>20.19507062455863</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.44558611187409</v>
+        <v>35.44558611187388</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.60324935187148</v>
+        <v>42.60324935187152</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.612656001096337</v>
+        <v>9.612656001096404</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.81483689557376</v>
+        <v>30.81483689557375</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.08307080130751</v>
+        <v>46.08307080130732</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.279342662828508</v>
+        <v>9.279342662828604</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>47.70146795555433</v>
+        <v>47.70146795555425</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>64.95996665039952</v>
+        <v>64.95996665039938</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>48.90333103431874</v>
+        <v>48.90333103431884</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>60.6016500275862</v>
+        <v>60.60165002758576</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>68.13562496186876</v>
+        <v>68.13562496186879</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.40717022794501</v>
+        <v>22.40717022794506</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>65.8103650073745</v>
+        <v>65.81036500737504</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.3073134324579</v>
+        <v>73.30731343245776</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.97742143296011</v>
+        <v>27.97742143296009</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.2502888088241</v>
+        <v>46.25028880882415</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.6992428926558</v>
+        <v>51.69924289265575</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.46956185930311</v>
+        <v>12.46956185930304</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.36651608149673</v>
+        <v>40.36651608149671</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.29921458409129</v>
+        <v>52.29921458409123</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.77327235070824</v>
+        <v>12.7732723507081</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>65.75643335978128</v>
+        <v>65.75643335978097</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>74.1440778490917</v>
+        <v>74.14407784909159</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.67419330046171</v>
+        <v>73.67419330046154</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>86.09633501693401</v>
+        <v>86.09633501693411</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>90.97492085092199</v>
+        <v>90.9749208509219</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.5944704307641</v>
+        <v>36.59447043076386</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>85.61397534084031</v>
+        <v>85.61397534084028</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>87.65160073467975</v>
+        <v>87.65160073468003</v>
       </c>
     </row>
     <row r="47">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>37.98815819453718</v>
+        <v>37.98815819453717</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.71927887903826</v>
+        <v>41.71927887903804</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.942946099309644</v>
+        <v>3.942946099309548</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.93588399604542</v>
+        <v>42.93588399604526</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47.07561921702977</v>
+        <v>47.07561921702976</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.315422170556616</v>
+        <v>5.315422170556491</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>62.1650010738859</v>
+        <v>62.16500107388594</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>61.28691011179431</v>
+        <v>61.28691011179432</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.8998140041238</v>
+        <v>54.89981400412385</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>62.42505909753804</v>
+        <v>62.42505909753791</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.06827022026577</v>
+        <v>61.06827022026582</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.69228416706723</v>
+        <v>14.69228416706718</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>60.74216542261017</v>
+        <v>60.74216542261003</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>67.90902011725015</v>
+        <v>67.90902011725004</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.48251974051879</v>
+        <v>15.48251974051882</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.00563945490227</v>
+        <v>39.00563945490224</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>45.25290468347936</v>
+        <v>45.25290468347927</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.055157328636813</v>
+        <v>4.055157328636724</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.41725637926867</v>
+        <v>33.41725637926876</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.57969166867782</v>
+        <v>43.57969166867787</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.499825202394387</v>
+        <v>7.49982520239444</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>56.12845119886864</v>
+        <v>56.12845119886849</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>70.64112714932621</v>
+        <v>70.641127149326</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.79798180239594</v>
+        <v>51.79798180239571</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>65.2768581168441</v>
+        <v>65.27685811684424</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>67.23482268465051</v>
+        <v>67.23482268465031</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13.32378131437824</v>
+        <v>13.32378131437816</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>66.82167095966084</v>
+        <v>66.82167095966065</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>73.39463895198621</v>
+        <v>73.39463895198615</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.70503868584848</v>
+        <v>14.70503868584851</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.68954741829005</v>
+        <v>44.68954741828978</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.0766623885262</v>
+        <v>48.07666238852607</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.245587755446248</v>
+        <v>3.24558775544611</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.73264631748444</v>
+        <v>43.73264631748435</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.82712119299437</v>
+        <v>50.82712119299443</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.665510488246532</v>
+        <v>6.665510488246596</v>
       </c>
     </row>
     <row r="84">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>74.55305739116228</v>
+        <v>74.55305739116235</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>74.83189765013867</v>
+        <v>74.8318976501387</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>89.2338997180577</v>
+        <v>89.23389971805786</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>88.81781937223097</v>
+        <v>88.81781937223103</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15.43185046373381</v>
+        <v>15.43185046373386</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>83.07700965449415</v>
+        <v>83.07700965449413</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>86.23917826744</v>
+        <v>86.23917826743971</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.36941963027015</v>
+        <v>26.36941963027014</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.63581530842671</v>
+        <v>41.63581530842667</v>
       </c>
     </row>
     <row r="94">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.78668629222801</v>
+        <v>10.78668629222796</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.98604868873608</v>
+        <v>45.98604868873613</v>
       </c>
     </row>
     <row r="97">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.94804946033123</v>
+        <v>10.94804946033114</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>65.67856086517983</v>
+        <v>65.67856086517992</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>60.32046901808175</v>
+        <v>60.32046901808172</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>55.2881070137995</v>
+        <v>55.2881070137994</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>66.59635032644509</v>
+        <v>66.59635032644485</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>64.97355603370909</v>
+        <v>64.97355603370912</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.79212554993623</v>
+        <v>28.79212554993613</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>62.92686283903518</v>
+        <v>62.92686283903511</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>68.06797126429765</v>
+        <v>68.0679712642976</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.65062574515365</v>
+        <v>26.65062574515376</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>46.42882741072219</v>
+        <v>46.42882741072202</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.85814933314144</v>
+        <v>48.85814933314137</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8.719217599552174</v>
+        <v>8.71921759955206</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.18057754300182</v>
+        <v>42.18057754300197</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.2716439510978</v>
+        <v>45.27164395109791</v>
       </c>
     </row>
     <row r="113">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>65.23231960641073</v>
+        <v>65.23231960641064</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>70.55807358263981</v>
+        <v>70.55807358263951</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.09825954354278</v>
+        <v>58.09825954354268</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>69.17627096490253</v>
+        <v>69.1762709649025</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.37320696761434</v>
+        <v>67.37320696761428</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.77454686728132</v>
+        <v>28.7745468672814</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>70.27707451887156</v>
+        <v>70.27707451887147</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>71.17294097772694</v>
+        <v>71.1729409777268</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.58292373042201</v>
+        <v>31.58292373042196</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.96470320518034</v>
+        <v>51.96470320518021</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53.53609695360576</v>
+        <v>53.53609695360568</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.44755639923391</v>
+        <v>10.44755639923383</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>51.345081654391</v>
+        <v>51.34508165439087</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.67545029911002</v>
+        <v>52.67545029911014</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.6793144530987</v>
+        <v>11.67931445309863</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>76.91540518221603</v>
+        <v>76.91540518221569</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.02812820458672</v>
+        <v>75.02812820458675</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>81.06152161302975</v>
+        <v>81.06152161302968</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>87.4871390324673</v>
+        <v>87.48713903246714</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>89.97892487423857</v>
+        <v>89.9789248742385</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.59117048944185</v>
+        <v>35.59117048944152</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>87.30436446375265</v>
+        <v>87.30436446375268</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>89.11218197529435</v>
+        <v>89.11218197529396</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20.38988263538876</v>
+        <v>20.3898826353888</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.4414598614897</v>
+        <v>20.44145986148968</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.35898423456503</v>
+        <v>21.3589842345651</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.278489161753551</v>
+        <v>5.278489161753608</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.38445530218948</v>
+        <v>23.38445530218952</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.25117498470038</v>
+        <v>24.25117498470044</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.312570566067432</v>
+        <v>7.312570566067386</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.55923236873928</v>
+        <v>30.55923236873934</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.55767782008021</v>
+        <v>28.55767782008036</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.23780012804776</v>
+        <v>25.23780012804809</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.15107556216287</v>
+        <v>30.15107556216288</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.93568209531688</v>
+        <v>31.93568209531695</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>60.91564978662859</v>
+        <v>60.91564978662839</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>61.08046545123142</v>
+        <v>61.0804654512313</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>65.23493494346988</v>
+        <v>65.23493494346968</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.58921766532098</v>
+        <v>17.58921766532097</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.5967138713925</v>
+        <v>37.59671387139235</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>42.00010114330841</v>
+        <v>42.00010114330844</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>9.147919481187422</v>
+        <v>9.147919481187483</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34.19819656108474</v>
+        <v>34.19819656108472</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>48.38630875583289</v>
+        <v>48.38630875583274</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>9.245643763369429</v>
+        <v>9.245643763369401</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.60777291537787</v>
+        <v>47.60777291537783</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>64.4394864023745</v>
+        <v>64.43948640237451</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.61394841026488</v>
+        <v>40.61394841026464</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>51.23331258701059</v>
+        <v>51.23331258701062</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>62.02860073779786</v>
+        <v>62.02860073779755</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.91138590391297</v>
+        <v>21.91138590391288</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>63.83198319453042</v>
+        <v>63.83198319453023</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>69.84481992046599</v>
+        <v>69.84481992046568</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.29807210847089</v>
+        <v>30.29807210847084</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>47.02079795141111</v>
+        <v>47.02079795141105</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>53.39553545680076</v>
+        <v>53.3955354568008</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.60938496495263</v>
+        <v>12.60938496495271</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.66311373830028</v>
+        <v>41.6631137382998</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.98559149133401</v>
+        <v>50.98559149133413</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>14.85789570426019</v>
+        <v>14.8578957042601</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>62.08607488616811</v>
+        <v>62.08607488616816</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>73.60828818434669</v>
+        <v>73.60828818434663</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.34389153952704</v>
+        <v>64.34389153952721</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>76.75641902549134</v>
+        <v>76.75641902549131</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.57856598155104</v>
+        <v>87.57856598155098</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>40.43479297550817</v>
+        <v>40.4347929755081</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>80.2329178106782</v>
+        <v>80.23291781067829</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>83.64946224637723</v>
+        <v>83.64946224637757</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.66762147520712</v>
+        <v>27.66762147520704</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>45.0135566666802</v>
+        <v>45.01355666668002</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.81165276718696</v>
+        <v>43.81165276718687</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>11.11199900877929</v>
+        <v>11.11199900877914</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.45625569548683</v>
+        <v>48.45625569548681</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>51.50980683129157</v>
+        <v>51.50980683129147</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.11217695430287</v>
+        <v>14.11217695430304</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>69.43696765437092</v>
+        <v>69.43696765437102</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>63.91931360119196</v>
+        <v>63.91931360119198</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>55.33122461255235</v>
+        <v>55.33122461255213</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.78792437502689</v>
+        <v>66.78792437502676</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>65.26427834265465</v>
+        <v>65.26427834265472</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.50757167827721</v>
+        <v>26.507571678277</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.1391742120682</v>
+        <v>22.13917421206808</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.54515824325576</v>
+        <v>28.54515824325562</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.28032320084574</v>
+        <v>33.2803232008457</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>56.10436861599943</v>
+        <v>56.10436861599956</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>53.09144029142218</v>
+        <v>53.091440291422</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.11515205324621</v>
+        <v>10.1151520532462</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.70899419986308</v>
+        <v>46.70899419986295</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>51.12512821918598</v>
+        <v>51.12512821918575</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.43910299915011</v>
+        <v>12.43910299915032</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>70.20162160428397</v>
+        <v>70.20162160428389</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>72.72086483351845</v>
+        <v>72.72086483351848</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>68.24977318307185</v>
+        <v>68.2497731830716</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>76.33722318685639</v>
+        <v>76.33722318685611</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>76.0817777613253</v>
+        <v>76.08177776132527</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>43.09382989816474</v>
+        <v>43.09382989816479</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>79.06694697106551</v>
+        <v>79.06694697106566</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>77.91151581000503</v>
+        <v>77.9115158100052</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.96327066056524</v>
+        <v>36.96327066056513</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.16109259594359</v>
+        <v>56.16109259594358</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>56.5458693971972</v>
+        <v>56.54586939719695</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>11.17159142584082</v>
+        <v>11.17159142584086</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.843414052792</v>
+        <v>48.84341405279216</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>51.91900633626342</v>
+        <v>51.91900633626339</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>13.57646951279217</v>
+        <v>13.57646951279222</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>75.15348523085424</v>
+        <v>75.15348523085436</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>77.71852036690919</v>
+        <v>77.71852036690908</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>83.18160617392935</v>
+        <v>83.1816061739293</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>89.72948465169461</v>
+        <v>89.72948465169463</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>91.31409035473771</v>
+        <v>91.31409035473777</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49.31109781390212</v>
+        <v>49.31109781390194</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>90.47004479882628</v>
+        <v>90.47004479882597</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>86.04162713746558</v>
+        <v>86.0416271374652</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>17.9403744993322</v>
+        <v>17.94037449933221</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.61561103816133</v>
+        <v>34.61561103816125</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.76578581415792</v>
+        <v>38.76578581415779</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.533311963870368</v>
+        <v>9.533311963870354</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.41540426741947</v>
+        <v>45.41540426741962</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>48.3907200567255</v>
+        <v>48.39072005672556</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.08885920513071</v>
+        <v>11.08885920513074</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>69.23843620389493</v>
+        <v>69.23843620389484</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>64.81853016331308</v>
+        <v>64.81853016331306</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.9868647402869</v>
+        <v>59.98686474028693</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>67.29507269519013</v>
+        <v>67.29507269519023</v>
       </c>
     </row>
     <row r="238">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18.29756784040911</v>
+        <v>18.29756784040909</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.49076792980234</v>
+        <v>11.49076792980221</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14.63130668320138</v>
+        <v>14.6313066832013</v>
       </c>
     </row>
     <row r="242">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>52.90954720229013</v>
+        <v>52.90954720228987</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>53.60670006349652</v>
+        <v>53.60670006349645</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.829562838640538</v>
+        <v>8.829562838640495</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.10013564496047</v>
+        <v>47.10013564496036</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>50.39962655696566</v>
+        <v>50.39962655696564</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.80335453422177</v>
+        <v>10.80335453422185</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>71.63427817938172</v>
+        <v>71.63427817938177</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>72.79132782566393</v>
+        <v>72.79132782566401</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>57.25519381559783</v>
+        <v>57.25519381559756</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>71.30656560345082</v>
+        <v>71.30656560345059</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>72.70037515273739</v>
+        <v>72.70037515273731</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.47413954536846</v>
+        <v>27.47413954536845</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>77.73547231237158</v>
+        <v>77.73547231237177</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>79.91895700056344</v>
+        <v>79.91895700056338</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.36757610955156</v>
+        <v>28.36757610955157</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50.46296348170173</v>
+        <v>50.46296348170151</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.3482305850246</v>
+        <v>53.34823058502437</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>7.053185232059558</v>
+        <v>7.053185232059537</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.36889043878227</v>
+        <v>48.36889043878206</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.90218189471623</v>
+        <v>49.90218189471616</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.27157751565363</v>
+        <v>10.27157751565361</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>73.54889743679306</v>
+        <v>73.54889743679283</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>73.08957731425595</v>
+        <v>73.08957731425603</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.76024153935481</v>
+        <v>74.76024153935469</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>86.41077719292819</v>
+        <v>86.41077719292805</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>84.77507496787798</v>
+        <v>84.77507496787783</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.20382524019612</v>
+        <v>27.20382524019613</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>84.77984646619092</v>
+        <v>84.77984646619097</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>83.68027775485231</v>
+        <v>83.68027775485228</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.07671955969382</v>
+        <v>13.07671955969372</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.908391802001098</v>
+        <v>9.90839180200113</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.56365395014132</v>
+        <v>13.56365395014129</v>
       </c>
     </row>
     <row r="275">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.59731270933084</v>
+        <v>14.59731270933088</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>17.33820881179553</v>
+        <v>17.33820881179545</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.741265988695247</v>
+        <v>2.741265988695226</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.99208544118664</v>
+        <v>22.99208544118663</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.6794769165781</v>
+        <v>22.67947691657815</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.70889167138899</v>
+        <v>22.70889167138902</v>
       </c>
     </row>
     <row r="282">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.43259329158927</v>
+        <v>31.43259329158926</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.09951581766311</v>
+        <v>15.09951581766318</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.91199637767493</v>
+        <v>19.91199637767496</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.6446844595181</v>
+        <v>21.64468445951811</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.84865910181529</v>
+        <v>15.84865910181534</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.89975040781669</v>
+        <v>29.89975040781665</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.67553774028646</v>
+        <v>35.67553774028642</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.015151216522479</v>
+        <v>6.015151216522508</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.21125956260759</v>
+        <v>28.21125956260753</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.21008847474517</v>
+        <v>37.21008847474504</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.982410528520305</v>
+        <v>7.98241052852028</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.69143955141945</v>
+        <v>43.69143955141959</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>54.8008050436011</v>
+        <v>54.80080504360112</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.19709431761243</v>
+        <v>40.19709431761241</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.4061554936098</v>
+        <v>51.40615549360975</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>53.2133418414371</v>
+        <v>53.21334184143701</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>17.84542213283277</v>
+        <v>17.84542213283272</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>52.2851344205059</v>
+        <v>52.28513442050594</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>53.29078486927254</v>
+        <v>53.2907848692726</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.90932335865623</v>
+        <v>20.90932335865625</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>40.07961016923411</v>
+        <v>40.07961016923404</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>45.25311815298494</v>
+        <v>45.2531181529849</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>9.210497786866515</v>
+        <v>9.2104977868666</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>40.86131455949835</v>
+        <v>40.86131455949838</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.08861451049923</v>
+        <v>48.08861451049921</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>12.619612753063</v>
+        <v>12.61961275306297</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>64.29946707527711</v>
+        <v>64.29946707527719</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>68.0257020041023</v>
+        <v>68.02570200410219</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>69.38189666542689</v>
+        <v>69.38189666542684</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>77.6425263835087</v>
+        <v>77.64252638350889</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>78.97665682775319</v>
+        <v>78.9766568277532</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>33.1658585887863</v>
+        <v>33.16585858878629</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>79.04021953365975</v>
+        <v>79.04021953365972</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>82.92125605033263</v>
+        <v>82.9212560503324</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>15.24042251523344</v>
+        <v>15.24042251523347</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.23819582995537</v>
+        <v>13.23819582995533</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.74638180663364</v>
+        <v>12.74638180663357</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2.382446672714224</v>
+        <v>2.382446672714263</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.59384760250029</v>
+        <v>14.59384760250027</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.46993406279016</v>
+        <v>16.46993406278998</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.2586273900449108</v>
+        <v>-0.2586273900449676</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.54675346485299</v>
+        <v>17.54675346485305</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.83444190574129</v>
+        <v>13.83444190574141</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.42213221786938</v>
+        <v>11.42213221786922</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>14.95425436369081</v>
+        <v>14.95425436369082</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.97836532562177</v>
+        <v>11.97836532562168</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.87858692706338</v>
+        <v>15.87858692706321</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.41002257627552</v>
+        <v>16.41002257627545</v>
       </c>
     </row>
     <row r="331">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.056696304124305</v>
+        <v>8.056696304124255</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.25322049663922</v>
+        <v>12.25322049663923</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.32547524125813</v>
+        <v>15.32547524125818</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-0.4418333875820686</v>
+        <v>-0.4418333875820188</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>8.796679488094313</v>
+        <v>8.796679488094302</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.30865041278588</v>
+        <v>15.30865041278599</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-0.8224811023498262</v>
+        <v>-0.8224811023497764</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.85087872291136</v>
+        <v>16.85087872291104</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.82106753404243</v>
+        <v>29.82106753404257</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.23986266011838</v>
+        <v>13.2398626601186</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>23.12033333569399</v>
+        <v>23.12033333569405</v>
       </c>
     </row>
     <row r="343">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.935199724041507</v>
+        <v>5.935199724041553</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.66661374062301</v>
+        <v>22.66661374062312</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.1579863921596</v>
+        <v>18.15798639215935</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.517254436255079</v>
+        <v>9.517254436255111</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>15.23756202559167</v>
+        <v>15.23756202559148</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.69353540888844</v>
+        <v>33.69353540888853</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1.155730836203546</v>
+        <v>1.155730836203446</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.58145159436188</v>
+        <v>16.58145159436172</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.45901997676961</v>
+        <v>34.45901997676965</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.579753395149055</v>
+        <v>0.5797533951491403</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.57506885698194</v>
+        <v>27.57506885698193</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>58.28795363912354</v>
+        <v>58.28795363912351</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.04786337972833</v>
+        <v>28.04786337972828</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.88978213374321</v>
+        <v>49.88978213374295</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>70.05583382525576</v>
+        <v>70.05583382525582</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.885895366689489</v>
+        <v>9.88589536668967</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.31008827331006</v>
+        <v>34.31008827330998</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.95471081287653</v>
+        <v>42.95471081287647</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.92791005479368</v>
+        <v>15.92791005479356</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.94580684737192</v>
+        <v>26.94580684737173</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>39.34001856484353</v>
+        <v>39.34001856484333</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.109874205494627</v>
+        <v>7.10987420549468</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.98977815778688</v>
+        <v>45.989778157787</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>51.73274540018318</v>
+        <v>51.73274540018296</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.185916467049672</v>
+        <v>9.185916467049584</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>66.53840239278826</v>
+        <v>66.5384023927881</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>67.92799100678725</v>
+        <v>67.92799100678714</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>61.27973709636605</v>
+        <v>61.27973709636606</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>73.34939173159668</v>
+        <v>73.34939173159682</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>70.725952378426</v>
+        <v>70.72595237842614</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.63454961251682</v>
+        <v>29.6345496125169</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>54.56159346153002</v>
+        <v>54.56159346152997</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>72.51807160803739</v>
+        <v>72.51807160803746</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.64883784728812</v>
+        <v>21.64883784728805</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.63988279793159</v>
+        <v>36.63988279793158</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.75339746579073</v>
+        <v>39.75339746579085</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.589203451036873</v>
+        <v>3.589203451036809</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.6306818431709</v>
+        <v>34.63068184317087</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.0226626185222</v>
+        <v>36.02266261852218</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5.889389983191304</v>
+        <v>5.889389983191201</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.38929552239502</v>
+        <v>55.38929552239507</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>59.67957746788796</v>
+        <v>59.67957746788782</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>47.46251565758614</v>
+        <v>47.46251565758607</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>56.38120572740886</v>
+        <v>56.381205727409</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>54.77425402625556</v>
+        <v>54.77425402625562</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.85392142989873</v>
+        <v>28.85392142989865</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>62.69466047441986</v>
+        <v>62.69466047441998</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>62.44935645212794</v>
+        <v>62.44935645212781</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.29221391302061</v>
+        <v>23.29221391302048</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.08506116142311</v>
+        <v>39.08506116142286</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.09124077149715</v>
+        <v>44.09124077149707</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>8.887184966106613</v>
+        <v>8.887184966106577</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.25576107165844</v>
+        <v>45.25576107165829</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.17917467584705</v>
+        <v>47.17917467584698</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.49433896424977</v>
+        <v>11.49433896424972</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>68.88728261885454</v>
+        <v>68.88728261885461</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>69.6259923199886</v>
+        <v>69.62599231998857</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>71.30649592686633</v>
+        <v>71.30649592686618</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.56708723985003</v>
+        <v>77.56708723985008</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>78.82236125872612</v>
+        <v>78.82236125872618</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.56141244216788</v>
+        <v>34.56141244216769</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>77.10615756158073</v>
+        <v>77.10615756158052</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>83.73147376019615</v>
+        <v>83.73147376019614</v>
       </c>
     </row>
     <row r="407">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.95907858811159</v>
+        <v>12.95907858811158</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.68338725225193</v>
+        <v>15.68338725225196</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1.610475964953107</v>
+        <v>1.610475964953071</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.443205124645221</v>
+        <v>9.443205124645349</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.10841991914821</v>
+        <v>15.1084199191483</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1.416915906500865</v>
+        <v>1.416915906500826</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.11411392778321</v>
+        <v>19.11411392778332</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.69809894490867</v>
+        <v>20.69809894490859</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.03052047801489</v>
+        <v>18.03052047801481</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.54806499662484</v>
+        <v>23.54806499662472</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.73336025356105</v>
+        <v>23.73336025356097</v>
       </c>
     </row>
     <row r="419">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.28225574700305</v>
+        <v>20.28225574700308</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.77512622718896</v>
+        <v>23.77512622718901</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.39948300955481</v>
+        <v>11.39948300955484</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.57077184463348</v>
+        <v>23.57077184463338</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.26833705101222</v>
+        <v>31.26833705101215</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>5.805221252945412</v>
+        <v>5.805221252945351</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.56689000295028</v>
+        <v>19.56689000295025</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.00969268874406</v>
+        <v>32.00969268874391</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>6.59010758988769</v>
+        <v>6.590107589887591</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.34529341657444</v>
+        <v>32.34529341657439</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>48.87021115372397</v>
+        <v>48.87021115372393</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.6633900803627</v>
+        <v>24.66339008036273</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.97194664845412</v>
+        <v>37.97194664845416</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.03128838890679</v>
+        <v>39.03128838890689</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.4465127733312</v>
+        <v>10.44651277333103</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.47601656168514</v>
+        <v>37.47601656168506</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>45.40728379813937</v>
+        <v>45.4072837981392</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.69714624619915</v>
+        <v>19.69714624619918</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.02090606111108</v>
+        <v>33.0209060611109</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>44.24736663188211</v>
+        <v>44.24736663188206</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>9.340367885022058</v>
+        <v>9.340367885021958</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.14936858614073</v>
+        <v>29.1493685861407</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>44.12099730400018</v>
+        <v>44.1209973040002</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.96148095306177</v>
+        <v>13.96148095306165</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.71284707997062</v>
+        <v>46.71284707997055</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>62.7290298123317</v>
+        <v>62.72902981233177</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>47.90618974969446</v>
+        <v>47.90618974969443</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>58.9551658456943</v>
+        <v>58.9551658456941</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>76.28190324286233</v>
+        <v>76.28190324286237</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.0046231181786</v>
+        <v>28.00462311817849</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>59.84400134002594</v>
+        <v>59.8440013400259</v>
       </c>
     </row>
     <row r="451">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.359852186384984</v>
+        <v>6.359852186384963</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.057246181313001</v>
+        <v>6.057246181312895</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>8.580554800253719</v>
+        <v>8.580554800253655</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1.309374661722401</v>
+        <v>-1.309374661722288</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.655758066607312</v>
+        <v>8.655758066607355</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.92490180122836</v>
+        <v>12.92490180122832</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-4.127441100458398</v>
+        <v>-4.127441100458512</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.72746918210951</v>
+        <v>14.72746918210938</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.5700530394097</v>
+        <v>12.57005303940981</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.038717819037295</v>
+        <v>4.038717819037348</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.471091829386967</v>
+        <v>5.471091829387106</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.01914676032403</v>
+        <v>15.019146760324</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.825943010724899</v>
+        <v>5.825943010724739</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.710710639655307</v>
+        <v>9.710710639655201</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.78045483011102</v>
+        <v>15.78045483011086</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.99409689711316</v>
+        <v>20.99409689711326</v>
       </c>
     </row>
     <row r="468">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.790331763028</v>
+        <v>38.79033176302804</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>8.300533324540627</v>
+        <v>8.300533324540591</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.87854983835892</v>
+        <v>35.87854983835872</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.17279337703268</v>
+        <v>38.17279337703252</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.93905883799566</v>
+        <v>8.939058837995653</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>55.26679062646929</v>
+        <v>55.26679062646936</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.745835343555</v>
+        <v>56.74583534355499</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.23922819363379</v>
+        <v>47.23922819363382</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>55.16592188511368</v>
+        <v>55.1659218851138</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.68083776026001</v>
+        <v>54.68083776025993</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.481589431962</v>
+        <v>21.48158943196201</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>60.54986378584365</v>
+        <v>60.54986378584359</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>60.26335269109922</v>
+        <v>60.26335269109906</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.73959838179821</v>
+        <v>23.73959838179816</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.0446472617468</v>
+        <v>44.04464726174675</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>46.90719141265456</v>
+        <v>46.90719141265467</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>9.356020376696627</v>
+        <v>9.356020376696669</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>48.13924755666383</v>
+        <v>48.13924755666389</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>51.28149467152353</v>
+        <v>51.2814946715237</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>9.571506822984752</v>
+        <v>9.57150682298472</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>69.47744009960249</v>
+        <v>69.47744009960238</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>67.77918933213927</v>
+        <v>67.77918933213947</v>
       </c>
     </row>
     <row r="491">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>84.33582822546784</v>
+        <v>84.33582822546776</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>81.84330656715582</v>
+        <v>81.84330656715585</v>
       </c>
     </row>
     <row r="494">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>82.75519713948594</v>
+        <v>82.75519713948586</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>81.2872960297419</v>
+        <v>81.28729602974155</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.31413238266369</v>
+        <v>12.31413238266365</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.19062601070123</v>
+        <v>14.1906260107011</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.72402324286197</v>
+        <v>18.72402324286193</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.5107572170372201</v>
+        <v>0.5107572170372165</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>13.77516266258404</v>
+        <v>13.77516266258405</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.29907223238051</v>
+        <v>18.29907223238054</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>0.8442152903609141</v>
+        <v>0.8442152903609887</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.41839999246347</v>
+        <v>22.41839999246329</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.72151996457133</v>
+        <v>24.72151996457145</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.87144417223086</v>
+        <v>18.87144417223075</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.10628851562777</v>
+        <v>24.10628851562798</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.08637460813506</v>
+        <v>27.08637460813514</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.83706200176963</v>
+        <v>14.83706200176958</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.04599707759163</v>
+        <v>25.04599707759176</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.17206552756739</v>
+        <v>29.17206552756731</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>8.934083278223831</v>
+        <v>8.93408327822392</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>14.10175381442229</v>
+        <v>14.10175381442224</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.59264541089019</v>
+        <v>21.59264541089006</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>0.04566826718125938</v>
+        <v>0.0456682671812878</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>9.929985542197972</v>
+        <v>9.92998554219793</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.23432323492009</v>
+        <v>20.23432323492025</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-0.3215696659311398</v>
+        <v>-0.3215696659310758</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>18.80066145472799</v>
+        <v>18.80066145472779</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.89280525025212</v>
+        <v>33.89280525025174</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.99498610545543</v>
+        <v>12.99498610545551</v>
       </c>
     </row>
     <row r="522">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.95315446694109</v>
+        <v>28.95315446694099</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>6.196730217883129</v>
+        <v>6.196730217883136</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.91506102231749</v>
+        <v>22.9150610223174</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.91243276534905</v>
+        <v>29.91243276534889</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.12043603934182</v>
+        <v>22.12043603934191</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.25789877032516</v>
+        <v>31.257898770325</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.8647900581005</v>
+        <v>37.86479005810047</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.541347758779978</v>
+        <v>4.541347758779889</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.73519023670217</v>
+        <v>25.7351902367021</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.09465756539716</v>
+        <v>32.09465756539712</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.215924897638864</v>
+        <v>9.215924897638772</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.44659392766634</v>
+        <v>44.44659392766618</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.4551467098966</v>
+        <v>52.45514670989639</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.05980748231227</v>
+        <v>48.05980748231222</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.80427873536254</v>
+        <v>54.80427873536277</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>63.42177139076979</v>
+        <v>63.42177139076974</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.03669180544589</v>
+        <v>26.03669180544565</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.02908948002326</v>
+        <v>50.02908948002345</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.82585140852564</v>
+        <v>53.82585140852557</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.909379310702501</v>
+        <v>7.909379310702551</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>5.855455473648338</v>
+        <v>5.855455473648405</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.092533392989402</v>
+        <v>6.092533392989559</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.8096032120113712</v>
+        <v>-0.809603212011428</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.975313254842195</v>
+        <v>3.975313254842096</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.850992770943698</v>
+        <v>5.850992770943655</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.3708138599861641</v>
+        <v>0.370813859986221</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.139659656737081</v>
+        <v>8.139659656736967</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.692918322040274</v>
+        <v>5.692918322040416</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1.524661685484322</v>
+        <v>1.524661685484244</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.543140743889762</v>
+        <v>1.543140743889733</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.885928388488434</v>
+        <v>4.885928388488335</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.190951625452229</v>
+        <v>9.190951625452279</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.38212120116874</v>
+        <v>12.38212120116878</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.5654190436919</v>
+        <v>15.56541904369183</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.046603556917717</v>
+        <v>7.046603556917709</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.169227334474293</v>
+        <v>9.169227334474339</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.599397074584353</v>
+        <v>8.599397074584282</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.03052707440887303</v>
+        <v>-0.03052707440885882</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>4.498348070368195</v>
+        <v>4.498348070368166</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7.526370367288752</v>
+        <v>7.526370367288795</v>
       </c>
     </row>
     <row r="563">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>8.42129971742694</v>
+        <v>8.421299717426805</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.37944825568175</v>
+        <v>11.37944825568191</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.092154382079489</v>
+        <v>6.092154382079539</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>9.254875769422288</v>
+        <v>9.254875769422238</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.590485092598719</v>
+        <v>5.590485092598858</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1.994527110710937</v>
+        <v>1.994527110710973</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>9.851076314840135</v>
+        <v>9.851076314840011</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.15647714728068</v>
+        <v>11.15647714728076</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.23128166946886</v>
+        <v>21.23128166946881</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.05606537404119</v>
+        <v>25.05606537404122</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.45386283364397</v>
+        <v>28.45386283364402</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>5.322252457736198</v>
+        <v>5.322252457736269</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.14573506789256</v>
+        <v>19.1457350678925</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.32673457084043</v>
+        <v>23.32673457084044</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.920485361182262</v>
+        <v>8.920485361182333</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.82194225040725</v>
+        <v>30.8219422504072</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.40392302285673</v>
+        <v>34.40392302285652</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.15029597909524</v>
+        <v>37.15029597909529</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.77059797872035</v>
+        <v>42.77059797872037</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>40.82051633780191</v>
+        <v>40.82051633780198</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.99800218806966</v>
+        <v>24.99800218806954</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.27037876033215</v>
+        <v>34.27037876033204</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>39.02983415422656</v>
+        <v>39.02983415422663</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.00351987341117</v>
+        <v>20.00351987341102</v>
       </c>
     </row>
     <row r="588">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.63309340530745</v>
+        <v>31.6330934053075</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.636012793160845</v>
+        <v>2.636012793160898</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.62238207079675</v>
+        <v>22.62238207079671</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.19715739749654</v>
+        <v>29.19715739749655</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>4.039123023093392</v>
+        <v>4.039123023093563</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.39771058790412</v>
+        <v>35.39771058790421</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>40.22726550702744</v>
+        <v>40.2272655070275</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.1103225506672</v>
+        <v>32.11032255066737</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.96298494708201</v>
+        <v>41.96298494708196</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.83206531691003</v>
+        <v>44.8320653169102</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.09938722895129</v>
+        <v>34.09938722895112</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>50.94246620127255</v>
+        <v>50.94246620127247</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>61.74500836844558</v>
+        <v>61.74500836844551</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.57920433633792</v>
+        <v>14.57920433633791</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.35893653570664</v>
+        <v>25.35893653570644</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.49705957499692</v>
+        <v>26.49705957499687</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-0.5820077089901012</v>
+        <v>-0.582007708989952</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.92053404898777</v>
+        <v>15.92053404898783</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.10806149577578</v>
+        <v>22.10806149577568</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.3192755015205506</v>
+        <v>0.3192755015206998</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.57914223882673</v>
+        <v>31.57914223882649</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>37.90020087511398</v>
+        <v>37.9002008751144</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.83529547509168</v>
+        <v>30.83529547509159</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.47652211025409</v>
+        <v>38.47652211025402</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>37.91568751577739</v>
+        <v>37.91568751577765</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.49350691431006</v>
+        <v>19.49350691430983</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>43.00743441845877</v>
+        <v>43.00743441845864</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>46.51737571984007</v>
+        <v>46.51737571983993</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.23627518708621</v>
+        <v>24.23627518708616</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.03372476893153</v>
+        <v>38.03372476893151</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.89332650422425</v>
+        <v>42.89332650422415</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.580983545522216</v>
+        <v>6.580983545522219</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.98446210264611</v>
+        <v>31.98446210264606</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.72302904206909</v>
+        <v>37.72302904206895</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.962157043418411</v>
+        <v>7.962157043418287</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.69448579525749</v>
+        <v>54.69448579525744</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>59.11309110639465</v>
+        <v>59.11309110639478</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>65.5100311821225</v>
+        <v>65.51003118212236</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>70.56006570452446</v>
+        <v>70.56006570452487</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>77.09507853477092</v>
+        <v>77.09507853477091</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.31864038647747</v>
+        <v>32.31864038647748</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>65.0195407938585</v>
+        <v>65.01954079385848</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>70.46403809085132</v>
+        <v>70.46403809085157</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.07638194809484</v>
+        <v>20.07638194809478</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.82845002163078</v>
+        <v>38.82845002163087</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.63039491722823</v>
+        <v>42.63039491722816</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.88634988397108</v>
+        <v>10.88634988397104</v>
       </c>
     </row>
     <row r="636">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>46.24848011235902</v>
+        <v>46.248480112359</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.23183430463886</v>
+        <v>12.23183430463891</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>58.62511782768502</v>
+        <v>58.62511782768513</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>59.5052913525528</v>
+        <v>59.50529135255287</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>65.35682502009323</v>
+        <v>65.35682502009314</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>69.52122484145306</v>
+        <v>69.52122484145305</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>68.49979494589175</v>
+        <v>68.49979494589172</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.53665968827978</v>
+        <v>25.53665968827974</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>65.23046220922953</v>
+        <v>65.23046220922947</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>70.63255553605219</v>
+        <v>70.63255553605217</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.65012943073437</v>
+        <v>18.65012943073438</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.15890660462977</v>
+        <v>36.15890660462986</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.69479998615567</v>
+        <v>40.69479998615564</v>
       </c>
     </row>
     <row r="650">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.59116268442436</v>
+        <v>30.59116268442426</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.77542615042633</v>
+        <v>37.77542615042628</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.03651382557906</v>
+        <v>8.036513825579199</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.69316911164783</v>
+        <v>47.6931691116477</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>58.55123355744487</v>
+        <v>58.55123355744495</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.0652081826691</v>
+        <v>46.06520818266907</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.61730004829142</v>
+        <v>55.61730004829148</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>54.10280398674987</v>
+        <v>54.10280398674978</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.37522586034288</v>
+        <v>18.37522586034282</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>57.53092143262545</v>
+        <v>57.53092143262549</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>62.81205477010088</v>
+        <v>62.81205477010077</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.13397868988027</v>
+        <v>21.13397868988029</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.23025958314707</v>
+        <v>41.23025958314703</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>47.41015471905678</v>
+        <v>47.41015471905679</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>6.916243541294858</v>
+        <v>6.916243541294808</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.93383666485961</v>
+        <v>38.93383666485947</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.64632396375329</v>
+        <v>46.64632396375327</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>8.19196872970825</v>
+        <v>8.191968729708186</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>58.22543357286932</v>
+        <v>58.22543357286916</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.92591627499993</v>
+        <v>65.92591627499976</v>
       </c>
     </row>
     <row r="671">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>76.96564529164434</v>
+        <v>76.96564529164417</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>82.29165755148918</v>
+        <v>82.29165755148914</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.9519137070483</v>
+        <v>19.95191370704823</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>71.67893017127551</v>
+        <v>71.6789301712755</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>78.72869453770882</v>
+        <v>78.72869453770855</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.89240030818766</v>
+        <v>23.89240030818764</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.90427590219156</v>
+        <v>31.90427590219115</v>
       </c>
     </row>
     <row r="679">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>9.265821072499079</v>
+        <v>9.265821072498987</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.66532070709073</v>
+        <v>42.6653207070906</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>47.38607618923164</v>
+        <v>47.3860761892315</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.66911220013763</v>
+        <v>11.66911220013765</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.76405701299737</v>
+        <v>56.76405701299736</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>57.8624773688082</v>
+        <v>57.86247736880828</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>56.6072285471065</v>
+        <v>56.6072285471067</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>62.8257635470307</v>
+        <v>62.82576354703061</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>62.08172056896484</v>
+        <v>62.08172056896488</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.01436225171499</v>
+        <v>28.01436225171483</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.09467595485028</v>
+        <v>44.09467595485023</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.3545948676573</v>
+        <v>62.35459486765728</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.04711802186216</v>
+        <v>25.04711802186207</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.12488386612625</v>
+        <v>40.12488386612617</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>41.14914948722184</v>
+        <v>41.14914948722146</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>7.335804390109764</v>
+        <v>7.3358043901098</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.97683534712879</v>
+        <v>34.97683534712881</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.63789810243669</v>
+        <v>39.63789810243646</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.006719579709056</v>
+        <v>7.006719579709024</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>53.53479276530226</v>
+        <v>53.53479276530189</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>60.9531520827251</v>
+        <v>60.95315208272485</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.8407220097715</v>
+        <v>50.84072200977153</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>58.31773952588059</v>
+        <v>58.31773952588031</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>57.9042691203505</v>
+        <v>57.90426912035021</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.67423857274255</v>
+        <v>24.67423857274246</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>63.34993502651346</v>
+        <v>63.34993502651336</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>66.53246249099294</v>
+        <v>66.53246249099273</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.37018552460794</v>
+        <v>27.37018552460772</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>44.24152869198268</v>
+        <v>44.2415286919826</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>47.90306578910889</v>
+        <v>47.90306578910882</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.375363379738467</v>
+        <v>9.375363379738509</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.26284816178013</v>
+        <v>42.26284816178018</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>47.79898884653886</v>
+        <v>47.79898884653903</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>7.723271555580659</v>
+        <v>7.723271555580791</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>64.70521091985044</v>
+        <v>64.70521091985026</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.67958908589969</v>
+        <v>69.67958908589974</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>75.33293939142982</v>
+        <v>75.33293939142959</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>81.49882310929564</v>
+        <v>81.49882310929573</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>83.22917505027017</v>
+        <v>83.22917505027002</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.55140666078594</v>
+        <v>28.55140666078567</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>75.55126225579676</v>
+        <v>75.55126225579639</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>79.63513076168491</v>
+        <v>79.63513076168478</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.63943996072307</v>
+        <v>22.63943996072311</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.40858389674954</v>
+        <v>31.40858389674965</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.34874180776511</v>
+        <v>34.34874180776522</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.1696737034786</v>
+        <v>15.16967370347869</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>55.44280831925623</v>
+        <v>55.44280831925636</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.19365350171434</v>
+        <v>55.19365350171441</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.5678474692115</v>
+        <v>10.56784746921154</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>58.02427752143184</v>
+        <v>58.02427752143199</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>54.7383995562714</v>
+        <v>54.73839955627147</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>55.64268413648551</v>
+        <v>55.64268413648536</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>61.68615081255318</v>
+        <v>61.68615081255334</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>60.35598143727086</v>
+        <v>60.35598143727088</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.2399152412908</v>
+        <v>33.23991524129073</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>47.00897929092427</v>
+        <v>47.00897929092429</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>61.26426420400264</v>
+        <v>61.26426420400274</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.2391393217385</v>
+        <v>25.23913932173864</v>
       </c>
     </row>
     <row r="738">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.94904995312554</v>
+        <v>38.94904995312579</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.17407960000581</v>
+        <v>33.1740796000059</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>51.74714397495134</v>
+        <v>51.74714397495137</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>57.98477170537012</v>
+        <v>57.98477170537015</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>8.936802947906308</v>
+        <v>8.936802947906283</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>52.4015447429489</v>
+        <v>52.40154474294894</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>59.11195085918717</v>
+        <v>59.11195085918688</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>48.81501813414526</v>
+        <v>48.81501813414505</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.74937806499557</v>
+        <v>56.74937806499533</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>54.73571717105376</v>
+        <v>54.73571717105392</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.74251058513521</v>
+        <v>31.74251058513504</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>61.51657186367636</v>
+        <v>61.5165718636765</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>64.6691962916822</v>
+        <v>64.66919629168217</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.73270454887282</v>
+        <v>30.73270454887293</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.15128001379264</v>
+        <v>44.15128001379274</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.30907933675451</v>
+        <v>46.30907933675444</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.8310716722849</v>
+        <v>35.831071672285</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.64478892456888</v>
+        <v>57.64478892456891</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.57069846912474</v>
+        <v>59.57069846912471</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>10.60820393477179</v>
+        <v>10.60820393477173</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.32568046981181</v>
+        <v>63.32568046981193</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>66.3400487513308</v>
+        <v>66.34004875133085</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>78.48844045033761</v>
+        <v>78.48844045033776</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>80.52587558787221</v>
+        <v>80.5258755878726</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>84.59276586628755</v>
+        <v>84.59276586628741</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>39.83682540929264</v>
+        <v>39.83682540929284</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>77.10951153661303</v>
+        <v>77.1095115366133</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>81.29065070830265</v>
+        <v>81.29065070830283</v>
       </c>
     </row>
     <row r="767">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.97974637154083</v>
+        <v>31.97974637154086</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>38.17068030081752</v>
+        <v>38.17068030081767</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3.390357151982659</v>
+        <v>3.390357151982688</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.92875839521073</v>
+        <v>29.92875839521071</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.7152315065525</v>
+        <v>41.71523150655248</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>4.628654553072167</v>
+        <v>4.628654553072046</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.5687723165678</v>
+        <v>52.56877231656784</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>56.29119548109075</v>
+        <v>56.29119548109084</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.45607496148763</v>
+        <v>57.45607496148776</v>
       </c>
     </row>
     <row r="777">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>63.6625199269589</v>
+        <v>63.66251992695913</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.66169683690633</v>
+        <v>15.66169683690629</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>57.27652548232793</v>
+        <v>57.27652548232794</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>66.26331301013973</v>
+        <v>66.26331301013963</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.30636264641909</v>
+        <v>16.30636264641923</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.54697263641395</v>
+        <v>34.54697263641374</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.78932057228628</v>
+        <v>36.78932057228626</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1.35103202141946</v>
+        <v>1.351032021419456</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.38107901191106</v>
+        <v>28.38107901191111</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.55561285814707</v>
+        <v>32.55561285814695</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1.74575293815138</v>
+        <v>1.745752938151426</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>46.18069267136627</v>
+        <v>46.18069267136619</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>54.2152944878672</v>
+        <v>54.2152944878674</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.51248106829762</v>
+        <v>42.51248106829749</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>51.68669522458296</v>
+        <v>51.68669522458278</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>49.37640160963443</v>
+        <v>49.37640160963446</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.106367672629595</v>
+        <v>9.106367672629659</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.41135078198698</v>
+        <v>47.41135078198707</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>56.75702734496311</v>
+        <v>56.75702734496282</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.05203928815872</v>
+        <v>17.05203928815873</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.14837267275949</v>
+        <v>36.14837267275946</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.02430734461242</v>
+        <v>43.02430734461235</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1.977984298768874</v>
+        <v>1.977984298768984</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.86101982985908</v>
+        <v>35.86101982985894</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.48505503827674</v>
+        <v>43.48505503827685</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2.6989256392655</v>
+        <v>2.698925639265475</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>54.01615474524822</v>
+        <v>54.01615474524796</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>63.13100312605522</v>
+        <v>63.13100312605555</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.76905863344958</v>
+        <v>62.76905863344978</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>73.91257250245341</v>
+        <v>73.91257250245346</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>80.37632860530735</v>
+        <v>80.37632860530732</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.11203257403044</v>
+        <v>11.11203257403054</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>67.18830443488332</v>
+        <v>67.18830443488316</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>77.06378221250807</v>
+        <v>77.06378221250833</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.88819335835776</v>
+        <v>17.88819335835758</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.20511153807433</v>
+        <v>17.20511153807409</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.9299871143843</v>
+        <v>19.92998711438438</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.838857537240685</v>
+        <v>6.838857537240663</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.77851485831967</v>
+        <v>19.77851485831971</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.14042689559587</v>
+        <v>23.14042689559579</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.509611077254849</v>
+        <v>9.509611077254817</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.56823765136107</v>
+        <v>28.56823765136113</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.92605727420357</v>
+        <v>29.92605727420364</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.013465842919</v>
+        <v>24.01346584291891</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.27851394902245</v>
+        <v>29.27851394902251</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.14115817979855</v>
+        <v>31.14115817979858</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.1126443306899</v>
+        <v>22.11264433068988</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.79471673868435</v>
+        <v>25.79471673868419</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.03405724641032</v>
+        <v>31.03405724641028</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.30530127424954</v>
+        <v>17.30530127424959</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>32.55470222209548</v>
+        <v>32.55470222209546</v>
       </c>
     </row>
     <row r="829">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.739302369069044</v>
+        <v>9.739302369069037</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.25620097353008</v>
+        <v>31.25620097353012</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>41.11183487190452</v>
+        <v>41.11183487190456</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.850970245375105</v>
+        <v>9.850970245375041</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.17209651978045</v>
+        <v>44.17209651978041</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>57.34711746026829</v>
+        <v>57.34711746026817</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.53805313760993</v>
+        <v>42.53805313760988</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.21376636662793</v>
+        <v>48.21376636662792</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>56.29833187424805</v>
+        <v>56.29833187424812</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.2764310355532</v>
+        <v>16.27643103555332</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>48.87306269923636</v>
+        <v>48.87306269923632</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>57.61675272313721</v>
+        <v>57.61675272313734</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.81038343048711</v>
+        <v>21.81038343048706</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.13746100386326</v>
+        <v>38.13746100386327</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.09202079771404</v>
+        <v>47.09202079771394</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>8.388887525990615</v>
+        <v>8.388887525990583</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.84334128425364</v>
+        <v>34.84334128425363</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.62015171345155</v>
+        <v>47.62015171345164</v>
       </c>
     </row>
     <row r="848">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.35708262749517</v>
+        <v>55.35708262749498</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.21965241501869</v>
+        <v>68.21965241501857</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>56.31877139015051</v>
+        <v>56.31877139015045</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.84437132417717</v>
+        <v>61.84437132417729</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>80.02372953483382</v>
+        <v>80.02372953483393</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.92927008690301</v>
+        <v>23.92927008690295</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.62726611357576</v>
+        <v>57.62726611357555</v>
       </c>
     </row>
     <row r="856">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.12591440621119</v>
+        <v>16.12591440621102</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.89972420859284</v>
+        <v>19.89972420859289</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.50013720134896</v>
+        <v>23.50013720134895</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-0.0852775975225093</v>
+        <v>-0.08527759752274378</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.88290473997464</v>
+        <v>28.88290473997463</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.98807136659615</v>
+        <v>31.98807136659599</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2.084561028034418</v>
+        <v>2.084561028034475</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.21832742550896</v>
+        <v>38.21832742550895</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>37.92928885918924</v>
+        <v>37.92928885918917</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.64288039365752</v>
+        <v>30.64288039365783</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.6706690376004</v>
+        <v>39.67066903760048</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>42.69403437607804</v>
+        <v>42.69403437607801</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.15528288498307</v>
+        <v>21.15528288498312</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.18223543503356</v>
+        <v>36.1822354350337</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>49.12838150273096</v>
+        <v>49.12838150273097</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.476451858512188</v>
+        <v>9.476451858512167</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.97585598681776</v>
+        <v>21.97585598681781</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.80782146412371</v>
+        <v>29.80782146412367</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>5.964163820691489</v>
+        <v>5.964163820691574</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.93785197998747</v>
+        <v>21.93785197998748</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.99077228338998</v>
+        <v>43.99077228339015</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-2.944906868928882</v>
+        <v>-2.944906868928754</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>32.42319746799338</v>
+        <v>32.4231974679936</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.55417401956952</v>
+        <v>50.55417401956965</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.37224076926104</v>
+        <v>30.37224076926093</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.63039727462171</v>
+        <v>40.63039727462201</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.01818044596451</v>
+        <v>48.01818044596469</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.61434564939147</v>
+        <v>10.61434564939146</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>44.43152424569288</v>
+        <v>44.43152424569281</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.68298221951348</v>
+        <v>55.68298221951385</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.29755347348255</v>
+        <v>19.29755347348252</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.65936613052</v>
+        <v>29.65936613052011</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.18672502439478</v>
+        <v>39.18672502439476</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.519432857528415</v>
+        <v>7.51943285752828</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.1322098126961</v>
+        <v>26.13220981269605</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.43951512096105</v>
+        <v>41.43951512096103</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-0.5126068179975753</v>
+        <v>-0.5126068179975007</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.68788270246202</v>
+        <v>42.68788270246227</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.17348949382157</v>
+        <v>57.17348949382151</v>
       </c>
     </row>
     <row r="896">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>61.93883490092958</v>
+        <v>61.93883490092949</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.35801754078062</v>
+        <v>72.35801754078051</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>17.77935839027852</v>
+        <v>17.77935839027867</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>52.99859067046417</v>
+        <v>52.99859067046403</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>69.32804221253829</v>
+        <v>69.32804221253809</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.63625523352644</v>
+        <v>23.63625523352631</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.45308717301846</v>
+        <v>32.45308717301852</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.24495831111683</v>
+        <v>37.24495831111673</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.954909589182794</v>
+        <v>9.954909589182847</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.248149861106</v>
+        <v>44.24814986110604</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>47.51839024162919</v>
+        <v>47.51839024162928</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>11.62542305039003</v>
+        <v>11.62542305039008</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.11935082296392</v>
+        <v>59.11935082296378</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>57.06823548733121</v>
+        <v>57.06823548733116</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>60.13760004228945</v>
+        <v>60.13760004228942</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>62.79199960665733</v>
+        <v>62.79199960665716</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>65.8650114281775</v>
+        <v>65.86501142817738</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.67116052458353</v>
+        <v>27.6711605245834</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>40.01692611151706</v>
+        <v>40.01692611151712</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>68.10389609221778</v>
+        <v>68.10389609221779</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.39636903438213</v>
+        <v>27.39636903438211</v>
       </c>
     </row>
     <row r="918">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>40.63579652476984</v>
+        <v>40.63579652476996</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.565238871739535</v>
+        <v>8.565238871739506</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.26075951685523</v>
+        <v>37.2607595168551</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>39.18902593250408</v>
+        <v>39.18902593250406</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>9.148354268681437</v>
+        <v>9.148354268681359</v>
       </c>
     </row>
     <row r="924">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>55.87561833754582</v>
+        <v>55.87561833754557</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>51.38534662683884</v>
+        <v>51.38534662683897</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>56.46420670116581</v>
+        <v>56.46420670116579</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>55.62385447956171</v>
+        <v>55.62385447956174</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.98200331938351</v>
+        <v>28.98200331938335</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>59.00569140330906</v>
+        <v>59.00569140330889</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>61.37575466518955</v>
+        <v>61.37575466518967</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.53005307155539</v>
+        <v>27.53005307155532</v>
       </c>
     </row>
     <row r="933">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>45.17899292599922</v>
+        <v>45.1789929259992</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>9.214420680368914</v>
+        <v>9.214420680368978</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.21971431895869</v>
+        <v>43.21971431895861</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.92610394859247</v>
+        <v>44.92610394859234</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>8.961767622177231</v>
+        <v>8.961767622177192</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>64.15326720484219</v>
+        <v>64.15326720484214</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>63.68443746452282</v>
+        <v>63.68443746452264</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>75.20468884080063</v>
+        <v>75.2046888408006</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>75.03648446123862</v>
+        <v>75.03648446123836</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>78.85615649694748</v>
+        <v>78.85615649694742</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>33.47679370744527</v>
+        <v>33.47679370744528</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>70.38889043394828</v>
+        <v>70.38889043394822</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>77.2237470321376</v>
+        <v>77.22374703213761</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.3850224609774</v>
+        <v>16.38502246097751</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.40058155410158</v>
+        <v>32.40058155410151</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.98327045817887</v>
+        <v>36.98327045817884</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>5.020206592155489</v>
+        <v>5.020206592155425</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.80435749747705</v>
+        <v>35.80435749747701</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.81077556999099</v>
+        <v>42.81077556999082</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>4.917701802365908</v>
+        <v>4.917701802366032</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>53.05898979597125</v>
+        <v>53.05898979597163</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>54.35561008759187</v>
+        <v>54.355610087592</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>53.94130180478133</v>
+        <v>53.94130180478132</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>62.60909522704417</v>
+        <v>62.60909522704416</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>60.8799754259496</v>
+        <v>60.87997542594955</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>15.17697907148859</v>
+        <v>15.17697907148855</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>56.13736213846713</v>
+        <v>56.13736213846711</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>63.61891567578946</v>
+        <v>63.61891567578933</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.43274712386166</v>
+        <v>17.43274712386163</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.18245001872981</v>
+        <v>36.18245001872978</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.21994223310461</v>
+        <v>37.21994223310455</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>4.317425019028924</v>
+        <v>4.31742501902896</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.82019019700307</v>
+        <v>32.82019019700311</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.47127805115223</v>
+        <v>35.47127805115209</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>4.916344552730763</v>
+        <v>4.916344552730827</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.50622121933318</v>
+        <v>49.50622121933323</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>55.93585143906496</v>
+        <v>55.93585143906483</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.31244665591818</v>
+        <v>46.31244665591831</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>55.68689263162943</v>
+        <v>55.68689263162948</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.62082511431626</v>
+        <v>53.62082511431623</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>13.55017674920465</v>
+        <v>13.55017674920471</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>57.51510963624889</v>
+        <v>57.51510963624887</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>59.78587727491394</v>
+        <v>59.78587727491399</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>15.73396879264714</v>
+        <v>15.73396879264718</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.77576648902645</v>
+        <v>32.77576648902632</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.47493653068405</v>
+        <v>40.47493653068412</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>2.834294531559394</v>
+        <v>2.834294531559273</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.81214239564392</v>
+        <v>34.81214239564383</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.49651066560666</v>
+        <v>42.49651066560652</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>3.621791874848725</v>
+        <v>3.621791874848668</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.78715756944838</v>
+        <v>49.78715756944848</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>61.19694711533666</v>
+        <v>61.19694711533673</v>
       </c>
     </row>
     <row r="986">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>67.94608698149726</v>
+        <v>67.94608698149722</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>76.4433239777882</v>
+        <v>76.44332397778813</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>11.55027657027946</v>
+        <v>11.55027657027944</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.6534502722487</v>
+        <v>60.65345027224878</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>72.69042320792227</v>
+        <v>72.69042320792222</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.546</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.46</v>
+        <v>17.867</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.873</v>
+        <v>-0.656</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.985</v>
+        <v>22.553</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.97</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.912</v>
+        <v>2.423</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.53632919557169</v>
+        <v>18.59373497887045</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.95491687447524</v>
+        <v>19.58883240847531</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.12175990683322</v>
+        <v>19.04171258831858</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.646360212538216</v>
+        <v>9.27888079644314</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.76229920451296</v>
+        <v>20.57370640080589</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.09583963518048</v>
+        <v>24.23085983489137</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.593432774996593</v>
+        <v>11.31634532286578</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.90390542909977</v>
+        <v>28.24478558114282</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.06399352427773</v>
+        <v>28.23545371858513</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.53891814548749</v>
+        <v>25.77291413678838</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.90819411374514</v>
+        <v>31.04109505924608</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.98939566767532</v>
+        <v>31.06514059792206</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.19689566605695</v>
+        <v>17.66381258361295</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.29689045286482</v>
+        <v>26.06380274672997</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.56687780003595</v>
+        <v>27.48925760242021</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.19507062455863</v>
+        <v>19.42365521850095</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.44558611187388</v>
+        <v>36.21914451764073</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.60324935187152</v>
+        <v>41.25115667214079</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.612656001096404</v>
+        <v>8.194346059065492</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.81483689557375</v>
+        <v>31.75138281199493</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.08307080130732</v>
+        <v>41.2383777725088</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.279342662828604</v>
+        <v>9.396495889852883</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>47.70146795555425</v>
+        <v>45.66020826800996</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>64.95996665039938</v>
+        <v>65.79327715611231</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>48.90333103431884</v>
+        <v>49.34674246898687</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>60.60165002758576</v>
+        <v>58.99188357361872</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>68.13562496186879</v>
+        <v>65.10816280929446</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.40717022794506</v>
+        <v>18.47041090587357</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>65.81036500737504</v>
+        <v>62.39041586393277</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.30731343245776</v>
+        <v>71.30038691638886</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.97742143296009</v>
+        <v>28.57208361345146</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.25028880882415</v>
+        <v>46.27400026507732</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.69924289265575</v>
+        <v>49.77991920853091</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.46956185930304</v>
+        <v>10.15990777363375</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.36651608149671</v>
+        <v>38.32572539128901</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.29921458409123</v>
+        <v>48.74562700289871</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.7732723507081</v>
+        <v>17.36375201612525</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>65.75643335978097</v>
+        <v>66.18007025584902</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>74.14407784909159</v>
+        <v>70.54644019610356</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.67419330046154</v>
+        <v>72.22739279234563</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>86.09633501693411</v>
+        <v>81.1863332216347</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>90.9749208509219</v>
+        <v>85.42581025166055</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.59447043076386</v>
+        <v>32.62863492152276</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>85.61397534084028</v>
+        <v>84.52891282961068</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>87.65160073468003</v>
+        <v>83.67706168983074</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.4172901979629</v>
+        <v>14.35085611660007</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>37.98815819453717</v>
+        <v>40.31658718870397</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.71927887903804</v>
+        <v>43.5362514473111</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.942946099309548</v>
+        <v>7.697486793922828</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.93588399604526</v>
+        <v>42.74199183216952</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47.07561921702976</v>
+        <v>48.70410936235773</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.315422170556491</v>
+        <v>7.439639592301116</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>62.16500107388594</v>
+        <v>63.55328652631296</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>61.28691011179432</v>
+        <v>62.0958788617269</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.89981400412385</v>
+        <v>52.48557949882768</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>62.42505909753791</v>
+        <v>55.83231668364996</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.06827022026582</v>
+        <v>59.24888295220268</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.69228416706718</v>
+        <v>15.16396129966851</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>60.74216542261003</v>
+        <v>61.20961099763946</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>67.90902011725004</v>
+        <v>66.63476198573838</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.48251974051882</v>
+        <v>13.0790967186833</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.00563945490224</v>
+        <v>39.96949314420361</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>45.25290468347927</v>
+        <v>43.69385018319876</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.055157328636724</v>
+        <v>8.077994439817747</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.41725637926876</v>
+        <v>33.63623567197006</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.57969166867787</v>
+        <v>42.00899598048585</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.49982520239444</v>
+        <v>8.492586041769197</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>56.12845119886849</v>
+        <v>55.75725354171607</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>70.641127149326</v>
+        <v>71.74301610830631</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.79798180239571</v>
+        <v>52.32571778993372</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>65.27685811684424</v>
+        <v>63.61336199589284</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>67.23482268465031</v>
+        <v>67.94631304068167</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13.32378131437816</v>
+        <v>11.24737992425947</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>66.82167095966065</v>
+        <v>66.41624713700008</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>73.39463895198615</v>
+        <v>73.35246047918201</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.70503868584851</v>
+        <v>14.77868707991358</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.68954741828978</v>
+        <v>46.09688001587725</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.07666238852607</v>
+        <v>49.24704216977805</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.24558775544611</v>
+        <v>7.608293325382334</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.73264631748435</v>
+        <v>41.75031383241451</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.82712119299443</v>
+        <v>52.77441760017423</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.665510488246596</v>
+        <v>7.270683946426747</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>70.02940013542792</v>
+        <v>68.03467012495196</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>74.55305739116235</v>
+        <v>74.80851429469419</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>74.8318976501387</v>
+        <v>73.87947485957102</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>89.23389971805786</v>
+        <v>85.06552794614467</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>88.81781937223103</v>
+        <v>85.64087384072214</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15.43185046373386</v>
+        <v>16.15757446232533</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>83.07700965449413</v>
+        <v>79.71695778372661</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>86.23917826743971</v>
+        <v>83.35664059595248</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.36941963027014</v>
+        <v>27.83454000939773</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.63581530842667</v>
+        <v>40.85102038349183</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>44.36629261666225</v>
+        <v>41.85524695005927</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.78668629222796</v>
+        <v>8.762775963633036</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.98604868873613</v>
+        <v>44.65063532086302</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>49.03654587290741</v>
+        <v>46.51942890480832</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.94804946033114</v>
+        <v>9.941683654895929</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>65.67856086517992</v>
+        <v>66.287027172183</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>60.32046901808172</v>
+        <v>61.15744234605017</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>55.2881070137994</v>
+        <v>53.66834814985247</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>66.59635032644485</v>
+        <v>67.95124877990553</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>64.97355603370912</v>
+        <v>65.36999959514635</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.79212554993613</v>
+        <v>29.08945464298255</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>62.92686283903511</v>
+        <v>63.25018491382899</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>68.0679712642976</v>
+        <v>65.9560457289964</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.65062574515376</v>
+        <v>26.56181247396194</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>46.42882741072202</v>
+        <v>41.43503258826503</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.85814933314137</v>
+        <v>43.70993590093516</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8.71921759955206</v>
+        <v>7.880744332815066</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.18057754300197</v>
+        <v>38.87423812463365</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.27164395109791</v>
+        <v>43.1387975440529</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.859571118822174</v>
+        <v>9.168867237380248</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>65.23231960641064</v>
+        <v>62.75311320071667</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>70.55807358263951</v>
+        <v>72.26126633582129</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.09825954354268</v>
+        <v>55.71477401595725</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>69.1762709649025</v>
+        <v>66.23552105525425</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.37320696761428</v>
+        <v>67.74194648136663</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.7745468672814</v>
+        <v>28.25204924162009</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>70.27707451887147</v>
+        <v>67.56569072543944</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>71.1729409777268</v>
+        <v>70.4660806370529</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.58292373042196</v>
+        <v>34.42302173897073</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.96470320518021</v>
+        <v>49.52241997860632</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53.53609695360568</v>
+        <v>48.27319427201611</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.44755639923383</v>
+        <v>8.845395068563771</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>51.34508165439087</v>
+        <v>49.13840349936963</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.67545029911014</v>
+        <v>49.9283148460486</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.67931445309863</v>
+        <v>9.833869755460636</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>76.91540518221569</v>
+        <v>71.43099968557455</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.02812820458675</v>
+        <v>70.62090546827571</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>81.06152161302968</v>
+        <v>75.78070000671967</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>87.48713903246714</v>
+        <v>78.11096589760915</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>89.9789248742385</v>
+        <v>82.63955539056747</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.59117048944152</v>
+        <v>36.11090154436155</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>87.30436446375268</v>
+        <v>80.58574315286754</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>89.11218197529396</v>
+        <v>80.68158824176928</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20.3898826353888</v>
+        <v>18.38419875919185</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.44145986148968</v>
+        <v>21.492100436562</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.3589842345651</v>
+        <v>21.67495189380879</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.278489161753608</v>
+        <v>9.400885397281229</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.38445530218952</v>
+        <v>21.89694930101351</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.25117498470044</v>
+        <v>23.46177268904682</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.312570566067386</v>
+        <v>11.39157736450616</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.55923236873934</v>
+        <v>28.19766210759558</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.55767782008036</v>
+        <v>28.02334543654807</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.23780012804809</v>
+        <v>28.54239514873804</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.15107556216288</v>
+        <v>30.93805954608876</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.93568209531695</v>
+        <v>34.06803716696272</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>60.91564978662839</v>
+        <v>63.16242448934209</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>61.0804654512313</v>
+        <v>65.47302056837211</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>65.23493494346968</v>
+        <v>63.15258438806703</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.58921766532097</v>
+        <v>15.80130784639215</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.59671387139235</v>
+        <v>37.44003562210203</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>42.00010114330844</v>
+        <v>41.39915826533257</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>9.147919481187483</v>
+        <v>8.519276865058906</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34.19819656108472</v>
+        <v>37.16257689758425</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>48.38630875583274</v>
+        <v>52.19677249185992</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>9.245643763369401</v>
+        <v>11.72314042248755</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.60777291537783</v>
+        <v>48.19540225711563</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>64.43948640237451</v>
+        <v>65.0363542566742</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.61394841026464</v>
+        <v>45.26185902107834</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>51.23331258701062</v>
+        <v>54.15828320008043</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>62.02860073779755</v>
+        <v>61.78449758346864</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.91138590391288</v>
+        <v>16.17797189716782</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>63.83198319453023</v>
+        <v>60.50551507598252</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>69.84481992046568</v>
+        <v>66.90179187273591</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.29807210847084</v>
+        <v>27.07916160362321</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>47.02079795141105</v>
+        <v>44.59603020870117</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>53.3955354568008</v>
+        <v>47.80440280755266</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.60938496495271</v>
+        <v>10.95137874328105</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>41.6631137382998</v>
+        <v>45.257922193863</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.98559149133413</v>
+        <v>52.72705680359196</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>14.8578957042601</v>
+        <v>17.11927404735408</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>62.08607488616816</v>
+        <v>62.53501825316886</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>73.60828818434663</v>
+        <v>69.59854702201048</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.34389153952721</v>
+        <v>60.58461601516272</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>76.75641902549131</v>
+        <v>73.6734117581114</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.57856598155098</v>
+        <v>80.44091364509788</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>40.4347929755081</v>
+        <v>35.61038629940668</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>80.23291781067829</v>
+        <v>75.6057047460807</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>83.64946224637757</v>
+        <v>78.89203689618807</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.66762147520704</v>
+        <v>28.64584584308363</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>45.01355666668002</v>
+        <v>48.68485313721793</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.81165276718687</v>
+        <v>45.18951571326111</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>11.11199900877914</v>
+        <v>9.277160517158073</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.45625569548681</v>
+        <v>51.54630204951138</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>51.50980683129147</v>
+        <v>51.21142917413685</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.11217695430304</v>
+        <v>11.37768212669165</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>69.43696765437102</v>
+        <v>72.94757934282569</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>63.91931360119198</v>
+        <v>64.95959222360493</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>55.33122461255213</v>
+        <v>53.88884812719377</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.78792437502676</v>
+        <v>65.35580273116133</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>65.26427834265472</v>
+        <v>68.36441081288015</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.507571678277</v>
+        <v>21.0580329238873</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.13917421206808</v>
+        <v>8.268023914192618</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.54515824325562</v>
+        <v>8.923925590000206</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.2803232008457</v>
+        <v>36.02930984797506</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>56.10436861599956</v>
+        <v>49.07908285258123</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>53.091440291422</v>
+        <v>47.84955835431602</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.1151520532462</v>
+        <v>8.327509810592097</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.70899419986295</v>
+        <v>45.7792828122322</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>51.12512821918575</v>
+        <v>48.70013466586624</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.43910299915032</v>
+        <v>10.65311701558941</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>70.20162160428389</v>
+        <v>68.2462793729965</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>72.72086483351848</v>
+        <v>69.20789765242202</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>68.2497731830716</v>
+        <v>64.70333459606255</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>76.33722318685611</v>
+        <v>68.73849598429393</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>76.08177776132527</v>
+        <v>71.16144658214442</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>43.09382989816479</v>
+        <v>42.65127153363846</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>79.06694697106566</v>
+        <v>75.19412462120668</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>77.9115158100052</v>
+        <v>76.22001885315632</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.96327066056513</v>
+        <v>39.7200409950878</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.16109259594358</v>
+        <v>51.8072476596697</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>56.54586939719695</v>
+        <v>51.81482100111305</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>11.17159142584086</v>
+        <v>9.294584937758394</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.84341405279216</v>
+        <v>52.71114301612735</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>51.91900633626339</v>
+        <v>49.21588641834997</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>13.57646951279222</v>
+        <v>10.99787178834692</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>75.15348523085436</v>
+        <v>74.05810162296646</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>77.71852036690908</v>
+        <v>71.52088739036815</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>83.1816061739293</v>
+        <v>78.31298257493702</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>89.72948465169463</v>
+        <v>82.36597267501668</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>91.31409035473777</v>
+        <v>83.31790640182963</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49.31109781390194</v>
+        <v>52.6572074222275</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>90.47004479882597</v>
+        <v>85.65366013681925</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>86.0416271374652</v>
+        <v>82.01241406272936</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>17.94037449933221</v>
+        <v>27.25986890787865</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.61561103816125</v>
+        <v>37.5459427911588</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.76578581415779</v>
+        <v>42.7221727588293</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.533311963870354</v>
+        <v>8.388617974477643</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.41540426741962</v>
+        <v>47.23723474836211</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>48.39072005672556</v>
+        <v>52.51260772214071</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.08885920513074</v>
+        <v>8.600345336054193</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>69.23843620389484</v>
+        <v>71.72127825613853</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>64.81853016331306</v>
+        <v>66.54455754338973</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.98686474028693</v>
+        <v>57.51761752474215</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>67.29507269519023</v>
+        <v>62.06235639795793</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>68.26870702068646</v>
+        <v>62.71487271389726</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18.29756784040909</v>
+        <v>21.02276476643604</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.49076792980221</v>
+        <v>8.569085455859991</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14.6313066832013</v>
+        <v>8.048620218810367</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.42208255535131</v>
+        <v>29.95463303053304</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>52.90954720228987</v>
+        <v>48.05849271235131</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>53.60670006349645</v>
+        <v>49.8898415513066</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.829562838640495</v>
+        <v>8.091973020059953</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.10013564496036</v>
+        <v>41.37974890422711</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>50.39962655696564</v>
+        <v>49.85980318904179</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.80335453422185</v>
+        <v>9.926491504679674</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>71.63427817938177</v>
+        <v>68.00037277832769</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>72.79132782566401</v>
+        <v>71.78736411332866</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>57.25519381559756</v>
+        <v>55.4086317181478</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>71.30656560345059</v>
+        <v>68.29468053445535</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>72.70037515273731</v>
+        <v>73.53077022131184</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.47413954536845</v>
+        <v>28.35107803520602</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>77.73547231237177</v>
+        <v>75.47469512377636</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>79.91895700056338</v>
+        <v>78.49600119906142</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.36757610955157</v>
+        <v>30.26881369420317</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50.46296348170151</v>
+        <v>49.52783315403124</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.34823058502437</v>
+        <v>52.10440060818117</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>7.053185232059537</v>
+        <v>8.116193882784593</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.36889043878206</v>
+        <v>43.82907961407675</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.90218189471616</v>
+        <v>48.3538630558276</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.27157751565361</v>
+        <v>9.099761676765837</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>73.54889743679283</v>
+        <v>70.43686406733484</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>73.08957731425603</v>
+        <v>70.92989668417121</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.76024153935469</v>
+        <v>72.92809067124074</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>86.41077719292805</v>
+        <v>78.48695253233427</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>84.77507496787783</v>
+        <v>80.17676867963594</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.20382524019613</v>
+        <v>27.34491360228226</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>84.77984646619097</v>
+        <v>77.64015807450519</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>83.68027775485228</v>
+        <v>80.80263208200824</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.07671955969372</v>
+        <v>14.44101514148842</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.90839180200113</v>
+        <v>15.59958665145225</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.56365395014129</v>
+        <v>15.25752692190536</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>2.355497931391199</v>
+        <v>8.283410331469881</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.59731270933088</v>
+        <v>17.8696437383592</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>17.33820881179545</v>
+        <v>20.64250120388462</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.741265988695226</v>
+        <v>8.618880377303146</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.99208544118663</v>
+        <v>21.61993376283075</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.67947691657815</v>
+        <v>22.83493214675712</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.70889167138902</v>
+        <v>25.5199643447054</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.22555548345287</v>
+        <v>32.12029928936017</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.43259329158926</v>
+        <v>33.42072236219332</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.09951581766318</v>
+        <v>16.05072631850962</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.91199637767496</v>
+        <v>21.96435584033658</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.64468445951811</v>
+        <v>23.14159944911754</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.84865910181534</v>
+        <v>14.19853461383369</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.89975040781665</v>
+        <v>31.61507690598243</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.67553774028642</v>
+        <v>35.33719813890648</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.015151216522508</v>
+        <v>8.10558292190797</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.21125956260753</v>
+        <v>32.01764628050432</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.21008847474504</v>
+        <v>38.61369254287887</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.98241052852028</v>
+        <v>7.08851804198715</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.69143955141959</v>
+        <v>44.90973467050252</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>54.80080504360112</v>
+        <v>50.23331951064148</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.19709431761241</v>
+        <v>42.41217236764122</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.40615549360975</v>
+        <v>49.71371852445067</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>53.21334184143701</v>
+        <v>50.07356439222477</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>17.84542213283272</v>
+        <v>15.26517960944875</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>52.28513442050594</v>
+        <v>48.93313122352581</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>53.2907848692726</v>
+        <v>48.59607984952346</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.90932335865625</v>
+        <v>24.13432939912543</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>40.07961016923404</v>
+        <v>36.42159230063417</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>45.2531181529849</v>
+        <v>45.60878812390165</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>9.2104977868666</v>
+        <v>8.888638551851674</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>40.86131455949838</v>
+        <v>43.35959542959121</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.08861451049921</v>
+        <v>48.59509323549739</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>12.61961275306297</v>
+        <v>10.63221265329646</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>64.29946707527719</v>
+        <v>62.49920899044422</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>68.02570200410219</v>
+        <v>62.29383302026278</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>69.38189666542684</v>
+        <v>62.99074972649787</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>77.64252638350889</v>
+        <v>70.46002651587061</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>78.9766568277532</v>
+        <v>73.63134223385093</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>33.16585858878629</v>
+        <v>34.15067874255534</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>79.04021953365972</v>
+        <v>72.7440903487676</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>82.9212560503324</v>
+        <v>77.33905402139517</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>15.24042251523347</v>
+        <v>13.86791409919905</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.23819582995533</v>
+        <v>14.18133333256094</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.74638180663357</v>
+        <v>12.62363969687324</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2.382446672714263</v>
+        <v>7.621914238193867</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.59384760250027</v>
+        <v>15.43411126509598</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.46993406278998</v>
+        <v>19.56667442044599</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.2586273900449676</v>
+        <v>8.397786409197977</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.54675346485305</v>
+        <v>16.2161075076774</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.83444190574141</v>
+        <v>15.49756463231587</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.42213221786922</v>
+        <v>17.64262762820392</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>14.95425436369082</v>
+        <v>18.55389475861559</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.97836532562168</v>
+        <v>17.41315585964853</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.87858692706321</v>
+        <v>14.21784841030777</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.41002257627545</v>
+        <v>14.67122770228206</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>18.52509135709214</v>
+        <v>13.97556050736168</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.056696304124255</v>
+        <v>7.450501712118054</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.25322049663923</v>
+        <v>11.449290471758</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.32547524125818</v>
+        <v>13.53743152620885</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-0.4418333875820188</v>
+        <v>5.21459843573653</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>8.796679488094302</v>
+        <v>12.01768885374462</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.30865041278599</v>
+        <v>15.44462036708705</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-0.8224811023497764</v>
+        <v>4.496827615464728</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.85087872291104</v>
+        <v>14.92034261565999</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.82106753404257</v>
+        <v>22.56400925810923</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.2398626601186</v>
+        <v>12.55063449962929</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>23.12033333569405</v>
+        <v>28.67479729931107</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.18835415348086</v>
+        <v>35.76623096616779</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.935199724041553</v>
+        <v>7.21249087061025</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.66661374062312</v>
+        <v>19.78468970810383</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.15798639215935</v>
+        <v>15.94079574620827</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>9.517254436255111</v>
+        <v>8.166358711362257</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>15.23756202559148</v>
+        <v>15.73874337469952</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.69353540888853</v>
+        <v>35.4554149885129</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1.155730836203446</v>
+        <v>5.59434530726125</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.58145159436172</v>
+        <v>17.5589631160452</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.45901997676965</v>
+        <v>35.95093718958009</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.5797533951491403</v>
+        <v>4.619832088569044</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.57506885698193</v>
+        <v>23.59813030032864</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>58.28795363912351</v>
+        <v>59.69055971858061</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.04786337972828</v>
+        <v>19.22753954851035</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.88978213374295</v>
+        <v>48.61773742492485</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>70.05583382525582</v>
+        <v>70.6007689125403</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.88589536668967</v>
+        <v>9.156718117169003</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.31008827330998</v>
+        <v>34.73016748334697</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.95471081287647</v>
+        <v>45.87474072851909</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.92791005479356</v>
+        <v>20.58789897428731</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.94580684737173</v>
+        <v>21.6278965084457</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>39.34001856484333</v>
+        <v>36.61852092256421</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.10987420549468</v>
+        <v>9.269375076719765</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.989778157787</v>
+        <v>42.83349698782898</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>51.73274540018296</v>
+        <v>44.86506863666098</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.185916467049584</v>
+        <v>15.2430935113439</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>66.5384023927881</v>
+        <v>62.02692601598978</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>67.92799100678714</v>
+        <v>61.78754615133467</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>61.27973709636606</v>
+        <v>57.05496152308935</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>73.34939173159682</v>
+        <v>65.84363057601007</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>70.72595237842614</v>
+        <v>62.95598435397916</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.6345496125169</v>
+        <v>33.05908108559653</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>54.56159346152997</v>
+        <v>56.83387180240781</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>72.51807160803746</v>
+        <v>69.6665074787351</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.64883784728805</v>
+        <v>23.35457136914589</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.63988279793158</v>
+        <v>34.34164665237976</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>39.75339746579085</v>
+        <v>35.97322269586541</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.589203451036809</v>
+        <v>7.360170548449563</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.63068184317087</v>
+        <v>34.82358227756831</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.02266261852218</v>
+        <v>36.1577125218346</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5.889389983191201</v>
+        <v>8.997398560724385</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.38929552239507</v>
+        <v>51.69001336804561</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>59.67957746788782</v>
+        <v>53.34928039398486</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>47.46251565758607</v>
+        <v>43.70929941930625</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>56.381205727409</v>
+        <v>50.10845349879983</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>54.77425402625562</v>
+        <v>50.69160006152818</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.85392142989865</v>
+        <v>30.88846684552389</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>62.69466047441998</v>
+        <v>56.00829673123447</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>62.44935645212781</v>
+        <v>55.58239728790014</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>23.29221391302048</v>
+        <v>25.50140339171552</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.08506116142286</v>
+        <v>36.06723105932435</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.09124077149707</v>
+        <v>44.56065785142474</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>8.887184966106577</v>
+        <v>8.443512450098201</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.25576107165829</v>
+        <v>45.26518823453033</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.17917467584698</v>
+        <v>47.91572924216845</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.49433896424972</v>
+        <v>10.25562488893437</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>68.88728261885461</v>
+        <v>65.59446936642733</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>69.62599231998857</v>
+        <v>66.10348164867568</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>71.30649592686618</v>
+        <v>66.78081198526836</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.56708723985008</v>
+        <v>72.50818884059855</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>78.82236125872618</v>
+        <v>72.98696469156356</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.56141244216769</v>
+        <v>36.16205407808822</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>77.10615756158052</v>
+        <v>70.16876947998763</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>83.73147376019614</v>
+        <v>75.33528296322764</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10.57211041013791</v>
+        <v>13.11490088277886</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.95907858811158</v>
+        <v>14.10295432209429</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.68338725225196</v>
+        <v>14.30584933352172</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1.610475964953071</v>
+        <v>6.463389463429127</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.443205124645349</v>
+        <v>12.45728868448862</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.1084199191483</v>
+        <v>15.75431815474653</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>1.416915906500826</v>
+        <v>7.200203070026092</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.11411392778332</v>
+        <v>18.66816149047969</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.69809894490859</v>
+        <v>18.83144663600397</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.03052047801481</v>
+        <v>17.39880930278969</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.54806499662472</v>
+        <v>21.12531782778968</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.73336025356097</v>
+        <v>23.16321724636084</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.36082525033317</v>
+        <v>11.69610848728484</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.28225574700308</v>
+        <v>18.64406635989199</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.77512622718901</v>
+        <v>20.19348267633101</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.39948300955484</v>
+        <v>10.25081321236052</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.57077184463338</v>
+        <v>23.76785422843363</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.26833705101215</v>
+        <v>26.97274856484852</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>5.805221252945351</v>
+        <v>7.212158834813042</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.56689000295025</v>
+        <v>23.77387244328708</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.00969268874391</v>
+        <v>31.13365617437691</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>6.590107589887591</v>
+        <v>6.083235845380756</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.34529341657439</v>
+        <v>34.04133896084623</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>48.87021115372393</v>
+        <v>41.81395044648772</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.66339008036273</v>
+        <v>29.297399819851</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.97194664845416</v>
+        <v>39.0811269214103</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.03128838890689</v>
+        <v>38.13756811652316</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.44651277333103</v>
+        <v>9.73185343580046</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.47601656168506</v>
+        <v>35.61954231729987</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>45.4072837981392</v>
+        <v>40.3338775598318</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.69714624619918</v>
+        <v>17.3161029370516</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.0209060611109</v>
+        <v>31.58054578059802</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>44.24736663188206</v>
+        <v>41.56058823842616</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>9.340367885021958</v>
+        <v>10.30650018929756</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.1493685861407</v>
+        <v>30.74401534679302</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>44.1209973040002</v>
+        <v>40.25846853143713</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.96148095306165</v>
+        <v>14.93069912885736</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.71284707997055</v>
+        <v>49.06390798899088</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>62.72902981233177</v>
+        <v>56.5242116982908</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>47.90618974969443</v>
+        <v>50.70534101237732</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>58.9551658456941</v>
+        <v>56.75028330790319</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>76.28190324286237</v>
+        <v>72.25863885992602</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.00462311817849</v>
+        <v>22.2747087164746</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>59.8440013400259</v>
+        <v>58.02161880939662</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>72.44393703401565</v>
+        <v>65.06003025258025</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.359852186384963</v>
+        <v>7.212589991496628</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.057246181312895</v>
+        <v>6.880704017401047</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>8.580554800253655</v>
+        <v>9.371057920767345</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1.309374661722288</v>
+        <v>5.138519830240302</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.655758066607355</v>
+        <v>7.870070475668648</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.92490180122832</v>
+        <v>11.74466989027466</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-4.127441100458512</v>
+        <v>2.509827023408718</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.72746918210938</v>
+        <v>6.246851934203022</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.57005303940981</v>
+        <v>11.82858588965397</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.038717819037348</v>
+        <v>7.361155001573518</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.471091829387106</v>
+        <v>9.749692171906752</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.019146760324</v>
+        <v>12.67003278238024</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.825943010724739</v>
+        <v>7.212411779641357</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.710710639655201</v>
+        <v>8.100847786273487</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.78045483011086</v>
+        <v>15.50689317769471</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.99409689711326</v>
+        <v>22.8543567686002</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.39741836617109</v>
+        <v>34.47953537595873</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.79033176302804</v>
+        <v>35.19973813683578</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>8.300533324540591</v>
+        <v>7.820526628723762</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.87854983835872</v>
+        <v>34.89959510271743</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.17279337703252</v>
+        <v>38.69768069137874</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.939058837995653</v>
+        <v>7.418166508909493</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>55.26679062646936</v>
+        <v>48.89622324597249</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.74583534355499</v>
+        <v>52.75260728589728</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.23922819363382</v>
+        <v>48.725067020596</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>55.1659218851138</v>
+        <v>49.59864770688532</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>54.68083776025993</v>
+        <v>51.41231333699882</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.48158943196201</v>
+        <v>23.69790964995793</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>60.54986378584359</v>
+        <v>53.89978026206252</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>60.26335269109906</v>
+        <v>54.28577400089749</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.73959838179816</v>
+        <v>25.77795678199007</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.04464726174675</v>
+        <v>39.49856030903437</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>46.90719141265467</v>
+        <v>47.25575014187122</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>9.356020376696669</v>
+        <v>8.471858750889062</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>48.13924755666389</v>
+        <v>47.60480822579314</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>51.2814946715237</v>
+        <v>52.18625583560866</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>9.57150682298472</v>
+        <v>7.990246111931292</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>69.47744009960238</v>
+        <v>64.79015091330889</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>67.77918933213947</v>
+        <v>66.16615284342969</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>75.67150007262867</v>
+        <v>72.33939765916881</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>84.33582822546776</v>
+        <v>78.18951193566404</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>81.84330656715585</v>
+        <v>79.36360898252926</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.05291348556878</v>
+        <v>29.12416279894419</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>82.75519713948586</v>
+        <v>77.79577929114468</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>81.28729602974155</v>
+        <v>75.34926169635577</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.31413238266365</v>
+        <v>15.8327319992031</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.1906260107011</v>
+        <v>18.24127937971018</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.72402324286193</v>
+        <v>17.80666791779377</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.5107572170372165</v>
+        <v>6.307720885829568</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>13.77516266258405</v>
+        <v>17.2685401267255</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.29907223238054</v>
+        <v>20.00858888167933</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>0.8442152903609887</v>
+        <v>6.287616210339007</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.41839999246329</v>
+        <v>20.350410760702</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.72151996457145</v>
+        <v>23.46653312834408</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.87144417223075</v>
+        <v>19.67136425389961</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.10628851562798</v>
+        <v>28.23129758613748</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.08637460813514</v>
+        <v>27.07101385577775</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.83706200176958</v>
+        <v>13.45380747274324</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.04599707759176</v>
+        <v>22.96666390872954</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.17206552756731</v>
+        <v>25.02459110185701</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>8.93408327822392</v>
+        <v>7.417960998341815</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>14.10175381442224</v>
+        <v>13.13519568523006</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.59264541089006</v>
+        <v>21.90520396308284</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>0.0456682671812878</v>
+        <v>5.771510583623883</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>9.92998554219793</v>
+        <v>12.22976961970744</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.23432323492025</v>
+        <v>23.70991547236272</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-0.3215696659310758</v>
+        <v>5.649051281396805</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>18.80066145472779</v>
+        <v>16.76026819952374</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.89280525025174</v>
+        <v>34.90457084628497</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.99498610545551</v>
+        <v>14.34873670072281</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.00063518946383</v>
+        <v>27.10556897377008</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.95315446694099</v>
+        <v>31.48542131495544</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>6.196730217883136</v>
+        <v>7.212595588505973</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.9150610223174</v>
+        <v>25.6607660429478</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.91243276534889</v>
+        <v>31.88788981747475</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.12043603934191</v>
+        <v>19.94011100369334</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.257898770325</v>
+        <v>28.32442070553851</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.86479005810047</v>
+        <v>36.73553996988306</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.541347758779889</v>
+        <v>7.414957266185123</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.7351902367021</v>
+        <v>24.0186624494145</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.09465756539712</v>
+        <v>31.80628890522546</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.215924897638772</v>
+        <v>13.38051187231455</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.44659392766618</v>
+        <v>41.99784144941376</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.45514670989639</v>
+        <v>51.67192404525903</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.05980748231222</v>
+        <v>45.52239777664946</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.80427873536277</v>
+        <v>52.96347620122256</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>63.42177139076974</v>
+        <v>59.30282308148458</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.03669180544565</v>
+        <v>29.29549529526074</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.02908948002345</v>
+        <v>47.75023005949224</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>53.82585140852557</v>
+        <v>52.94489723405563</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.909379310702551</v>
+        <v>7.752152233957737</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>5.855455473648405</v>
+        <v>10.00913288583701</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.092533392989559</v>
+        <v>9.42354678953722</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.809603212011428</v>
+        <v>5.311884602208345</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.975313254842096</v>
+        <v>8.316993164398401</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.850992770943655</v>
+        <v>10.8064269928366</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.370813859986221</v>
+        <v>4.05060555418698</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.139659656736967</v>
+        <v>7.705968307387657</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.692918322040416</v>
+        <v>11.44327120661059</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1.524661685484244</v>
+        <v>6.83236235411616</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.543140743889733</v>
+        <v>8.415643783864699</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.885928388488335</v>
+        <v>11.57663257323751</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.190951625452279</v>
+        <v>6.829850799116834</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.38212120116878</v>
+        <v>8.831771811456495</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.56541904369183</v>
+        <v>12.11219023337795</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.046603556917709</v>
+        <v>7.107806720810565</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.169227334474339</v>
+        <v>8.452011435484277</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.599397074584282</v>
+        <v>9.207795343144927</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.03052707440885882</v>
+        <v>5.536837846481799</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>4.498348070368166</v>
+        <v>8.295522304777752</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7.526370367288795</v>
+        <v>9.276080192508946</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.25019000171519</v>
+        <v>5.506193555204067</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>8.421299717426805</v>
+        <v>8.509405394273148</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.37944825568191</v>
+        <v>10.55178368954639</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.092154382079539</v>
+        <v>8.484518525680489</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>9.254875769422238</v>
+        <v>11.1907994229627</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.590485092598858</v>
+        <v>9.97268767677776</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1.994527110710973</v>
+        <v>5.771437733971375</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>9.851076314840011</v>
+        <v>9.207641054743679</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.15647714728076</v>
+        <v>10.12290389491488</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.23128166946881</v>
+        <v>23.33696190801911</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.05606537404122</v>
+        <v>25.32711772556986</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.45386283364402</v>
+        <v>26.4323693715287</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>5.322252457736269</v>
+        <v>7.87224249197439</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.1457350678925</v>
+        <v>20.61629999169579</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.32673457084044</v>
+        <v>23.80803638570354</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.920485361182333</v>
+        <v>14.63070380141663</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.8219422504072</v>
+        <v>29.88296889175478</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.40392302285652</v>
+        <v>32.31268743335772</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.15029597909529</v>
+        <v>37.70845850666139</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.77059797872037</v>
+        <v>40.57385984502654</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>40.82051633780198</v>
+        <v>42.50701913707039</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.99800218806954</v>
+        <v>26.64842566078836</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.27037876033204</v>
+        <v>30.60717075396085</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>39.02983415422663</v>
+        <v>35.99836877207277</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.00351987341102</v>
+        <v>19.65129252204774</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.72040893224703</v>
+        <v>26.33412094619706</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.6330934053075</v>
+        <v>33.73818499724786</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.636012793160898</v>
+        <v>7.250293344669451</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.62238207079671</v>
+        <v>23.27984182906096</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.19715739749655</v>
+        <v>28.47607047777145</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>4.039123023093563</v>
+        <v>8.122704532019625</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.39771058790421</v>
+        <v>36.3628256454837</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>40.2272655070275</v>
+        <v>44.10499848209628</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.11032255066737</v>
+        <v>33.87185083409111</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.96298494708196</v>
+        <v>41.85571365035739</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.8320653169102</v>
+        <v>46.93011751816169</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.09938722895112</v>
+        <v>28.17260237502611</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>50.94246620127247</v>
+        <v>47.26601780858122</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>61.74500836844551</v>
+        <v>61.15909569338076</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.57920433633791</v>
+        <v>17.57571195039963</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.35893653570644</v>
+        <v>26.48989245773915</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.49705957499687</v>
+        <v>29.80628047505688</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-0.582007708989952</v>
+        <v>5.632135749864364</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.92053404898783</v>
+        <v>17.83067032467717</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.10806149577568</v>
+        <v>22.30570550545122</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.3192755015206998</v>
+        <v>5.776790658038745</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.57914223882649</v>
+        <v>29.50140142984014</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>37.9002008751144</v>
+        <v>32.66316570034455</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.83529547509159</v>
+        <v>28.46342510186969</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.47652211025402</v>
+        <v>37.0992409700612</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>37.91568751577765</v>
+        <v>34.37631916295465</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.49350691430983</v>
+        <v>21.47456102359561</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>43.00743441845864</v>
+        <v>39.84748332679889</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>46.51737571983993</v>
+        <v>43.59637059211268</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.23627518708616</v>
+        <v>25.92779509323311</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.03372476893151</v>
+        <v>35.00790883919709</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.89332650422415</v>
+        <v>45.043333949378</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.580983545522219</v>
+        <v>6.905862152056187</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.98446210264606</v>
+        <v>32.92547425911289</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.72302904206895</v>
+        <v>36.00640231758106</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.962157043418287</v>
+        <v>10.63942058534267</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>54.69448579525744</v>
+        <v>53.21781550269992</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>59.11309110639478</v>
+        <v>55.67836390412083</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>65.51003118212236</v>
+        <v>61.0943522729676</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>70.56006570452487</v>
+        <v>67.02292334989689</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>77.09507853477091</v>
+        <v>71.40595440320871</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.31864038647748</v>
+        <v>30.39368718356855</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>65.01954079385848</v>
+        <v>55.95573362348857</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>70.46403809085157</v>
+        <v>64.5410815831614</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.07638194809478</v>
+        <v>23.84972650724434</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.82845002163087</v>
+        <v>34.85427534044917</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.63039491722816</v>
+        <v>39.09257841302893</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.88634988397104</v>
+        <v>9.775769950224809</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.70178365092659</v>
+        <v>41.87203780961978</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>46.248480112359</v>
+        <v>42.17545490852741</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.23183430463891</v>
+        <v>12.31472045484619</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>58.62511782768513</v>
+        <v>57.39858378157198</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>59.50529135255287</v>
+        <v>60.1450216604598</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>65.35682502009314</v>
+        <v>64.50448584913035</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>69.52122484145305</v>
+        <v>66.34679769247211</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>68.49979494589172</v>
+        <v>68.31599401996419</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.53665968827974</v>
+        <v>26.85734351964037</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>65.23046220922947</v>
+        <v>62.61705756885667</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>70.63255553605217</v>
+        <v>67.19471230473438</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.65012943073438</v>
+        <v>19.87506116766927</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.15890660462986</v>
+        <v>32.21387588145321</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.69479998615564</v>
+        <v>39.05770159058341</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.477444094766312</v>
+        <v>7.745554964335877</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.59116268442426</v>
+        <v>33.60122504780097</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.77542615042628</v>
+        <v>34.5415120776394</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.036513825579199</v>
+        <v>8.045181634548413</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.6931691116477</v>
+        <v>48.06178182786464</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>58.55123355744495</v>
+        <v>56.61569519377381</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.06520818266907</v>
+        <v>44.4898465623592</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.61730004829148</v>
+        <v>52.79997089387188</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>54.10280398674978</v>
+        <v>45.68005290201849</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.37522586034282</v>
+        <v>20.28556387109953</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>57.53092143262549</v>
+        <v>54.82113992068818</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>62.81205477010077</v>
+        <v>61.32310779759221</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.13397868988029</v>
+        <v>21.48471476866188</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.23025958314703</v>
+        <v>36.81134030186855</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>47.41015471905679</v>
+        <v>43.04270360718784</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>6.916243541294808</v>
+        <v>8.375444524632229</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.93383666485947</v>
+        <v>41.82763477421356</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.64632396375327</v>
+        <v>42.8325080838807</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>8.191968729708186</v>
+        <v>7.984739832332092</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>58.22543357286916</v>
+        <v>56.67061489386842</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>65.92591627499976</v>
+        <v>62.39806221299513</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>66.88741548945015</v>
+        <v>63.91948375753098</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>76.96564529164417</v>
+        <v>69.769616073897</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>82.29165755148914</v>
+        <v>76.4119880014176</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.95191370704823</v>
+        <v>23.19036837148361</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>71.6789301712755</v>
+        <v>67.59246530446119</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>78.72869453770855</v>
+        <v>72.99981547600677</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.89240030818764</v>
+        <v>23.26299674278084</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.90427590219115</v>
+        <v>30.210541552445</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.33539404066046</v>
+        <v>35.96840120072724</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>9.265821072498987</v>
+        <v>8.15474940142618</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.6653207070906</v>
+        <v>42.4529782181954</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>47.3860761892315</v>
+        <v>43.09470577337562</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.66911220013765</v>
+        <v>11.3762482998404</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.76405701299736</v>
+        <v>58.05820837311232</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>57.86247736880828</v>
+        <v>57.59960587333967</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>56.6072285471067</v>
+        <v>58.18356920979485</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>62.82576354703061</v>
+        <v>60.22703030207319</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>62.08172056896488</v>
+        <v>63.47560070319644</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.01436225171483</v>
+        <v>22.27151654490391</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.09467595485023</v>
+        <v>40.98255013782288</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.35459486765728</v>
+        <v>63.1698161137703</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.04711802186207</v>
+        <v>26.25291210408759</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.12488386612617</v>
+        <v>36.71779403933154</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>41.14914948722146</v>
+        <v>37.28952530583391</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>7.3358043901098</v>
+        <v>6.866532104129757</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.97683534712881</v>
+        <v>35.21115898377325</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.63789810243646</v>
+        <v>35.66728760988224</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.006719579709024</v>
+        <v>9.084382655122411</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>53.53479276530189</v>
+        <v>49.5198355291075</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>60.95315208272485</v>
+        <v>57.37026474704876</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.84072200977153</v>
+        <v>50.2544414837281</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>58.31773952588031</v>
+        <v>52.58048307255901</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>57.90426912035021</v>
+        <v>51.51301012654516</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.67423857274246</v>
+        <v>24.75389806773606</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>63.34993502651336</v>
+        <v>59.02928941938048</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>66.53246249099273</v>
+        <v>60.95473394282095</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.37018552460772</v>
+        <v>27.14955255065773</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>44.2415286919826</v>
+        <v>39.47599692388129</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>47.90306578910882</v>
+        <v>43.4939600873675</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.375363379738509</v>
+        <v>7.238874044128494</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.26284816178018</v>
+        <v>41.2783299391526</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>47.79898884653903</v>
+        <v>43.91143618323836</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>7.723271555580791</v>
+        <v>8.564968730974439</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>64.70521091985026</v>
+        <v>60.1883095709716</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.67958908589974</v>
+        <v>62.11762200284639</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>75.33293939142959</v>
+        <v>68.95279497433508</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>81.49882310929573</v>
+        <v>74.34994072305645</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>83.22917505027002</v>
+        <v>75.98689318836293</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.55140666078567</v>
+        <v>26.36189136363502</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>75.55126225579639</v>
+        <v>68.6747862294113</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>79.63513076168478</v>
+        <v>70.97328804907386</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.63943996072311</v>
+        <v>23.76923713258694</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.40858389674965</v>
+        <v>29.10657492172349</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.34874180776522</v>
+        <v>34.240356981829</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.16967370347869</v>
+        <v>14.65377893846947</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>55.44280831925636</v>
+        <v>59.28167784028542</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.19365350171441</v>
+        <v>58.24909733013911</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.56784746921154</v>
+        <v>11.89552777927684</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>58.02427752143199</v>
+        <v>59.83682300955784</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>54.73839955627147</v>
+        <v>56.13941087662793</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>55.64268413648536</v>
+        <v>58.33091811832425</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>61.68615081255334</v>
+        <v>62.59970860783705</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>60.35598143727088</v>
+        <v>63.29374163651906</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.23991524129073</v>
+        <v>20.94607891130519</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>47.00897929092429</v>
+        <v>38.71349389905096</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>61.26426420400274</v>
+        <v>56.81594098337762</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.23913932173864</v>
+        <v>29.05182113451595</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>39.13383901382971</v>
+        <v>36.27309182121178</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.94904995312579</v>
+        <v>37.09075810688474</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.1740796000059</v>
+        <v>39.02284234323929</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>51.74714397495137</v>
+        <v>53.24681635068327</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>57.98477170537015</v>
+        <v>52.63331423894314</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>8.936802947906283</v>
+        <v>9.322753198762932</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>52.40154474294894</v>
+        <v>51.48134244500723</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>59.11195085918688</v>
+        <v>54.46389543171073</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>48.81501813414505</v>
+        <v>45.57919965685359</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.74937806499533</v>
+        <v>53.15493606632356</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>54.73571717105392</v>
+        <v>50.29453476978031</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.74251058513504</v>
+        <v>30.97567361863057</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>61.5165718636765</v>
+        <v>54.6450567991173</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>64.66919629168217</v>
+        <v>59.53641184678055</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.73270454887293</v>
+        <v>31.44570708300894</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.15128001379274</v>
+        <v>38.62286245120195</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.30907933675444</v>
+        <v>41.71789799806665</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.831071672285</v>
+        <v>40.46694349177041</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.64478892456891</v>
+        <v>58.81100982201941</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>59.57069846912471</v>
+        <v>54.77280542209303</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>10.60820393477173</v>
+        <v>8.640419733610351</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>63.32568046981193</v>
+        <v>62.78207816557158</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>66.34004875133085</v>
+        <v>60.09685508253594</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>78.48844045033776</v>
+        <v>74.78552948647697</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>80.5258755878726</v>
+        <v>75.00593720795862</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>84.59276586628741</v>
+        <v>78.26355894099957</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>39.83682540929284</v>
+        <v>37.35541183421294</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>77.1095115366133</v>
+        <v>71.67529239610025</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>81.29065070830283</v>
+        <v>73.24119607541208</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>16.22783234227358</v>
+        <v>18.51468559185067</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.97974637154086</v>
+        <v>32.08895476088841</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>38.17068030081767</v>
+        <v>36.42958214010615</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3.390357151982688</v>
+        <v>6.651143786606138</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.92875839521071</v>
+        <v>25.02728776506483</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.71523150655248</v>
+        <v>42.40557026826455</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>4.628654553072046</v>
+        <v>6.605267124171828</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.56877231656784</v>
+        <v>52.99047422807178</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>56.29119548109084</v>
+        <v>58.56124234165333</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.45607496148776</v>
+        <v>56.48475219350919</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>62.03419426278789</v>
+        <v>59.63149325005433</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>63.66251992695913</v>
+        <v>64.58882637415996</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.66169683690629</v>
+        <v>14.42723502074256</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>57.27652548232794</v>
+        <v>59.70226165894255</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>66.26331301013963</v>
+        <v>64.59773820072257</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.30636264641923</v>
+        <v>15.01822770550734</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.54697263641374</v>
+        <v>33.33742630296888</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.78932057228626</v>
+        <v>34.36733037117946</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1.351032021419456</v>
+        <v>5.053399555195913</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.38107901191111</v>
+        <v>30.28972091072263</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.55561285814695</v>
+        <v>30.86650109371047</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1.745752938151426</v>
+        <v>5.264591394067665</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>46.18069267136619</v>
+        <v>45.37451122977388</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>54.2152944878674</v>
+        <v>51.36018630716789</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.51248106829749</v>
+        <v>42.77183260223946</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>51.68669522458278</v>
+        <v>50.5635512903122</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>49.37640160963446</v>
+        <v>47.95558281044595</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.106367672629659</v>
+        <v>10.93313219080054</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.41135078198707</v>
+        <v>39.78036410855522</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>56.75702734496282</v>
+        <v>56.39333682189736</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.05203928815873</v>
+        <v>15.24791569791294</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.14837267275946</v>
+        <v>35.57073590698561</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.02430734461235</v>
+        <v>39.69478997307389</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1.977984298768984</v>
+        <v>6.220206905772883</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.86101982985894</v>
+        <v>37.39456219198718</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.48505503827685</v>
+        <v>42.20023882361622</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2.698925639265475</v>
+        <v>6.262380070327179</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>54.01615474524796</v>
+        <v>53.25351491496573</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>63.13100312605555</v>
+        <v>58.89340918392124</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.76905863344978</v>
+        <v>61.06086330535717</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>73.91257250245346</v>
+        <v>66.05522383101777</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>80.37632860530732</v>
+        <v>74.25135551419449</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.11203257403054</v>
+        <v>7.939541754517698</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>67.18830443488316</v>
+        <v>63.04533404152458</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>77.06378221250833</v>
+        <v>71.22455323419825</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.88819335835758</v>
+        <v>17.72997139653389</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.20511153807409</v>
+        <v>19.76884368217942</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.92998711438438</v>
+        <v>18.67128980650732</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.838857537240663</v>
+        <v>8.641854197828941</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.77851485831971</v>
+        <v>20.14285442567535</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.14042689559579</v>
+        <v>21.43041675528781</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.509611077254817</v>
+        <v>10.87985574265942</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.56823765136113</v>
+        <v>26.10845866660994</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.92605727420364</v>
+        <v>28.58362236063792</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.01346584291891</v>
+        <v>26.11823300630122</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.27851394902251</v>
+        <v>30.16310301874294</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.14115817979858</v>
+        <v>33.77114039400688</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.11264433068988</v>
+        <v>21.25839091595093</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.79471673868419</v>
+        <v>25.14657124231939</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.03405724641028</v>
+        <v>26.72384141067906</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.30530127424959</v>
+        <v>14.24617326290127</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>32.55470222209546</v>
+        <v>30.7297983378311</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.97750671885395</v>
+        <v>35.54508229514397</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.739302369069037</v>
+        <v>8.191032049412787</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.25620097353012</v>
+        <v>33.35107446781036</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>41.11183487190456</v>
+        <v>38.98470243059115</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>9.850970245375041</v>
+        <v>8.579061372325004</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.17209651978041</v>
+        <v>44.94914295481876</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>57.34711746026817</v>
+        <v>56.03568884242883</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.53805313760988</v>
+        <v>44.31389472246382</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.21376636662792</v>
+        <v>48.88061197192372</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>56.29833187424812</v>
+        <v>51.60516710133302</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.27643103555332</v>
+        <v>13.81382641875261</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>48.87306269923632</v>
+        <v>47.48105996044407</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>57.61675272313734</v>
+        <v>55.18525572250739</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.81038343048706</v>
+        <v>19.6340667264561</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.13746100386327</v>
+        <v>36.56144314758323</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.09202079771394</v>
+        <v>43.74475224609684</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>8.388887525990583</v>
+        <v>9.205063776439239</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.84334128425363</v>
+        <v>38.65575720329064</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.62015171345164</v>
+        <v>45.90665219498324</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>12.57689695201498</v>
+        <v>13.01154634402771</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.35708262749498</v>
+        <v>53.85910878094766</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.21965241501857</v>
+        <v>65.22844580918273</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>56.31877139015045</v>
+        <v>53.93254914968722</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.84437132417729</v>
+        <v>56.93785078161419</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>80.02372953483393</v>
+        <v>74.68751758553014</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.92927008690295</v>
+        <v>27.47611314574525</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.62726611357555</v>
+        <v>54.65901282797806</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>75.81877373245278</v>
+        <v>68.51583312606292</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.12591440621102</v>
+        <v>18.23574065642499</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.89972420859289</v>
+        <v>21.10979469519076</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.50013720134895</v>
+        <v>23.27199706635303</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-0.08527759752274378</v>
+        <v>6.669036901384871</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.88290473997463</v>
+        <v>28.10537500960006</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.98807136659599</v>
+        <v>29.6813059797846</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2.084561028034475</v>
+        <v>7.264524195795683</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.21832742550895</v>
+        <v>37.18899880672222</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>37.92928885918917</v>
+        <v>36.76415491618866</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.64288039365783</v>
+        <v>33.16301643717298</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.67066903760048</v>
+        <v>39.05062721704481</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>42.69403437607801</v>
+        <v>42.35413358121949</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.15528288498312</v>
+        <v>19.63614832540406</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.1822354350337</v>
+        <v>40.02020068813692</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>49.12838150273097</v>
+        <v>47.08976046522616</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.476451858512167</v>
+        <v>9.49879677041946</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.97585598681781</v>
+        <v>22.73238015960302</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.80782146412367</v>
+        <v>33.65106892558523</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>5.964163820691574</v>
+        <v>7.007801172876992</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.93785197998748</v>
+        <v>19.90738365662844</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.99077228339015</v>
+        <v>48.49735095129893</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-2.944906868928754</v>
+        <v>5.183692281633775</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>32.4231974679936</v>
+        <v>29.25511920318029</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.55417401956965</v>
+        <v>50.08806791131737</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.37224076926093</v>
+        <v>29.16955035136991</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.63039727462201</v>
+        <v>42.05857224010138</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.01818044596469</v>
+        <v>52.14010727307668</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.61434564939146</v>
+        <v>9.166496097620911</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>44.43152424569281</v>
+        <v>41.11716405927771</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.68298221951385</v>
+        <v>54.23099953418652</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.29755347348252</v>
+        <v>17.63339271319535</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.65936613052011</v>
+        <v>29.51890960671351</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.18672502439476</v>
+        <v>38.56546598026537</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.51943285752828</v>
+        <v>7.896324974969101</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.13220981269605</v>
+        <v>25.38193684170279</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.43951512096103</v>
+        <v>40.74948895710476</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-0.5126068179975007</v>
+        <v>6.264948378928015</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.68788270246227</v>
+        <v>37.563588095462</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.17348949382151</v>
+        <v>58.17636203102489</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>58.56581055103401</v>
+        <v>57.48922397028322</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>61.93883490092949</v>
+        <v>59.17098336114962</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.35801754078051</v>
+        <v>72.40552085591166</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>17.77935839027867</v>
+        <v>14.76406361205305</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>52.99859067046403</v>
+        <v>44.43313489347762</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>69.32804221253809</v>
+        <v>65.41431987268123</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.63625523352631</v>
+        <v>26.73750333698523</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.45308717301852</v>
+        <v>31.60486569034669</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.24495831111673</v>
+        <v>35.56385220948685</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.954909589182847</v>
+        <v>9.059835310933611</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.24814986110604</v>
+        <v>45.39781619744563</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>47.51839024162928</v>
+        <v>44.02237507301143</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>11.62542305039008</v>
+        <v>12.83875504155491</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.11935082296378</v>
+        <v>59.91811107823231</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>57.06823548733116</v>
+        <v>57.89395606216296</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>60.13760004228942</v>
+        <v>54.2743626512667</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>62.79199960665716</v>
+        <v>58.35394534131721</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>65.86501142817738</v>
+        <v>60.61472570359219</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.6711605245834</v>
+        <v>28.98839495769461</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>40.01692611151712</v>
+        <v>40.59952507118195</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>68.10389609221779</v>
+        <v>67.91970370024224</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.39636903438211</v>
+        <v>29.13732953976384</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>40.84134450809182</v>
+        <v>36.71916132630987</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>40.63579652476996</v>
+        <v>37.45632530248367</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.565238871739506</v>
+        <v>7.798170009973344</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.2607595168551</v>
+        <v>38.13214003733665</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>39.18902593250406</v>
+        <v>36.22027284205938</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>9.148354268681359</v>
+        <v>8.010683210713033</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>54.05796701803171</v>
+        <v>53.15678729555869</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>55.87561833754557</v>
+        <v>52.72598506989139</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>51.38534662683897</v>
+        <v>50.21420880564062</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>56.46420670116579</v>
+        <v>51.53278840506803</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>55.62385447956174</v>
+        <v>53.16202474617074</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.98200331938335</v>
+        <v>29.68856706610929</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>59.00569140330889</v>
+        <v>56.52837532199465</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>61.37575466518967</v>
+        <v>56.24860386257318</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>27.53005307155532</v>
+        <v>28.17200032146241</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.13132458791453</v>
+        <v>37.63612790053406</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>45.1789929259992</v>
+        <v>40.52965941155118</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>9.214420680368978</v>
+        <v>8.473817894214026</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.21971431895861</v>
+        <v>44.46931437910935</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.92610394859234</v>
+        <v>41.54476069240352</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>8.961767622177192</v>
+        <v>7.898341897467404</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>64.15326720484214</v>
+        <v>62.8669447021765</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>63.68443746452264</v>
+        <v>63.33487159000168</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>75.2046888408006</v>
+        <v>71.35006382501072</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>75.03648446123836</v>
+        <v>71.54761894093787</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>78.85615649694742</v>
+        <v>71.76162605252</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>33.47679370744528</v>
+        <v>34.49443034786082</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>70.38889043394822</v>
+        <v>65.49706083693647</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>77.22374703213761</v>
+        <v>69.27035361916282</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.38502246097751</v>
+        <v>18.4930743828234</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.40058155410151</v>
+        <v>34.17379933228118</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.98327045817884</v>
+        <v>35.31870291108059</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>5.020206592155425</v>
+        <v>7.663980816143155</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.80435749747701</v>
+        <v>35.88274908655609</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.81077556999082</v>
+        <v>42.02806987847293</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>4.917701802366032</v>
+        <v>6.651407774209027</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>53.05898979597163</v>
+        <v>53.11320213714251</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>54.355610087592</v>
+        <v>56.20189284888845</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>53.94130180478132</v>
+        <v>52.18064056777132</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>62.60909522704416</v>
+        <v>61.4133298182558</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>60.87997542594955</v>
+        <v>59.8823348424447</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>15.17697907148855</v>
+        <v>13.83170254315823</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>56.13736213846711</v>
+        <v>57.06976059793834</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>63.61891567578933</v>
+        <v>62.85437790800673</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.43274712386163</v>
+        <v>14.31690545748807</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.18245001872978</v>
+        <v>32.38222872651609</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.21994223310455</v>
+        <v>34.19129653973236</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>4.31742501902896</v>
+        <v>5.367611427196074</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.82019019700311</v>
+        <v>30.32837718785083</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.47127805115209</v>
+        <v>32.21762365600833</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>4.916344552730827</v>
+        <v>4.97343810055845</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.50622121933323</v>
+        <v>43.07801343557207</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>55.93585143906483</v>
+        <v>50.80540151008955</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>46.31244665591831</v>
+        <v>45.46375098981789</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>55.68689263162948</v>
+        <v>49.87154136322084</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.62082511431623</v>
+        <v>51.54623203811338</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>13.55017674920471</v>
+        <v>11.99879840926491</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>57.51510963624887</v>
+        <v>54.45236151065461</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>59.78587727491399</v>
+        <v>55.45424959193663</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>15.73396879264718</v>
+        <v>14.78745641141786</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.77576648902632</v>
+        <v>34.15450623807072</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.47493653068412</v>
+        <v>40.16350191246325</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>2.834294531559273</v>
+        <v>6.848952480669556</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.81214239564383</v>
+        <v>37.23256401057836</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.49651066560652</v>
+        <v>41.98564293727844</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>3.621791874848668</v>
+        <v>6.236846574144099</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.78715756944848</v>
+        <v>49.44517683750819</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>61.19694711533673</v>
+        <v>60.68800943730172</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.40460128720605</v>
+        <v>55.00724909610406</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>67.94608698149722</v>
+        <v>62.14560243660526</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>76.44332397778813</v>
+        <v>72.77537952381705</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>11.55027657027944</v>
+        <v>11.80283259636906</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.65345027224878</v>
+        <v>56.41645223819095</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>72.69042320792222</v>
+        <v>66.92083214728063</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.53</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.867</v>
+        <v>19.2</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.656</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.553</v>
+        <v>21.286</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.423</v>
+        <v>1.678</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.59373497887045</v>
+        <v>21.08016876734301</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.58883240847531</v>
+        <v>22.19802227173572</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.04171258831858</v>
+        <v>21.69698586115906</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.27888079644314</v>
+        <v>13.33520629294035</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.57370640080589</v>
+        <v>22.50518008022044</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.23085983489137</v>
+        <v>25.98174881949079</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.31634532286578</v>
+        <v>15.30050682285173</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.24478558114282</v>
+        <v>29.31341944514394</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.23545371858513</v>
+        <v>29.39713905056848</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.77291413678838</v>
+        <v>27.53248730951617</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.04109505924608</v>
+        <v>31.78842894664793</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.06514059792206</v>
+        <v>32.06249150466225</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.66381258361295</v>
+        <v>19.0389428435366</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.06380274672997</v>
+        <v>27.41303945637396</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.48925760242021</v>
+        <v>29.55133101614117</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.42365521850095</v>
+        <v>22.01693756920228</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.21914451764073</v>
+        <v>35.84340020313523</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.25115667214079</v>
+        <v>40.11332278986652</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.194346059065492</v>
+        <v>13.05780142513433</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.75138281199493</v>
+        <v>31.74087634455547</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41.2383777725088</v>
+        <v>40.34454486002431</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.396495889852883</v>
+        <v>14.14264147095563</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>45.66020826800996</v>
+        <v>47.26578865844282</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>65.79327715611231</v>
+        <v>61.29409361438582</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>49.34674246898687</v>
+        <v>49.86928832575491</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.99188357361872</v>
+        <v>57.4281860382293</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>65.10816280929446</v>
+        <v>60.14108406741627</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.47041090587357</v>
+        <v>21.2461384254215</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>62.39041586393277</v>
+        <v>60.95466300036401</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>71.30038691638886</v>
+        <v>65.49094324929369</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.57208361345146</v>
+        <v>28.97668845885825</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.27400026507732</v>
+        <v>44.12792789649858</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.77991920853091</v>
+        <v>47.01016384005138</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.15990777363375</v>
+        <v>14.18220972445533</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.32572539128901</v>
+        <v>35.85124898621526</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>48.74562700289871</v>
+        <v>46.800289384227</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.36375201612525</v>
+        <v>20.33533228362425</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>66.18007025584902</v>
+        <v>63.31589823207592</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>70.54644019610356</v>
+        <v>65.10447524359829</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>72.22739279234563</v>
+        <v>66.19874479183341</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>81.1863332216347</v>
+        <v>73.2323434216695</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>85.42581025166055</v>
+        <v>76.60795834128841</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.62863492152276</v>
+        <v>32.56467036148506</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>84.52891282961068</v>
+        <v>76.09965051736728</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>83.67706168983074</v>
+        <v>75.71005701268344</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.35085611660007</v>
+        <v>16.41734954081141</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.31658718870397</v>
+        <v>41.89105160175699</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>43.5362514473111</v>
+        <v>42.25007731540541</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.697486793922828</v>
+        <v>12.39218975092857</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.74199183216952</v>
+        <v>41.34893536104537</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48.70410936235773</v>
+        <v>46.47541175727592</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.439639592301116</v>
+        <v>12.79455849532111</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>63.55328652631296</v>
+        <v>58.85986685931436</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>62.0958788617269</v>
+        <v>57.61473449066595</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.48557949882768</v>
+        <v>50.1486284950272</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>55.83231668364996</v>
+        <v>50.17723804739106</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.24888295220268</v>
+        <v>55.21060869042652</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.16396129966851</v>
+        <v>16.95626395319602</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>61.20961099763946</v>
+        <v>56.24139042621455</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>66.63476198573838</v>
+        <v>60.77518334889923</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.0790967186833</v>
+        <v>16.98245292366199</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.96949314420361</v>
+        <v>38.98777098696877</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.69385018319876</v>
+        <v>41.81406786336787</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.077994439817747</v>
+        <v>12.64375533867107</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.63623567197006</v>
+        <v>33.63555111066477</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.00899598048585</v>
+        <v>40.94722734111976</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.492586041769197</v>
+        <v>12.8733505240868</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55.75725354171607</v>
+        <v>52.44186685911149</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>71.74301610830631</v>
+        <v>65.75045328373334</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>52.32571778993372</v>
+        <v>49.30454499409515</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>63.61336199589284</v>
+        <v>57.48393297288756</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>67.94631304068167</v>
+        <v>63.0000428529638</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>11.24737992425947</v>
+        <v>14.44745703962709</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>66.41624713700008</v>
+        <v>60.60925695993005</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>73.35246047918201</v>
+        <v>67.01112265810507</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.77868707991358</v>
+        <v>16.8693836173218</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.09688001587725</v>
+        <v>44.2414042847174</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.24704216977805</v>
+        <v>46.84288206486525</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7.608293325382334</v>
+        <v>12.4381999973653</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.75031383241451</v>
+        <v>40.83430671343966</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.77441760017423</v>
+        <v>49.82780819352148</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.270683946426747</v>
+        <v>12.7737532424828</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>68.03467012495196</v>
+        <v>62.4793989302607</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>74.80851429469419</v>
+        <v>68.73349681443351</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>73.87947485957102</v>
+        <v>67.36874706096376</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>85.06552794614467</v>
+        <v>76.2084668641904</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>85.64087384072214</v>
+        <v>77.75623653553964</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.15757446232533</v>
+        <v>14.99327827545259</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>79.71695778372661</v>
+        <v>71.88047617053192</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>83.35664059595248</v>
+        <v>75.48339664273811</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.83454000939773</v>
+        <v>34.28784175209523</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.85102038349183</v>
+        <v>39.86853062236532</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.85524695005927</v>
+        <v>41.45348837159091</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.762775963633036</v>
+        <v>13.0720906301773</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.65063532086302</v>
+        <v>42.70968087888296</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.51942890480832</v>
+        <v>44.88979369064598</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.941683654895929</v>
+        <v>14.16443035065167</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>66.287027172183</v>
+        <v>61.36816694689543</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>61.15744234605017</v>
+        <v>57.10408244378639</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>53.66834814985247</v>
+        <v>51.23075990756109</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>67.95124877990553</v>
+        <v>61.73218952906645</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>65.36999959514635</v>
+        <v>60.8540410712324</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.08945464298255</v>
+        <v>32.25701287318206</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>63.25018491382899</v>
+        <v>57.53425861049369</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>65.9560457289964</v>
+        <v>59.10916351764503</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.56181247396194</v>
+        <v>27.9604425613312</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.43503258826503</v>
+        <v>40.78114111328297</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.70993590093516</v>
+        <v>42.19609061800418</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.880744332815066</v>
+        <v>12.62042183656632</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.87423812463365</v>
+        <v>38.55918473812935</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>43.1387975440529</v>
+        <v>41.51080264912403</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.168867237380248</v>
+        <v>13.65610029087707</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>62.75311320071667</v>
+        <v>58.19202935336796</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>72.26126633582129</v>
+        <v>66.37137179240457</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.71477401595725</v>
+        <v>51.80300877881798</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>66.23552105525425</v>
+        <v>60.57214470316988</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.74194648136663</v>
+        <v>62.85078063280082</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.25204924162009</v>
+        <v>29.23317449674263</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>67.56569072543944</v>
+        <v>61.42443646340803</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>70.4660806370529</v>
+        <v>64.15169309294546</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.42302173897073</v>
+        <v>34.12979137858122</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.52241997860632</v>
+        <v>47.20301382323562</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.27319427201611</v>
+        <v>46.12708048150667</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.845395068563771</v>
+        <v>13.10640581114922</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>49.13840349936963</v>
+        <v>47.15890883999059</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.9283148460486</v>
+        <v>47.4395714490182</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.833869755460636</v>
+        <v>14.22371082319367</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>71.43099968557455</v>
+        <v>65.7652129046904</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>70.62090546827571</v>
+        <v>64.77178757008826</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.78070000671967</v>
+        <v>69.68390337940875</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>78.11096589760915</v>
+        <v>71.60795534693142</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.63955539056747</v>
+        <v>74.36351979221554</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.11090154436155</v>
+        <v>34.91435961580027</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>80.58574315286754</v>
+        <v>72.52122804055281</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>80.68158824176928</v>
+        <v>73.44794107326517</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.38419875919185</v>
+        <v>21.04848395256298</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.492100436562</v>
+        <v>24.03384869106543</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.67495189380879</v>
+        <v>23.91122436039809</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.400885397281229</v>
+        <v>14.2128272106094</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.89694930101351</v>
+        <v>23.61927736066519</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.46177268904682</v>
+        <v>25.29540052916435</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11.39157736450616</v>
+        <v>15.5198045354764</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.19766210759558</v>
+        <v>29.42967528590983</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.02334543654807</v>
+        <v>29.50926594264749</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.54239514873804</v>
+        <v>29.67764280436444</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.93805954608876</v>
+        <v>31.60825864825704</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.06803716696272</v>
+        <v>34.51646635501705</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.16242448934209</v>
+        <v>58.14649330774574</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>65.47302056837211</v>
+        <v>60.65778617203081</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>63.15258438806703</v>
+        <v>58.67859705503562</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.80130784639215</v>
+        <v>19.50444211880591</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.44003562210203</v>
+        <v>36.75220984403456</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.39915826533257</v>
+        <v>40.27486606095414</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8.519276865058906</v>
+        <v>12.98873664530874</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>37.16257689758425</v>
+        <v>39.92210587156102</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>52.19677249185992</v>
+        <v>49.91115388022978</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11.72314042248755</v>
+        <v>17.37267824453872</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>48.19540225711563</v>
+        <v>51.62817075182659</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>65.0363542566742</v>
+        <v>60.51626351044144</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>45.26185902107834</v>
+        <v>47.89950469309262</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>54.15828320008043</v>
+        <v>50.33193899449135</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>61.78449758346864</v>
+        <v>58.14695766856978</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.17797189716782</v>
+        <v>19.75256518186454</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>60.50551507598252</v>
+        <v>56.01182886460441</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>66.90179187273591</v>
+        <v>61.54150554509467</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.07916160362321</v>
+        <v>28.42677783635144</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.59603020870117</v>
+        <v>42.89814467892724</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.80440280755266</v>
+        <v>45.97837605314437</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.95137874328105</v>
+        <v>14.97734221491464</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.257922193863</v>
+        <v>43.68967086293704</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>52.72705680359196</v>
+        <v>50.56489845779803</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.11927404735408</v>
+        <v>20.68055903017981</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>62.53501825316886</v>
+        <v>60.27384743968101</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>69.59854702201048</v>
+        <v>64.0857534735856</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.58461601516272</v>
+        <v>60.65823175515537</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>73.6734117581114</v>
+        <v>66.78650262114678</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>80.44091364509788</v>
+        <v>73.42407766441937</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35.61038629940668</v>
+        <v>35.39088730118276</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>75.6057047460807</v>
+        <v>68.67393399457663</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>78.89203689618807</v>
+        <v>71.57743324260554</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.64584584308363</v>
+        <v>30.22919215501885</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>48.68485313721793</v>
+        <v>45.84529208430475</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>45.18951571326111</v>
+        <v>42.98065255519847</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.277160517158073</v>
+        <v>13.59081734441964</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.54630204951138</v>
+        <v>48.51818948135514</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>51.21142917413685</v>
+        <v>48.38359290303515</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.37768212669165</v>
+        <v>15.48028219827657</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>72.94757934282569</v>
+        <v>69.3806104011245</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>64.95959222360493</v>
+        <v>60.54856128987974</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>53.88884812719377</v>
+        <v>51.65539762697817</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>65.35580273116133</v>
+        <v>60.9354910634862</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>68.36441081288015</v>
+        <v>64.01009478233732</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.0580329238873</v>
+        <v>23.09735073734901</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>8.268023914192618</v>
+        <v>13.03650286219161</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>8.923925590000206</v>
+        <v>13.57113922745178</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.02930984797506</v>
+        <v>35.57809404498962</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>49.07908285258123</v>
+        <v>46.46349407935105</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>47.84955835431602</v>
+        <v>44.49857789304551</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.327509810592097</v>
+        <v>12.97551184332299</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>45.7792828122322</v>
+        <v>43.964297338535</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>48.70013466586624</v>
+        <v>46.55530073661151</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.65311701558941</v>
+        <v>15.58790171002715</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>68.2462793729965</v>
+        <v>62.94049736371359</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>69.20789765242202</v>
+        <v>64.05550818745637</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>64.70333459606255</v>
+        <v>60.12015214981442</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>68.73849598429393</v>
+        <v>63.4772317632719</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>71.16144658214442</v>
+        <v>65.02519843881001</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.65127153363846</v>
+        <v>41.34891349993308</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>75.19412462120668</v>
+        <v>68.69556390781065</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>76.22001885315632</v>
+        <v>69.91218747959299</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>39.7200409950878</v>
+        <v>39.87926186817811</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>51.8072476596697</v>
+        <v>48.96032864418038</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>51.81482100111305</v>
+        <v>48.2193194818377</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>9.294584937758394</v>
+        <v>13.66268064285406</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>52.71114301612735</v>
+        <v>49.58162292240682</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>49.21588641834997</v>
+        <v>46.92163117508553</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>10.99787178834692</v>
+        <v>15.30583783184446</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>74.05810162296646</v>
+        <v>67.68755597599419</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>71.52088739036815</v>
+        <v>65.33887967288888</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>78.31298257493702</v>
+        <v>71.45198601328315</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>82.36597267501668</v>
+        <v>74.89535855431666</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>83.31790640182963</v>
+        <v>75.49052821679943</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>52.6572074222275</v>
+        <v>50.17422979839738</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>85.65366013681925</v>
+        <v>77.30390746143161</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>82.01241406272936</v>
+        <v>74.69025821519102</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.25986890787865</v>
+        <v>28.80191742217453</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>37.5459427911588</v>
+        <v>36.39854733505527</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>42.7221727588293</v>
+        <v>40.41990724809105</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8.388617974477643</v>
+        <v>12.43981230841925</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.23723474836211</v>
+        <v>44.52264636935587</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>52.51260772214071</v>
+        <v>49.31044289595282</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>8.600345336054193</v>
+        <v>13.36458140076445</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>71.72127825613853</v>
+        <v>65.69432039822146</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>66.54455754338973</v>
+        <v>61.00995235169241</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>57.51761752474215</v>
+        <v>54.74305499538264</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>62.06235639795793</v>
+        <v>58.2548781469882</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>62.71487271389726</v>
+        <v>59.13385155676585</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>21.02276476643604</v>
+        <v>22.74792075790952</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8.569085455859991</v>
+        <v>12.73117369020839</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>8.048620218810367</v>
+        <v>12.34875862155377</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.95463303053304</v>
+        <v>30.15728867679678</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>48.05849271235131</v>
+        <v>45.47900251196791</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>49.8898415513066</v>
+        <v>47.60438452594252</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.091973020059953</v>
+        <v>12.72538198081039</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>41.37974890422711</v>
+        <v>40.19048240972129</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>49.85980318904179</v>
+        <v>46.79952638698479</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>9.926491504679674</v>
+        <v>14.18273311273726</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>68.00037277832769</v>
+        <v>62.85968706373785</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>71.78736411332866</v>
+        <v>66.45516303629512</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>55.4086317181478</v>
+        <v>52.05947683589356</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>68.29468053445535</v>
+        <v>62.89992910604543</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>73.53077022131184</v>
+        <v>67.15699664463946</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.35107803520602</v>
+        <v>29.0040858953829</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>75.47469512377636</v>
+        <v>68.98396280434869</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>78.49600119906142</v>
+        <v>71.74774670701608</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.26881369420317</v>
+        <v>30.64724604090035</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>49.52783315403124</v>
+        <v>46.12367412036318</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>52.10440060818117</v>
+        <v>48.49226061589123</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>8.116193882784593</v>
+        <v>12.80115818946366</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.82907961407675</v>
+        <v>42.83962309774127</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.3538630558276</v>
+        <v>46.26790433605493</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.099761676765837</v>
+        <v>13.70530871518906</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>70.43686406733484</v>
+        <v>64.6750260185777</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>70.92989668417121</v>
+        <v>65.77526993673067</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>72.92809067124074</v>
+        <v>66.76827321182377</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>78.48695253233427</v>
+        <v>71.82243258740169</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>80.17676867963594</v>
+        <v>73.46807573155715</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.34491360228226</v>
+        <v>28.21864872925202</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>77.64015807450519</v>
+        <v>70.74684861235032</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>80.80263208200824</v>
+        <v>73.71219202078105</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.44101514148842</v>
+        <v>17.753502556627</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.59958665145225</v>
+        <v>19.22860639471376</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.25752692190536</v>
+        <v>18.38880551976969</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>8.283410331469881</v>
+        <v>13.56865137334896</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.8696437383592</v>
+        <v>20.65147373397968</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.64250120388462</v>
+        <v>22.95542223781294</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.618880377303146</v>
+        <v>13.84682177347717</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.61993376283075</v>
+        <v>23.82441608215937</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.83493214675712</v>
+        <v>25.08912307970749</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.5199643447054</v>
+        <v>27.47508219544714</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.12029928936017</v>
+        <v>32.76558678754915</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.42072236219332</v>
+        <v>34.08745609376204</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.05072631850962</v>
+        <v>19.08265933320447</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.96435584033658</v>
+        <v>23.58181412576959</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.14159944911754</v>
+        <v>24.55846087008615</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.19853461383369</v>
+        <v>17.54748328051794</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.61507690598243</v>
+        <v>31.79229206990933</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.33719813890648</v>
+        <v>35.83766256704725</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>8.10558292190797</v>
+        <v>12.42867876862814</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>32.01764628050432</v>
+        <v>32.29350965867099</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.61369254287887</v>
+        <v>38.09796241553615</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.08851804198715</v>
+        <v>12.12944339175585</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.90973467050252</v>
+        <v>43.07981262045358</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.23331951064148</v>
+        <v>48.56135221750046</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.41217236764122</v>
+        <v>41.1695640384825</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>49.71371852445067</v>
+        <v>46.32441302400448</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.07356439222477</v>
+        <v>47.66514983420552</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>15.26517960944875</v>
+        <v>18.33987429782471</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>48.93313122352581</v>
+        <v>45.59137973303172</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.59607984952346</v>
+        <v>47.09024585542451</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.13432939912543</v>
+        <v>25.71031067266312</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.42159230063417</v>
+        <v>35.61034867883792</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>45.60878812390165</v>
+        <v>43.38231543710292</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>8.888638551851674</v>
+        <v>12.85099362087864</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>43.35959542959121</v>
+        <v>41.91985395063776</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.59509323549739</v>
+        <v>45.96203429855728</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>10.63221265329646</v>
+        <v>14.5965661748977</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>62.49920899044422</v>
+        <v>57.11804279010414</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.29383302026278</v>
+        <v>58.52807471425634</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>62.99074972649787</v>
+        <v>58.99401611555869</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>70.46002651587061</v>
+        <v>65.3808965647999</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>73.63134223385093</v>
+        <v>67.96928510479887</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>34.15067874255534</v>
+        <v>34.8859750602502</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>72.7440903487676</v>
+        <v>66.10355187549366</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>77.33905402139517</v>
+        <v>70.96863522079681</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.86791409919905</v>
+        <v>17.20028194185329</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.18133333256094</v>
+        <v>18.55536860706079</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.62363969687324</v>
+        <v>16.67519951426051</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>7.621914238193867</v>
+        <v>11.9647926674824</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.43411126509598</v>
+        <v>18.43916036612166</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.56667442044599</v>
+        <v>22.10507107007894</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>8.397786409197977</v>
+        <v>12.98069029402827</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.2161075076774</v>
+        <v>19.62571578112745</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.49756463231587</v>
+        <v>19.00515235818487</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>17.64262762820392</v>
+        <v>20.65399919902379</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>18.55389475861559</v>
+        <v>21.38406234784523</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.41315585964853</v>
+        <v>20.52297706953723</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>14.21784841030777</v>
+        <v>17.99112607466797</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>14.67122770228206</v>
+        <v>19.08057552719349</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.97556050736168</v>
+        <v>17.86015305409107</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>7.450501712118054</v>
+        <v>12.35021617430688</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>11.449290471758</v>
+        <v>15.55041169994903</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>13.53743152620885</v>
+        <v>17.53835441940597</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>5.21459843573653</v>
+        <v>10.69693795043624</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>12.01768885374462</v>
+        <v>16.34694880410058</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.44462036708705</v>
+        <v>19.41189399336748</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>4.496827615464728</v>
+        <v>10.25913360425508</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>14.92034261565999</v>
+        <v>19.05992399899205</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.56400925810923</v>
+        <v>25.3487401979943</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.55063449962929</v>
+        <v>16.1761687232001</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.67479729931107</v>
+        <v>30.36067142969218</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.76623096616779</v>
+        <v>36.17191890053418</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.21249087061025</v>
+        <v>11.97164879277954</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.78468970810383</v>
+        <v>22.2526661391345</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.94079574620827</v>
+        <v>19.28856106450106</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.166358711362257</v>
+        <v>12.93813840814302</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>15.73874337469952</v>
+        <v>18.99685039541754</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.4554149885129</v>
+        <v>35.68714157433642</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5.59434530726125</v>
+        <v>11.28536981966546</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.5589631160452</v>
+        <v>19.97410130041975</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.95093718958009</v>
+        <v>36.10125816160789</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>4.619832088569044</v>
+        <v>10.89743632888755</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.59813030032864</v>
+        <v>25.65742486971433</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.69055971858061</v>
+        <v>56.36676401275534</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.22753954851035</v>
+        <v>20.13311864331124</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>48.61773742492485</v>
+        <v>46.28461919732047</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>70.6007689125403</v>
+        <v>65.0457037976114</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.156718117169003</v>
+        <v>12.69720981826076</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.73016748334697</v>
+        <v>38.35023781185852</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>45.87474072851909</v>
+        <v>46.34338425486746</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.58789897428731</v>
+        <v>22.62876954669059</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.6278965084457</v>
+        <v>23.94057240058642</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.61852092256421</v>
+        <v>36.29928271487873</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>9.269375076719765</v>
+        <v>13.34712332010736</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>42.83349698782898</v>
+        <v>41.96043693620609</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.86506863666098</v>
+        <v>43.8307617617854</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.2430935113439</v>
+        <v>18.63723709832515</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>62.02692601598978</v>
+        <v>57.18464177574977</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>61.78754615133467</v>
+        <v>57.22467512686223</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>57.05496152308935</v>
+        <v>54.31315447838291</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>65.84363057601007</v>
+        <v>61.48345199224565</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>62.95598435397916</v>
+        <v>59.43357175233614</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.05908108559653</v>
+        <v>38.77706340731529</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>56.83387180240781</v>
+        <v>52.4529531746311</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>69.6665074787351</v>
+        <v>63.81911199846625</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.35457136914589</v>
+        <v>25.21481620413113</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.34164665237976</v>
+        <v>34.81115509181257</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.97322269586541</v>
+        <v>36.68320219353421</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.360170548449563</v>
+        <v>12.78004881296345</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>34.82358227756831</v>
+        <v>35.66242869888518</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.1577125218346</v>
+        <v>36.71695102177132</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>8.997398560724385</v>
+        <v>13.91837489508628</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>51.69001336804561</v>
+        <v>48.6311808370518</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>53.34928039398486</v>
+        <v>50.37871535707969</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>43.70929941930625</v>
+        <v>42.73241198383033</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>50.10845349879983</v>
+        <v>47.79230198874502</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.69160006152818</v>
+        <v>48.57785643570696</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.88846684552389</v>
+        <v>31.79944088912291</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>56.00829673123447</v>
+        <v>52.09119072640844</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>55.58239728790014</v>
+        <v>52.50483284038513</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.50140339171552</v>
+        <v>27.39996463084534</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.06723105932435</v>
+        <v>36.03356705173855</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>44.56065785142474</v>
+        <v>43.09951598871667</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>8.443512450098201</v>
+        <v>13.05939260206072</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.26518823453033</v>
+        <v>44.21833479106629</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.91572924216845</v>
+        <v>45.98080614107909</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>10.25562488893437</v>
+        <v>14.2759403013855</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>65.59446936642733</v>
+        <v>60.18286462622513</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>66.10348164867568</v>
+        <v>61.35610501821768</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>66.78081198526836</v>
+        <v>61.95110113646233</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>72.50818884059855</v>
+        <v>66.98395469244184</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>72.98696469156356</v>
+        <v>67.30853964559849</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.16205407808822</v>
+        <v>35.22422714165002</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>70.16876947998763</v>
+        <v>65.08902462656292</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>75.33528296322764</v>
+        <v>69.49809277697335</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.11490088277886</v>
+        <v>17.14766751838953</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.10295432209429</v>
+        <v>17.84745630089977</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>14.30584933352172</v>
+        <v>18.26689416565787</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>6.463389463429127</v>
+        <v>13.09610986183722</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>12.45728868448862</v>
+        <v>16.88376929527248</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.75431815474653</v>
+        <v>19.82715937585188</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>7.200203070026092</v>
+        <v>13.316067135113</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.66816149047969</v>
+        <v>21.23874176108137</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.83144663600397</v>
+        <v>22.96912998334311</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.39880930278969</v>
+        <v>21.32219994380048</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.12531782778968</v>
+        <v>23.51436615076072</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.16321724636084</v>
+        <v>26.0713687399932</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>11.69610848728484</v>
+        <v>16.2592600711953</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.64406635989199</v>
+        <v>21.466453558554</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>20.19348267633101</v>
+        <v>22.65601005883789</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>10.25081321236052</v>
+        <v>14.96536765892133</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.76785422843363</v>
+        <v>25.20119971947825</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.97274856484852</v>
+        <v>28.81341348055262</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>7.212158834813042</v>
+        <v>12.69708036099414</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.77387244328708</v>
+        <v>25.36755681918789</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.13365617437691</v>
+        <v>32.062728050865</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>6.083235845380756</v>
+        <v>11.96139308063948</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.04133896084623</v>
+        <v>37.0454700119004</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.81395044648772</v>
+        <v>41.0077615884445</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.297399819851</v>
+        <v>30.20636824280255</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>39.0811269214103</v>
+        <v>37.47435838329012</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.13756811652316</v>
+        <v>37.90043174058239</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.73185343580046</v>
+        <v>14.55511600422634</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.61954231729987</v>
+        <v>35.01364604532309</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>40.3338775598318</v>
+        <v>39.51992120711267</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.3161029370516</v>
+        <v>20.69001084013687</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.58054578059802</v>
+        <v>31.23132503009056</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.56058823842616</v>
+        <v>40.91389846404926</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.30650018929756</v>
+        <v>14.85079770584195</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.74401534679302</v>
+        <v>30.82224884209846</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.25846853143713</v>
+        <v>39.759194630397</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.93069912885736</v>
+        <v>19.30466286014294</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>49.06390798899088</v>
+        <v>46.5141951605471</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>56.5242116982908</v>
+        <v>53.40246862360502</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>50.70534101237732</v>
+        <v>48.02111461658131</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.75028330790319</v>
+        <v>58.06953882356414</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>72.25863885992602</v>
+        <v>66.59814119640271</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.2747087164746</v>
+        <v>24.1789167998462</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>58.02161880939662</v>
+        <v>53.89258555747814</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>65.06003025258025</v>
+        <v>59.82039851669193</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.212589991496628</v>
+        <v>12.43717071339452</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.880704017401047</v>
+        <v>12.37608486423533</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.371057920767345</v>
+        <v>14.59447560467236</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>5.138519830240302</v>
+        <v>10.63293977715191</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>7.870070475668648</v>
+        <v>12.6607644102887</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.74466989027466</v>
+        <v>16.11490886772255</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2.509827023408718</v>
+        <v>9.175658466771711</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>6.246851934203022</v>
+        <v>11.65020200100522</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.82858588965397</v>
+        <v>16.31855032490763</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.361155001573518</v>
+        <v>12.65493000852943</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>9.749692171906752</v>
+        <v>15.01395325169369</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>12.67003278238024</v>
+        <v>17.56545256929399</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.212411779641357</v>
+        <v>12.01436737678251</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.100847786273487</v>
+        <v>12.6971325916946</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.50689317769471</v>
+        <v>18.6981188736356</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.8543567686002</v>
+        <v>25.26188043842896</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.47953537595873</v>
+        <v>35.35136589746249</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.19973813683578</v>
+        <v>35.75402003458481</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>7.820526628723762</v>
+        <v>12.56794013711879</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.89959510271743</v>
+        <v>35.08169998782626</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.69768069137874</v>
+        <v>38.18912519986911</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7.418166508909493</v>
+        <v>12.63959702300902</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.89622324597249</v>
+        <v>46.53247177836615</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>52.75260728589728</v>
+        <v>49.89624111270881</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>48.725067020596</v>
+        <v>46.05192368712444</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.59864770688532</v>
+        <v>47.59334388826431</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>51.41231333699882</v>
+        <v>49.29819901443729</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.69790964995793</v>
+        <v>26.36424033380295</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>53.89978026206252</v>
+        <v>50.50763061720776</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>54.28577400089749</v>
+        <v>51.58373072813004</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.77795678199007</v>
+        <v>27.71349332945486</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.49856030903437</v>
+        <v>39.02473302911471</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>47.25575014187122</v>
+        <v>45.60830730612263</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>8.471858750889062</v>
+        <v>12.76588118475878</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.60480822579314</v>
+        <v>44.96871028943148</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>52.18625583560866</v>
+        <v>48.9851799806556</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>7.990246111931292</v>
+        <v>12.98700398065441</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>64.79015091330889</v>
+        <v>60.56100191059122</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>66.16615284342969</v>
+        <v>62.12763919842124</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>72.33939765916881</v>
+        <v>66.68733934918245</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>78.18951193566404</v>
+        <v>71.56226503470776</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>79.36360898252926</v>
+        <v>72.66048750319152</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.12416279894419</v>
+        <v>29.58058375989204</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>77.79577929114468</v>
+        <v>70.52643789500857</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>75.34926169635577</v>
+        <v>68.47778026062412</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.8327319992031</v>
+        <v>19.46491058420489</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.24127937971018</v>
+        <v>21.96737621212386</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.80666791779377</v>
+        <v>20.86537733151738</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>6.307720885829568</v>
+        <v>12.59935479404093</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.2685401267255</v>
+        <v>20.78274535810984</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.00858888167933</v>
+        <v>22.92430723749134</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>6.287616210339007</v>
+        <v>12.10968148784984</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.350410760702</v>
+        <v>23.78941864053088</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.46653312834408</v>
+        <v>26.09478126023829</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.67136425389961</v>
+        <v>23.95151824954274</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.23129758613748</v>
+        <v>29.54676560760184</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.07101385577775</v>
+        <v>29.32956684282173</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>13.45380747274324</v>
+        <v>17.50064325218715</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>22.96666390872954</v>
+        <v>25.21610581170825</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.02459110185701</v>
+        <v>26.49388373942627</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>7.417960998341815</v>
+        <v>12.52942864319647</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.13519568523006</v>
+        <v>17.2548234059287</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.90520396308284</v>
+        <v>24.41894599943313</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>5.771510583623883</v>
+        <v>12.17649256291567</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>12.22976961970744</v>
+        <v>15.836092931395</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.70991547236272</v>
+        <v>25.7735331148399</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>5.649051281396805</v>
+        <v>11.37105645737018</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>16.76026819952374</v>
+        <v>19.73619807963412</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.90457084628497</v>
+        <v>35.24831361756384</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.34873670072281</v>
+        <v>18.34870954674377</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>27.10556897377008</v>
+        <v>28.04120833210134</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.48542131495544</v>
+        <v>32.25341292093017</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.212595588505973</v>
+        <v>11.97180895588372</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.6607660429478</v>
+        <v>26.90252767951638</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.88788981747475</v>
+        <v>32.32908325049418</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.94011100369334</v>
+        <v>22.59970854502887</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.32442070553851</v>
+        <v>30.02540563263729</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.73553996988306</v>
+        <v>37.28481180787025</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.414957266185123</v>
+        <v>13.54727422181008</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.0186624494145</v>
+        <v>27.06067171464598</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.80628890522546</v>
+        <v>32.51158991661281</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>13.38051187231455</v>
+        <v>17.09762314256042</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.99784144941376</v>
+        <v>41.17367649315691</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>51.67192404525903</v>
+        <v>49.58758648104657</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>45.52239777664946</v>
+        <v>44.14111347886459</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>52.96347620122256</v>
+        <v>50.47269646917125</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.30282308148458</v>
+        <v>56.06851712112514</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.29549529526074</v>
+        <v>30.48865293296257</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>47.75023005949224</v>
+        <v>46.09868251877666</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>52.94489723405563</v>
+        <v>49.84419447742164</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.752152233957737</v>
+        <v>13.10302360937244</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.00913288583701</v>
+        <v>15.11713423712595</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>9.42354678953722</v>
+        <v>14.78090168055307</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.311884602208345</v>
+        <v>11.93792495102394</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.316993164398401</v>
+        <v>13.63936390124107</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.8064269928366</v>
+        <v>15.06540851759252</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.05060555418698</v>
+        <v>10.34524103037027</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.705968307387657</v>
+        <v>12.9131874051605</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.44327120661059</v>
+        <v>15.84252813031787</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.83236235411616</v>
+        <v>13.05986904755062</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>8.415643783864699</v>
+        <v>14.19010436180667</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.57663257323751</v>
+        <v>17.09807119685058</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.829850799116834</v>
+        <v>12.94034101205857</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.831771811456495</v>
+        <v>13.53977761636915</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>12.11219023337795</v>
+        <v>16.15947049384211</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.107806720810565</v>
+        <v>12.52998753381202</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.452011435484277</v>
+        <v>13.11525124994778</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.207795343144927</v>
+        <v>13.78582665392371</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.536837846481799</v>
+        <v>11.70050071584384</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.295522304777752</v>
+        <v>12.95428814618919</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>9.276080192508946</v>
+        <v>13.59021134113297</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.506193555204067</v>
+        <v>10.95252026434592</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>8.509405394273148</v>
+        <v>13.79478875085286</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>10.55178368954639</v>
+        <v>15.22708871423792</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.484518525680489</v>
+        <v>13.31286386754163</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>11.1907994229627</v>
+        <v>15.31524376474025</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.97268767677776</v>
+        <v>15.70601721817864</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>5.771437733971375</v>
+        <v>12.56149592289875</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>9.207641054743679</v>
+        <v>13.34827010337955</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.12290389491488</v>
+        <v>14.28315715135899</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.33696190801911</v>
+        <v>25.42202752057939</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.32711772556986</v>
+        <v>27.56124647099696</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.4323693715287</v>
+        <v>28.41959959795497</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>7.87224249197439</v>
+        <v>13.75294349732253</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>20.61629999169579</v>
+        <v>23.86496245922144</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.80803638570354</v>
+        <v>25.90595290257058</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.63070380141663</v>
+        <v>18.74037048220484</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.88296889175478</v>
+        <v>31.54670910015774</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.31268743335772</v>
+        <v>33.31328699820631</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.70845850666139</v>
+        <v>37.78047744016361</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>40.57385984502654</v>
+        <v>39.82656932513402</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>42.50701913707039</v>
+        <v>41.48489475024482</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.64842566078836</v>
+        <v>28.27819196226516</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.60717075396085</v>
+        <v>31.68619190015294</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.99836877207277</v>
+        <v>36.30841963197518</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.65129252204774</v>
+        <v>22.63498936512156</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.33412094619706</v>
+        <v>28.24298069483989</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.73818499724786</v>
+        <v>33.94755221361356</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.250293344669451</v>
+        <v>12.33823370666315</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.27984182906096</v>
+        <v>25.49871479592161</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.47607047777145</v>
+        <v>30.17468259618255</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.122704532019625</v>
+        <v>13.23680906783522</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.3628256454837</v>
+        <v>36.8795478360228</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.10499848209628</v>
+        <v>43.45326084692921</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.87185083409111</v>
+        <v>35.0553029784687</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.85571365035739</v>
+        <v>41.88122080391948</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>46.93011751816169</v>
+        <v>46.28984265120926</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.17260237502611</v>
+        <v>29.89718293483816</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>47.26601780858122</v>
+        <v>45.92289156009171</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>61.15909569338076</v>
+        <v>57.5217554833301</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.57571195039963</v>
+        <v>20.66514863199534</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.48989245773915</v>
+        <v>28.29932443937086</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.80628047505688</v>
+        <v>32.05039062860837</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>5.632135749864364</v>
+        <v>11.50912125031281</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>17.83067032467717</v>
+        <v>21.40843965989894</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.30570550545122</v>
+        <v>25.10859818690476</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.776790658038745</v>
+        <v>11.79755745521841</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.50140142984014</v>
+        <v>31.20297556938674</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.66316570034455</v>
+        <v>34.29460887898546</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.46342510186969</v>
+        <v>29.88093616461325</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.0992409700612</v>
+        <v>37.19044391145078</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>34.37631916295465</v>
+        <v>35.77239428425059</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.47456102359561</v>
+        <v>24.02705474532124</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>39.84748332679889</v>
+        <v>39.75940274572555</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>43.59637059211268</v>
+        <v>43.08862451992887</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.92779509323311</v>
+        <v>28.05453676664123</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.00790883919709</v>
+        <v>35.70732112173482</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>45.043333949378</v>
+        <v>43.63636628654021</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.905862152056187</v>
+        <v>12.95675686853117</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.92547425911289</v>
+        <v>33.50269484597575</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.00640231758106</v>
+        <v>37.19884009056816</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.63942058534267</v>
+        <v>15.87235840666065</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>53.21781550269992</v>
+        <v>50.70834539096664</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>55.67836390412083</v>
+        <v>53.43425208509463</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>61.0943522729676</v>
+        <v>57.40104099367364</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>67.02292334989689</v>
+        <v>62.27694290958843</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>71.40595440320871</v>
+        <v>65.90861075776024</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.39368718356855</v>
+        <v>31.34219510745358</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>55.95573362348857</v>
+        <v>53.24479103992103</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>64.5410815831614</v>
+        <v>60.47878575058013</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.84972650724434</v>
+        <v>25.21109123635645</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.85427534044917</v>
+        <v>34.72217379439891</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>39.09257841302893</v>
+        <v>38.14596380235879</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.775769950224809</v>
+        <v>14.08106784115255</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.87203780961978</v>
+        <v>40.15774159650549</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.17545490852741</v>
+        <v>41.32602962230267</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.31472045484619</v>
+        <v>16.89106931368624</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>57.39858378157198</v>
+        <v>53.78304944748089</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>60.1450216604598</v>
+        <v>56.4791549857765</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>64.50448584913035</v>
+        <v>59.5048921129534</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>66.34679769247211</v>
+        <v>60.23980573872072</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>68.31599401996419</v>
+        <v>63.32721608518789</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.85734351964037</v>
+        <v>27.53154991773106</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>62.61705756885667</v>
+        <v>57.22334042558146</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>67.19471230473438</v>
+        <v>61.14198004201171</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.87506116766927</v>
+        <v>23.45668449237332</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.21387588145321</v>
+        <v>32.98928507509312</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.05770159058341</v>
+        <v>38.85164355192643</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.745554964335877</v>
+        <v>12.40729040132056</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.60122504780097</v>
+        <v>33.8465262388539</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.5415120776394</v>
+        <v>35.28468287342292</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.045181634548413</v>
+        <v>12.84931434383908</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>48.06178182786464</v>
+        <v>45.10654045866847</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>56.61569519377381</v>
+        <v>53.43305698435488</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.4898465623592</v>
+        <v>42.04245008848078</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.79997089387188</v>
+        <v>49.78393456158842</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.68005290201849</v>
+        <v>44.78706131682202</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>20.28556387109953</v>
+        <v>23.15973071981029</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>54.82113992068818</v>
+        <v>51.1025636770428</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>61.32310779759221</v>
+        <v>56.55524524869048</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.48471476866188</v>
+        <v>24.9470717980197</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.81134030186855</v>
+        <v>36.78389875838982</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.04270360718784</v>
+        <v>42.20588881601165</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>8.375444524632229</v>
+        <v>12.59510294140001</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.82763477421356</v>
+        <v>40.83836883485183</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.8325080838807</v>
+        <v>41.49383019604448</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>7.984739832332092</v>
+        <v>12.76850339405413</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>56.67061489386842</v>
+        <v>52.94712613266796</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>62.39806221299513</v>
+        <v>58.77632614095062</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>63.91948375753098</v>
+        <v>59.06369311084288</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>69.769616073897</v>
+        <v>64.37247274658729</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>76.4119880014176</v>
+        <v>70.23265461070142</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>23.19036837148361</v>
+        <v>24.42441812724663</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>67.59246530446119</v>
+        <v>60.8453482633734</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.99981547600677</v>
+        <v>67.13763511353523</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.26299674278084</v>
+        <v>28.48535601629888</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.210541552445</v>
+        <v>31.1005612572662</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.96840120072724</v>
+        <v>35.86771930141661</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>8.15474940142618</v>
+        <v>12.92293783002811</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.4529782181954</v>
+        <v>40.43449718920961</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.09470577337562</v>
+        <v>42.16044696736377</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.3762482998404</v>
+        <v>15.91091510757462</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>58.05820837311232</v>
+        <v>54.46677196715786</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>57.59960587333967</v>
+        <v>54.50990468535905</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>58.18356920979485</v>
+        <v>50.24496014404861</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>60.22703030207319</v>
+        <v>51.3292853212683</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>63.47560070319644</v>
+        <v>54.24370312720641</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.27151654490391</v>
+        <v>28.65227299502406</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.98255013782288</v>
+        <v>45.13653018384071</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>63.1698161137703</v>
+        <v>62.90560636160405</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.25291210408759</v>
+        <v>28.01595352420687</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.71779403933154</v>
+        <v>36.61624168851038</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.28952530583391</v>
+        <v>37.215915218291</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>6.866532104129757</v>
+        <v>12.22440821374344</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.21115898377325</v>
+        <v>35.35283753509626</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.66728760988224</v>
+        <v>36.10319465447771</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>9.084382655122411</v>
+        <v>13.21153927472676</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>49.5198355291075</v>
+        <v>46.20913391698332</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>57.37026474704876</v>
+        <v>54.21777434483332</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.2544414837281</v>
+        <v>47.92639293371082</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>52.58048307255901</v>
+        <v>49.15550232438581</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>51.51301012654516</v>
+        <v>49.30094564042781</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.75389806773606</v>
+        <v>29.45123695673681</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>59.02928941938048</v>
+        <v>55.24240466946501</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>60.95473394282095</v>
+        <v>56.95230857766822</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.14955255065773</v>
+        <v>29.66963027256416</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.47599692388129</v>
+        <v>38.87586807391992</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.4939600873675</v>
+        <v>42.26933040938462</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.238874044128494</v>
+        <v>12.82774599442485</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.2783299391526</v>
+        <v>40.45101346680799</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.91143618323836</v>
+        <v>43.30781940132556</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>8.564968730974439</v>
+        <v>13.58421519040373</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.1883095709716</v>
+        <v>56.3050390341103</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>62.11762200284639</v>
+        <v>58.46405802419464</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>68.95279497433508</v>
+        <v>63.15613285982018</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>74.34994072305645</v>
+        <v>68.2688658787136</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>75.98689318836293</v>
+        <v>69.70525654584438</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.36189136363502</v>
+        <v>29.86453183183307</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>68.6747862294113</v>
+        <v>63.18501594422443</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>70.97328804907386</v>
+        <v>65.62444077870764</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.76923713258694</v>
+        <v>27.7861302280653</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.10657492172349</v>
+        <v>30.19114783285083</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.240356981829</v>
+        <v>34.69518013612153</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.65377893846947</v>
+        <v>18.12202467955393</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>59.28167784028542</v>
+        <v>56.60530060227096</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>58.24909733013911</v>
+        <v>54.74405309914363</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.89552777927684</v>
+        <v>16.19624012511607</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.83682300955784</v>
+        <v>56.21763658832036</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>56.13941087662793</v>
+        <v>52.87621206336016</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>58.33091811832425</v>
+        <v>55.69448834425856</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>62.59970860783705</v>
+        <v>56.70470555943617</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>63.29374163651906</v>
+        <v>57.70523983284635</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>20.94607891130519</v>
+        <v>26.7626198128019</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.71349389905096</v>
+        <v>39.8969594183173</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>56.81594098337762</v>
+        <v>56.13567747511429</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.05182113451595</v>
+        <v>29.6137740304428</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.27309182121178</v>
+        <v>36.30048264296057</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.09075810688474</v>
+        <v>37.61642392381906</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>39.02284234323929</v>
+        <v>38.8805486984662</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>53.24681635068327</v>
+        <v>50.46176877521592</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>52.63331423894314</v>
+        <v>47.89296151377988</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.322753198762932</v>
+        <v>14.03606216427891</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>51.48134244500723</v>
+        <v>49.29574268147067</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>54.46389543171073</v>
+        <v>52.0534598660297</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>45.57919965685359</v>
+        <v>44.2220368243057</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>53.15493606632356</v>
+        <v>50.18963141590338</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>50.29453476978031</v>
+        <v>48.29330621272093</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.97567361863057</v>
+        <v>31.66283045386988</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>54.6450567991173</v>
+        <v>51.60120558431257</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>59.53641184678055</v>
+        <v>55.51265718126324</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.44570708300894</v>
+        <v>32.04109444413635</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.62286245120195</v>
+        <v>38.57468893540288</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.71789799806665</v>
+        <v>41.33798504476029</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.46694349177041</v>
+        <v>40.0056626906673</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>58.81100982201941</v>
+        <v>54.90867895656243</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>54.77280542209303</v>
+        <v>52.24800352591144</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>8.640419733610351</v>
+        <v>13.62249876302711</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>62.78207816557158</v>
+        <v>57.57561798135885</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>60.09685508253594</v>
+        <v>57.19307972097324</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>74.78552948647697</v>
+        <v>69.23697605024856</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.00593720795862</v>
+        <v>68.92576767373362</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>78.26355894099957</v>
+        <v>71.94522314247315</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.35541183421294</v>
+        <v>36.90964195058835</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>71.67529239610025</v>
+        <v>65.83725427073735</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>73.24119607541208</v>
+        <v>67.72587907067108</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.51468559185067</v>
+        <v>20.81130215129131</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.08895476088841</v>
+        <v>32.20093315453715</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.42958214010615</v>
+        <v>36.11478792307675</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>6.651143786606138</v>
+        <v>11.54798742685794</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.02728776506483</v>
+        <v>26.00288341369181</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>42.40557026826455</v>
+        <v>41.33362777878944</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>6.605267124171828</v>
+        <v>11.8739573540489</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.99047422807178</v>
+        <v>49.16588635144682</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>58.56124234165333</v>
+        <v>55.05765319110783</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.48475219350919</v>
+        <v>52.28454975204328</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>59.63149325005433</v>
+        <v>55.51282469155311</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>64.58882637415996</v>
+        <v>60.25250752447042</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>14.42723502074256</v>
+        <v>17.60899854297972</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>59.70226165894255</v>
+        <v>55.61003436840792</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>64.59773820072257</v>
+        <v>58.14923389640686</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>15.01822770550734</v>
+        <v>18.48498424679764</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.33742630296888</v>
+        <v>33.81489086798054</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>34.36733037117946</v>
+        <v>35.29080230041374</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>5.053399555195913</v>
+        <v>11.97048332656457</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.28972091072263</v>
+        <v>32.03236659288844</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.86650109371047</v>
+        <v>32.38597639081566</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>5.264591394067665</v>
+        <v>11.98751237539983</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>45.37451122977388</v>
+        <v>43.88612639496584</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>51.36018630716789</v>
+        <v>49.15796845248825</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.77183260223946</v>
+        <v>42.41990583536469</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>50.5635512903122</v>
+        <v>48.49978823497376</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>47.95558281044595</v>
+        <v>46.60746882837383</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.93313219080054</v>
+        <v>15.02776105953505</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.78036410855522</v>
+        <v>32.41162284069347</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>56.39333682189736</v>
+        <v>53.24669799930287</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>15.24791569791294</v>
+        <v>18.63630600792224</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.57073590698561</v>
+        <v>35.74676702582465</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.69478997307389</v>
+        <v>39.58917792114798</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.220206905772883</v>
+        <v>12.22016843662848</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.39456219198718</v>
+        <v>37.04719639583379</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.20023882361622</v>
+        <v>41.53184117632448</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>6.262380070327179</v>
+        <v>11.85961133109657</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>53.25351491496573</v>
+        <v>50.24709587763093</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>58.89340918392124</v>
+        <v>55.70177685946059</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.06086330535717</v>
+        <v>56.98716055085696</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>66.05522383101777</v>
+        <v>61.62916393408965</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>74.25135551419449</v>
+        <v>68.8932556578538</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>7.939541754517698</v>
+        <v>12.69458734466292</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>63.04533404152458</v>
+        <v>58.80520072629805</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>71.22455323419825</v>
+        <v>66.2211731263526</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.72997139653389</v>
+        <v>20.69302990068332</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.76884368217942</v>
+        <v>22.91631183622361</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>18.67128980650732</v>
+        <v>21.61832263091237</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>8.641854197828941</v>
+        <v>13.62551440354224</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.14285442567535</v>
+        <v>23.23416006831469</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.43041675528781</v>
+        <v>23.41435643447941</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.87985574265942</v>
+        <v>15.36759184354502</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.10845866660994</v>
+        <v>27.90363323194709</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.58362236063792</v>
+        <v>29.79627539340037</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.11823300630122</v>
+        <v>28.34163530993536</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.16310301874294</v>
+        <v>31.58081487696736</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.77114039400688</v>
+        <v>34.18989677869124</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.25839091595093</v>
+        <v>23.07296660249192</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.14657124231939</v>
+        <v>27.27450625273344</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.72384141067906</v>
+        <v>27.75053502571309</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>14.24617326290127</v>
+        <v>17.58875080826757</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.7297983378311</v>
+        <v>31.12212662170788</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.54508229514397</v>
+        <v>35.6638787544703</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>8.191032049412787</v>
+        <v>12.78837875799959</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.35107446781036</v>
+        <v>32.83733504107686</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.98470243059115</v>
+        <v>38.234877801686</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>8.579061372325004</v>
+        <v>13.14897041415367</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.94914295481876</v>
+        <v>44.67592676871467</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.03568884242883</v>
+        <v>52.78001436709806</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.31389472246382</v>
+        <v>42.06136202828346</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.88061197192372</v>
+        <v>46.19918524215514</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>51.60516710133302</v>
+        <v>49.32104214556377</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>13.81382641875261</v>
+        <v>16.68046289987463</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>47.48105996044407</v>
+        <v>44.02119962486253</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>55.18525572250739</v>
+        <v>51.9738856691846</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.6340667264561</v>
+        <v>22.04662906200943</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.56144314758323</v>
+        <v>36.48764390573248</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.74475224609684</v>
+        <v>42.65822437617116</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>9.205063776439239</v>
+        <v>13.82657282851484</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.65575720329064</v>
+        <v>38.52266842665062</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>45.90665219498324</v>
+        <v>44.19939132404673</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>13.01154634402771</v>
+        <v>17.10065546170746</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>53.85910878094766</v>
+        <v>50.42861041269259</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.22844580918273</v>
+        <v>60.51861609255588</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.93254914968722</v>
+        <v>50.4024062634488</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>56.93785078161419</v>
+        <v>53.34885885034343</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>74.68751758553014</v>
+        <v>68.52463025407503</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>27.47611314574525</v>
+        <v>29.07048506801777</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>54.65901282797806</v>
+        <v>50.9635558386334</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>68.51583312606292</v>
+        <v>63.55274717749745</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.23574065642499</v>
+        <v>19.06817679686111</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.10979469519076</v>
+        <v>19.80730259725931</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.27199706635303</v>
+        <v>20.70728178905387</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>6.669036901384871</v>
+        <v>11.77885747385124</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.10537500960006</v>
+        <v>26.89628346929262</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.6813059797846</v>
+        <v>27.01862194055106</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>7.264524195795683</v>
+        <v>12.24358063972381</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.18899880672222</v>
+        <v>34.42522228404216</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.76415491618866</v>
+        <v>33.12185349293263</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.16301643717298</v>
+        <v>36.22326178421125</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.05062721704481</v>
+        <v>41.97863830781021</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>42.35413358121949</v>
+        <v>44.59398289750188</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.63614832540406</v>
+        <v>22.10790958490864</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>40.02020068813692</v>
+        <v>42.24857571163041</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>47.08976046522616</v>
+        <v>44.24412679467302</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.49879677041946</v>
+        <v>13.46698993510615</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.73238015960302</v>
+        <v>22.46592045767436</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.65106892558523</v>
+        <v>33.94656367841583</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>7.007801172876992</v>
+        <v>12.22032582232958</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.90738365662844</v>
+        <v>19.70016610126017</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>48.49735095129893</v>
+        <v>47.23516075780869</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>5.183692281633775</v>
+        <v>10.6293373511063</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.25511920318029</v>
+        <v>27.82808130389913</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.08806791131737</v>
+        <v>48.26116811453701</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.16955035136991</v>
+        <v>30.35421182604675</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.05857224010138</v>
+        <v>40.74077013703427</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>52.14010727307668</v>
+        <v>49.81527946042664</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.166496097620911</v>
+        <v>13.70424328417043</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.11716405927771</v>
+        <v>40.51300220571635</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.23099953418652</v>
+        <v>51.39166063694838</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.63339271319535</v>
+        <v>20.48538733012174</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.51890960671351</v>
+        <v>30.88692348576667</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.56546598026537</v>
+        <v>38.18998526677523</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.896324974969101</v>
+        <v>12.61195631074657</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.38193684170279</v>
+        <v>23.52260120177813</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>40.74948895710476</v>
+        <v>41.13597447806806</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>6.264948378928015</v>
+        <v>11.47476774271923</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.563588095462</v>
+        <v>34.13279344899041</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.17636203102489</v>
+        <v>54.73230120837051</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>57.48922397028322</v>
+        <v>49.94802246487009</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>59.17098336114962</v>
+        <v>51.77297051376949</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.40552085591166</v>
+        <v>66.83364045859625</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.76406361205305</v>
+        <v>18.44321281809586</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>44.43313489347762</v>
+        <v>40.37762985773452</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>65.41431987268123</v>
+        <v>60.95788933731264</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.73750333698523</v>
+        <v>27.53745052361775</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.60486569034669</v>
+        <v>31.09412955005593</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.56385220948685</v>
+        <v>34.6721866915258</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.059835310933611</v>
+        <v>13.51245873738884</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>45.39781619744563</v>
+        <v>43.65106473950959</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.02237507301143</v>
+        <v>42.69412463155066</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>12.83875504155491</v>
+        <v>17.35216366761815</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.91811107823231</v>
+        <v>55.88989138790799</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>57.89395606216296</v>
+        <v>54.63716494026428</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>54.2743626512667</v>
+        <v>49.46396832058396</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>58.35394534131721</v>
+        <v>55.49285789957851</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>60.61472570359219</v>
+        <v>57.63194254986944</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.98839495769461</v>
+        <v>36.18062340993392</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>40.59952507118195</v>
+        <v>45.32878114305417</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>67.91970370024224</v>
+        <v>62.15595957721639</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.13732953976384</v>
+        <v>29.88489093559057</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.71916132630987</v>
+        <v>36.64211492860698</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.45632530248367</v>
+        <v>37.06975242658506</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.798170009973344</v>
+        <v>12.86359375131013</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.13214003733665</v>
+        <v>37.63166515704666</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.22027284205938</v>
+        <v>36.02952093619388</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>8.010683210713033</v>
+        <v>12.98774082821862</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>53.15678729555869</v>
+        <v>50.19281182211254</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>52.72598506989139</v>
+        <v>50.5243895905465</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>50.21420880564062</v>
+        <v>47.66681436785779</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>51.53278840506803</v>
+        <v>49.42929018069674</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>53.16202474617074</v>
+        <v>50.91399400879041</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.68856706610929</v>
+        <v>30.52701804260108</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>56.52837532199465</v>
+        <v>53.11049346266213</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>56.24860386257318</v>
+        <v>53.16508088268725</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.17200032146241</v>
+        <v>28.4758179095367</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.63612790053406</v>
+        <v>37.51843786567849</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>40.52965941155118</v>
+        <v>39.87059546338828</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>8.473817894214026</v>
+        <v>13.28718552982775</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.46931437910935</v>
+        <v>42.70844504882783</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.54476069240352</v>
+        <v>40.82200144083495</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>7.898341897467404</v>
+        <v>12.90677157768857</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>62.8669447021765</v>
+        <v>58.76063468206298</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>63.33487159000168</v>
+        <v>59.77530192049164</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>71.35006382501072</v>
+        <v>65.05254500782829</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>71.54761894093787</v>
+        <v>66.16686186654273</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>71.76162605252</v>
+        <v>66.30713407484853</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>34.49443034786082</v>
+        <v>33.9222584333285</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>65.49706083693647</v>
+        <v>59.66312773479493</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>69.27035361916282</v>
+        <v>63.36784939504236</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>18.4930743828234</v>
+        <v>20.80792596249337</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.17379933228118</v>
+        <v>34.48038378804581</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.31870291108059</v>
+        <v>34.75486303150497</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>7.663980816143155</v>
+        <v>12.43500187982974</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.88274908655609</v>
+        <v>35.93912019076091</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.02806987847293</v>
+        <v>41.01942537365949</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>6.651407774209027</v>
+        <v>11.79656859387027</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>53.11320213714251</v>
+        <v>49.1732415830411</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>56.20189284888845</v>
+        <v>52.68891382090233</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>52.18064056777132</v>
+        <v>49.64930930254037</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>61.4133298182558</v>
+        <v>56.80317847272525</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>59.8823348424447</v>
+        <v>56.29179882494317</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>13.83170254315823</v>
+        <v>17.3953548161794</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>57.06976059793834</v>
+        <v>52.58695560620825</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>62.85437790800673</v>
+        <v>57.45368730340267</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>14.31690545748807</v>
+        <v>18.23623955787557</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.38222872651609</v>
+        <v>33.32738542264713</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.19129653973236</v>
+        <v>34.73145442110116</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>5.367611427196074</v>
+        <v>12.12360228680412</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.32837718785083</v>
+        <v>31.24737516670395</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>32.21762365600833</v>
+        <v>33.38594304160649</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>4.97343810055845</v>
+        <v>11.88546232452682</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>43.07801343557207</v>
+        <v>42.26392765300922</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>50.80540151008955</v>
+        <v>48.98875030204177</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>45.46375098981789</v>
+        <v>44.28815122503433</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>49.87154136322084</v>
+        <v>47.79505811958407</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>51.54623203811338</v>
+        <v>49.49615372582566</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>11.99879840926491</v>
+        <v>15.88149516654044</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>54.45236151065461</v>
+        <v>50.89128802593269</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>55.45424959193663</v>
+        <v>52.26793944328041</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>14.78745641141786</v>
+        <v>18.2649640881767</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.15450623807072</v>
+        <v>34.3031644062329</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.16350191246325</v>
+        <v>39.88461166814478</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>6.848952480669556</v>
+        <v>12.43031536861572</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>37.23256401057836</v>
+        <v>36.82525495889998</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.98564293727844</v>
+        <v>41.41263230136233</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>6.236846574144099</v>
+        <v>11.54233778202274</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.44517683750819</v>
+        <v>47.23961530978752</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>60.68800943730172</v>
+        <v>57.57964657167165</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>55.00724909610406</v>
+        <v>52.2065685233033</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.14560243660526</v>
+        <v>58.19225527694245</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>72.77537952381705</v>
+        <v>67.5012312559075</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>11.80283259636906</v>
+        <v>16.22662493365077</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>56.41645223819095</v>
+        <v>53.03465162134081</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>66.92083214728063</v>
+        <v>62.24723961268239</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.474</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.2</v>
+        <v>17.61</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.475</v>
+        <v>-0.832</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.286</v>
+        <v>23.72</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.678</v>
+        <v>4.46</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.08016876734301</v>
+        <v>17.99903458551939</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.19802227173572</v>
+        <v>15.70394478400523</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.69698586115906</v>
+        <v>18.29433146912364</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13.33520629294035</v>
+        <v>3.446747235579231</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.50518008022044</v>
+        <v>20.07984849886601</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.98174881949079</v>
+        <v>23.3740850909147</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15.30050682285173</v>
+        <v>5.714403485993159</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.31341944514394</v>
+        <v>26.73739698579841</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.39713905056848</v>
+        <v>27.16136704635768</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.53248730951617</v>
+        <v>23.15043711049093</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.78842894664793</v>
+        <v>29.17881708955438</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.06249150466225</v>
+        <v>27.86454247300979</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.0389428435366</v>
+        <v>17.67338135142625</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.41303945637396</v>
+        <v>26.09907314753358</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.55133101614117</v>
+        <v>28.03964940078366</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22.01693756920228</v>
+        <v>20.10282222895661</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.84340020313523</v>
+        <v>34.29246224841665</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.11332278986652</v>
+        <v>41.86063524934895</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.05780142513433</v>
+        <v>10.30096532383743</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.74087634455547</v>
+        <v>31.7492404960077</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40.34454486002431</v>
+        <v>46.38569156535201</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.14264147095563</v>
+        <v>10.72341014551033</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>47.26578865844282</v>
+        <v>48.4515447910612</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>61.29409361438582</v>
+        <v>66.49194736423507</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>49.86928832575491</v>
+        <v>50.16005915521629</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>57.4281860382293</v>
+        <v>61.05468974293353</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60.14108406741627</v>
+        <v>68.64597140094554</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.2461384254215</v>
+        <v>21.0671487852743</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>60.95466300036401</v>
+        <v>66.67775538687931</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>65.49094324929369</v>
+        <v>71.95453834490843</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.97668845885825</v>
+        <v>27.21939697097973</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44.12792789649858</v>
+        <v>44.63488396223703</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.01016384005138</v>
+        <v>49.84837975478507</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>14.18220972445533</v>
+        <v>12.82971776629777</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.85124898621526</v>
+        <v>40.19559748500123</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.800289384227</v>
+        <v>52.89936053922838</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20.33533228362425</v>
+        <v>15.33914918395966</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>63.31589823207592</v>
+        <v>68.466988367352</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>65.10447524359829</v>
+        <v>74.86247129631144</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>66.19874479183341</v>
+        <v>73.72892468444353</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73.2323434216695</v>
+        <v>84.52908501954948</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>76.60795834128841</v>
+        <v>89.61065201823885</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.56467036148506</v>
+        <v>36.04335571741603</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>76.09965051736728</v>
+        <v>86.47970119932009</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>75.71005701268344</v>
+        <v>86.4170892346485</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.41734954081141</v>
+        <v>13.97951269055615</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.89105160175699</v>
+        <v>41.02306060743829</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.25007731540541</v>
+        <v>41.60763477528252</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.39218975092857</v>
+        <v>6.727747751150169</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>41.34893536104537</v>
+        <v>42.60648268108957</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>46.47541175727592</v>
+        <v>46.21384381598738</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>12.79455849532111</v>
+        <v>6.471597886449214</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.85986685931436</v>
+        <v>60.69705017628874</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>57.61473449066595</v>
+        <v>59.75900493388365</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50.1486284950272</v>
+        <v>56.2277548861552</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50.17723804739106</v>
+        <v>61.62578389795474</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55.21060869042652</v>
+        <v>60.63969920407276</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.95626395319602</v>
+        <v>14.34880309939015</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>56.24139042621455</v>
+        <v>58.85108048494797</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>60.77518334889923</v>
+        <v>64.20654405221316</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.98245292366199</v>
+        <v>15.45351585841633</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.98777098696877</v>
+        <v>37.91859305527582</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.81406786336787</v>
+        <v>43.12486780730887</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12.64375533867107</v>
+        <v>7.672056171677784</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.63555111066477</v>
+        <v>33.90962537697607</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.94722734111976</v>
+        <v>44.11793035919123</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.8733505240868</v>
+        <v>9.180606177853779</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>52.44186685911149</v>
+        <v>55.87462492390256</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>65.75045328373334</v>
+        <v>69.63498261979107</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.30454499409515</v>
+        <v>51.49237239012353</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>57.48393297288756</v>
+        <v>64.08648801631693</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>63.0000428529638</v>
+        <v>67.08821576468935</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.44745703962709</v>
+        <v>12.40607450244036</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>60.60925695993005</v>
+        <v>64.78534215410257</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>67.01112265810507</v>
+        <v>71.76404142820726</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.8693836173218</v>
+        <v>14.68206076428905</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.2414042847174</v>
+        <v>44.72978728660357</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.84288206486525</v>
+        <v>46.98069109647972</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>12.4381999973653</v>
+        <v>6.084982569585591</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.83430671343966</v>
+        <v>43.08249631505864</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>49.82780819352148</v>
+        <v>50.48248189732291</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.7737532424828</v>
+        <v>7.876696221935617</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>62.4793989302607</v>
+        <v>69.67384914531365</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>68.73349681443351</v>
+        <v>73.37519882035485</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>67.36874706096376</v>
+        <v>73.87893892259834</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>76.2084668641904</v>
+        <v>87.38775206131945</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>77.75623653553964</v>
+        <v>86.47991510694158</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>14.99327827545259</v>
+        <v>11.90349053592943</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>71.88047617053192</v>
+        <v>81.35758760308141</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>75.48339664273811</v>
+        <v>83.76770659436454</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.28784175209523</v>
+        <v>29.87492343606142</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.86853062236532</v>
+        <v>42.0025445842798</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.45348837159091</v>
+        <v>43.45130027854756</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13.0720906301773</v>
+        <v>11.20958159142718</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.70968087888296</v>
+        <v>45.37128768128583</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.88979369064598</v>
+        <v>48.28138110940989</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.16443035065167</v>
+        <v>11.36436603437255</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>61.36816694689543</v>
+        <v>65.58541518114978</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57.10408244378639</v>
+        <v>59.91315391870049</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.23075990756109</v>
+        <v>56.41684032920637</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>61.73218952906645</v>
+        <v>66.31164300147663</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>60.8540410712324</v>
+        <v>64.7838326645776</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>32.25701287318206</v>
+        <v>30.83335481150877</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>57.53425861049369</v>
+        <v>60.40603934223836</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>59.10916351764503</v>
+        <v>64.67426211406024</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.9604425613312</v>
+        <v>25.51171648160761</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.78114111328297</v>
+        <v>44.21237486045753</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.19609061800418</v>
+        <v>46.23470691143792</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12.62042183656632</v>
+        <v>9.536797437716906</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.55918473812935</v>
+        <v>41.40255861426074</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>41.51080264912403</v>
+        <v>45.37212799018843</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>13.65610029087707</v>
+        <v>10.54713533457782</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>58.19202935336796</v>
+        <v>64.30209321775921</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>66.37137179240457</v>
+        <v>69.68346935498677</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>51.80300877881798</v>
+        <v>57.61374068288976</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>60.57214470316988</v>
+        <v>67.84752274096405</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>62.85078063280082</v>
+        <v>66.96991928570279</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.23317449674263</v>
+        <v>27.87732334730163</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>61.42443646340803</v>
+        <v>68.31111075137042</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>64.15169309294546</v>
+        <v>69.54528052599042</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.12979137858122</v>
+        <v>32.66204549478966</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>47.20301382323562</v>
+        <v>51.32049406051529</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.12708048150667</v>
+        <v>51.88901315023438</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.10640581114922</v>
+        <v>10.49101631549503</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>47.15890883999059</v>
+        <v>50.81258380743298</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.4395714490182</v>
+        <v>52.02295100154141</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>14.22371082319367</v>
+        <v>11.44019306609515</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>65.7652129046904</v>
+        <v>76.13757860760526</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.77178757008826</v>
+        <v>73.54902540522832</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>69.68390337940875</v>
+        <v>80.02720299846627</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>71.60795534693142</v>
+        <v>86.33403873267191</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.36351979221554</v>
+        <v>88.96120767486485</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.91435961580027</v>
+        <v>34.72228713039514</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>72.52122804055281</v>
+        <v>85.29796466124156</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.44794107326517</v>
+        <v>86.09469192538312</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>21.04848395256298</v>
+        <v>19.08546416902733</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.03384869106543</v>
+        <v>19.71475659456999</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.91122436039809</v>
+        <v>20.22080998883848</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>14.2128272106094</v>
+        <v>4.984456252860976</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.61927736066519</v>
+        <v>23.55575913843968</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.29540052916435</v>
+        <v>23.78094533584881</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.5198045354764</v>
+        <v>7.069360250959033</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.42967528590983</v>
+        <v>30.71755333625456</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.50926594264749</v>
+        <v>28.41886884505205</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.67764280436444</v>
+        <v>25.95854829158529</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.60825864825704</v>
+        <v>29.19193818314935</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.51646635501705</v>
+        <v>31.58484449242541</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>58.14649330774574</v>
+        <v>63.72293071602522</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>60.65778617203081</v>
+        <v>65.1147729497243</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>58.67859705503562</v>
+        <v>62.54437260415339</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.50444211880591</v>
+        <v>17.3752609536256</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.75220984403456</v>
+        <v>36.37592053964682</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.27486606095414</v>
+        <v>41.20924010700128</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.98873664530874</v>
+        <v>9.921032131690925</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>39.92210587156102</v>
+        <v>36.68062399847726</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.91115388022978</v>
+        <v>49.21857569096714</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.37267824453872</v>
+        <v>13.34718732316257</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>51.62817075182659</v>
+        <v>50.83666700026035</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>60.51626351044144</v>
+        <v>67.5410625827144</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.89950469309262</v>
+        <v>44.73570006668285</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>50.33193899449135</v>
+        <v>53.36391826568828</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>58.14695766856978</v>
+        <v>65.27129530055717</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.75256518186454</v>
+        <v>18.70525815913549</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>56.01182886460441</v>
+        <v>62.67501760564604</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>61.54150554509467</v>
+        <v>68.14452112970773</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.42677783635144</v>
+        <v>29.2727739053867</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.89814467892724</v>
+        <v>45.62061471120755</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.97837605314437</v>
+        <v>52.31080823725112</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.97734221491464</v>
+        <v>12.97676160165865</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>43.68967086293704</v>
+        <v>42.98236769384157</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.56489845779803</v>
+        <v>50.44174591140777</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20.68055903017981</v>
+        <v>17.42717459352526</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>60.27384743968101</v>
+        <v>65.39824334533161</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>64.0857534735856</v>
+        <v>74.58221448872465</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.65823175515537</v>
+        <v>64.79612925334433</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>66.78650262114678</v>
+        <v>74.28939234310184</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>73.42407766441937</v>
+        <v>87.46244975772021</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35.39088730118276</v>
+        <v>38.50726123801626</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>68.67393399457663</v>
+        <v>78.45422601032324</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>71.57743324260554</v>
+        <v>82.89423150812721</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>30.22919215501885</v>
+        <v>28.07394251634214</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>45.84529208430475</v>
+        <v>43.56548356899317</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>42.98065255519847</v>
+        <v>41.02294309727097</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.59081734441964</v>
+        <v>10.82809839052964</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.51818948135514</v>
+        <v>46.43175089997641</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>48.38359290303515</v>
+        <v>49.55484152709427</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>15.48028219827657</v>
+        <v>12.78418747780963</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>69.3806104011245</v>
+        <v>70.6923171312643</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>60.54856128987974</v>
+        <v>63.10963443605648</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>51.65539762697817</v>
+        <v>57.18920594677925</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>60.9354910634862</v>
+        <v>69.45018105412066</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>64.01009478233732</v>
+        <v>70.4860999552957</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.09735073734901</v>
+        <v>24.81277861945219</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13.03650286219161</v>
+        <v>15.46096961425756</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.57113922745178</v>
+        <v>16.92605173465638</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.57809404498962</v>
+        <v>32.35131523006627</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>46.46349407935105</v>
+        <v>50.61597317859103</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>44.49857789304551</v>
+        <v>49.64712833881899</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.97551184332299</v>
+        <v>10.95325593490018</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>43.964297338535</v>
+        <v>46.34171693431286</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>46.55530073661151</v>
+        <v>51.16631004624215</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.58790171002715</v>
+        <v>12.91101418814114</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>62.94049736371359</v>
+        <v>69.6403722723191</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>64.05550818745637</v>
+        <v>70.72631443542411</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>60.12015214981442</v>
+        <v>68.65261516954607</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>63.4772317632719</v>
+        <v>74.55516808042074</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>65.02519843881001</v>
+        <v>75.9243032515928</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.34891349993308</v>
+        <v>41.62352149367594</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>68.69556390781065</v>
+        <v>76.69428386270373</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>69.91218747959299</v>
+        <v>76.11866047804922</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>39.87926186817811</v>
+        <v>37.18379652645398</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>48.96032864418038</v>
+        <v>53.58951759257189</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.2193194818377</v>
+        <v>54.67084294748762</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13.66268064285406</v>
+        <v>11.57516763976567</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.58162292240682</v>
+        <v>48.26656310443426</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>46.92163117508553</v>
+        <v>52.01925194293391</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>15.30583783184446</v>
+        <v>14.40068663764308</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>67.68755597599419</v>
+        <v>75.58023181473277</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>65.33887967288888</v>
+        <v>77.36352865436004</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>71.45198601328315</v>
+        <v>83.3344379745856</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>74.89535855431666</v>
+        <v>86.83925381781859</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>75.49052821679943</v>
+        <v>90.26475327884508</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>50.17422979839738</v>
+        <v>52.67667184505211</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>77.30390746143161</v>
+        <v>89.04980883671612</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>74.69025821519102</v>
+        <v>83.98459474197378</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.80191742217453</v>
+        <v>22.65075051479042</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.39854733505527</v>
+        <v>35.52083157616015</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>40.41990724809105</v>
+        <v>39.4082446482181</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>12.43981230841925</v>
+        <v>9.580593145138604</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.52264636935587</v>
+        <v>44.55906264453459</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>49.31044289595282</v>
+        <v>47.48918139908528</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.36458140076445</v>
+        <v>10.47710352155082</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.69432039822146</v>
+        <v>68.63070330227163</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>61.00995235169241</v>
+        <v>64.09748521162402</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.74305499538264</v>
+        <v>59.93350602236818</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>58.2548781469882</v>
+        <v>65.76061065991929</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>59.13385155676585</v>
+        <v>67.42035859187166</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>22.74792075790952</v>
+        <v>17.45714684790168</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.73117369020839</v>
+        <v>10.47842199491811</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>12.34875862155377</v>
+        <v>9.803982093211165</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.15728867679678</v>
+        <v>27.20618145698445</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>45.47900251196791</v>
+        <v>48.09707295735645</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>47.60438452594252</v>
+        <v>49.84369863851053</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12.72538198081039</v>
+        <v>10.03344881071666</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.19048240972129</v>
+        <v>46.31304654571506</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>46.79952638698479</v>
+        <v>50.20492080419863</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.18273311273726</v>
+        <v>11.4569444240484</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>62.85968706373785</v>
+        <v>70.00613275341807</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>66.45516303629512</v>
+        <v>72.13335122525194</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>52.05947683589356</v>
+        <v>55.73144666541569</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>62.89992910604543</v>
+        <v>70.12728081078582</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>67.15699664463946</v>
+        <v>72.37393212505211</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.0040858953829</v>
+        <v>25.7765675945415</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>68.98396280434869</v>
+        <v>75.38399650568215</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>71.74774670701608</v>
+        <v>78.26414921403446</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.64724604090035</v>
+        <v>27.76301764214396</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.12367412036318</v>
+        <v>48.05835563118345</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>48.49226061589123</v>
+        <v>50.14819853370901</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>12.80115818946366</v>
+        <v>9.620159641733988</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.83962309774127</v>
+        <v>47.61883490787447</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>46.26790433605493</v>
+        <v>49.04300695391829</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.70530871518906</v>
+        <v>10.88830382648861</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>64.6750260185777</v>
+        <v>72.90760581845223</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>65.77526993673067</v>
+        <v>70.89847526792556</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>66.76827321182377</v>
+        <v>74.01281058182234</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>71.82243258740169</v>
+        <v>81.65715500100069</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>73.46807573155715</v>
+        <v>82.57842511713778</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.21864872925202</v>
+        <v>26.05414412290519</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>70.74684861235032</v>
+        <v>81.89927059975386</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>73.71219202078105</v>
+        <v>81.23897706311382</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.753502556627</v>
+        <v>11.52143294068409</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>19.22860639471376</v>
+        <v>11.31829004467664</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>18.38880551976969</v>
+        <v>13.72443481304979</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>13.56865137334896</v>
+        <v>2.404515452742732</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.65147373397968</v>
+        <v>16.51187372491675</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.95542223781294</v>
+        <v>19.68000676758176</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>13.84682177347717</v>
+        <v>2.843997344246063</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.82441608215937</v>
+        <v>22.53474547177546</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.08912307970749</v>
+        <v>23.11685369562357</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.47508219544714</v>
+        <v>24.39315330639778</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.76558678754915</v>
+        <v>30.60788299935789</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.08745609376204</v>
+        <v>31.97433353294868</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19.08265933320447</v>
+        <v>14.23529807952982</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.58181412576959</v>
+        <v>20.05950255649857</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>24.55846087008615</v>
+        <v>21.2902073222844</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.54748328051794</v>
+        <v>16.02288265877618</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.79229206990933</v>
+        <v>29.29476138574431</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.83766256704725</v>
+        <v>34.81414747554854</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>12.42867876862814</v>
+        <v>8.198941690128816</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>32.29350965867099</v>
+        <v>28.17279335426014</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.09796241553615</v>
+        <v>37.77436642544946</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.12944339175585</v>
+        <v>9.108608753100594</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.07981262045358</v>
+        <v>43.1067363912961</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.56135221750046</v>
+        <v>54.44034605231187</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.1695640384825</v>
+        <v>40.38294527686725</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.32441302400448</v>
+        <v>50.10739610162646</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.66514983420552</v>
+        <v>51.65821775661172</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>18.33987429782471</v>
+        <v>17.94289677300448</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>45.59137973303172</v>
+        <v>49.86897591488788</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.09024585542451</v>
+        <v>53.35853561878293</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.71031067266312</v>
+        <v>20.28703144456947</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.61034867883792</v>
+        <v>38.68133741748969</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>43.38231543710292</v>
+        <v>42.97920331716259</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>12.85099362087864</v>
+        <v>10.5833999185176</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.91985395063776</v>
+        <v>40.8745638481179</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>45.96203429855728</v>
+        <v>47.43816243007932</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>14.5965661748977</v>
+        <v>13.11039362521089</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>57.11804279010414</v>
+        <v>63.71443735879602</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>58.52807471425634</v>
+        <v>65.41441285344025</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>58.99401611555869</v>
+        <v>68.19663940759312</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>65.3808965647999</v>
+        <v>76.17033545050943</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>67.96928510479887</v>
+        <v>77.95614686514048</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>34.8859750602502</v>
+        <v>32.56715517673753</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>66.10355187549366</v>
+        <v>76.54359223424704</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>70.96863522079681</v>
+        <v>81.91949187322784</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>17.20028194185329</v>
+        <v>13.70806265295857</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>18.55536860706079</v>
+        <v>12.55811773705375</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.67519951426051</v>
+        <v>12.97540370486055</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>11.9647926674824</v>
+        <v>2.021302219368287</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.43916036612166</v>
+        <v>15.40057591811813</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.10507107007894</v>
+        <v>17.90022719282677</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>12.98069029402827</v>
+        <v>2.344068276020035</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>19.62571578112745</v>
+        <v>17.9433767988913</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.00515235818487</v>
+        <v>14.19754325566965</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>20.65399919902379</v>
+        <v>13.2095289192457</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>21.38406234784523</v>
+        <v>15.56700816228533</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>20.52297706953723</v>
+        <v>13.05629908818977</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>17.99112607466797</v>
+        <v>14.66405795227488</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19.08057552719349</v>
+        <v>16.04590915771276</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.86015305409107</v>
+        <v>17.47193264121952</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>12.35021617430688</v>
+        <v>7.660994906128543</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>15.55041169994903</v>
+        <v>11.45861983725528</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>17.53835441940597</v>
+        <v>14.60378951589286</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.69693795043624</v>
+        <v>1.017414885549329</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.34694880410058</v>
+        <v>11.49444420050732</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>19.41189399336748</v>
+        <v>16.93552535048641</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>10.25913360425508</v>
+        <v>0.7084535936923473</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>19.05992399899205</v>
+        <v>15.92641007573473</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.3487401979943</v>
+        <v>26.27961113939801</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.1761687232001</v>
+        <v>11.52665854428452</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.36067142969218</v>
+        <v>23.17928805256008</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.17191890053418</v>
+        <v>34.42254873098553</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>11.97164879277954</v>
+        <v>4.273816322418025</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.2526661391345</v>
+        <v>22.2819437741009</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.28856106450106</v>
+        <v>18.26548040952861</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.93813840814302</v>
+        <v>9.031381310399528</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.99685039541754</v>
+        <v>17.69661994291137</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.68714157433642</v>
+        <v>33.74658047131506</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>11.28536981966546</v>
+        <v>2.216454416723458</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>19.97410130041975</v>
+        <v>17.8756434111561</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.10125816160789</v>
+        <v>34.77649135848293</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.89743632888755</v>
+        <v>2.142326620982118</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.65742486971433</v>
+        <v>26.76051676287569</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>56.36676401275534</v>
+        <v>59.62907505761939</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.13311864331124</v>
+        <v>24.48455691793798</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>46.28461919732047</v>
+        <v>49.24874968130216</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>65.0457037976114</v>
+        <v>69.89859770822675</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.69720981826076</v>
+        <v>8.084401063602179</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.35023781185852</v>
+        <v>34.10576423538106</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>46.34338425486746</v>
+        <v>43.13411455930592</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.62876954669059</v>
+        <v>18.98965358120615</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.94057240058642</v>
+        <v>26.41735481068903</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.29928271487873</v>
+        <v>39.07834091228338</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.34712332010736</v>
+        <v>10.3676345959901</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.96043693620609</v>
+        <v>44.97774435351186</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.8307617617854</v>
+        <v>51.03428440836282</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>18.63723709832515</v>
+        <v>11.86657096923045</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>57.18464177574977</v>
+        <v>63.57905633383773</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>57.22467512686223</v>
+        <v>65.2411229521841</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>54.31315447838291</v>
+        <v>60.79350497059801</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>61.48345199224565</v>
+        <v>70.91060199694485</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>59.43357175233614</v>
+        <v>69.69742098834985</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>38.77706340731529</v>
+        <v>32.41251524317067</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>52.4529531746311</v>
+        <v>56.56089355751244</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>63.81911199846625</v>
+        <v>72.49298535282938</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.21481620413113</v>
+        <v>21.49357106387321</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.81115509181257</v>
+        <v>35.27034804397393</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.68320219353421</v>
+        <v>38.96827876282579</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>12.78004881296345</v>
+        <v>8.051540764886962</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.66242869888518</v>
+        <v>35.44220779118468</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.71695102177132</v>
+        <v>38.77250014051141</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>13.91837489508628</v>
+        <v>9.4658538804701</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>48.6311808370518</v>
+        <v>54.30328544737571</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>50.37871535707969</v>
+        <v>59.33867639960929</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.73241198383033</v>
+        <v>48.23129444741075</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.79230198874502</v>
+        <v>55.51222827598119</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>48.57785643570696</v>
+        <v>55.44688242007852</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.79944088912291</v>
+        <v>28.97148909091149</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>52.09119072640844</v>
+        <v>60.58375601225632</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>52.50483284038513</v>
+        <v>61.7345008740644</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.39996463084534</v>
+        <v>22.56204463967116</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.03356705173855</v>
+        <v>38.88097350688679</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.09951598871667</v>
+        <v>43.51010363045961</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>13.05939260206072</v>
+        <v>10.00240015730729</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.21833479106629</v>
+        <v>45.78470935754761</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.98080614107909</v>
+        <v>47.72916159700738</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.2759403013855</v>
+        <v>12.2817866075345</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>60.18286462622513</v>
+        <v>68.44387257111093</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>61.35610501821768</v>
+        <v>67.99849794143637</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>61.95110113646233</v>
+        <v>71.00251575187596</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>66.98395469244184</v>
+        <v>77.17494130973907</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>67.30853964559849</v>
+        <v>78.73285299750769</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.22422714165002</v>
+        <v>34.03582372964421</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>65.08902462656292</v>
+        <v>75.89323268243048</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>69.49809277697335</v>
+        <v>82.20199591137032</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.14766751838953</v>
+        <v>11.58744502178681</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.84745630089977</v>
+        <v>15.15306841503091</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>18.26689416565787</v>
+        <v>16.01025065448677</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>13.09610986183722</v>
+        <v>2.310544144407881</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.88376929527248</v>
+        <v>11.92574264912673</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.82715937585188</v>
+        <v>17.72612919923033</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>13.316067135113</v>
+        <v>1.937612992291186</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.23874176108137</v>
+        <v>20.53147479515854</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.96912998334311</v>
+        <v>20.85487360256099</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.32219994380048</v>
+        <v>19.31699159343071</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.51436615076072</v>
+        <v>23.73144096580486</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.0713687399932</v>
+        <v>24.11655668913504</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>16.2592600711953</v>
+        <v>11.99566508038412</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.466453558554</v>
+        <v>19.71857731216812</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>22.65601005883789</v>
+        <v>23.27149091513384</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>14.96536765892133</v>
+        <v>11.01438672935063</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.20119971947825</v>
+        <v>23.33164149092155</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.81341348055262</v>
+        <v>30.48347325860038</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.69708036099414</v>
+        <v>6.086336376479018</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.36755681918789</v>
+        <v>20.01308191879051</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.062728050865</v>
+        <v>32.53978673140365</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>11.96139308063948</v>
+        <v>6.671980756493443</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>37.0454700119004</v>
+        <v>32.98636079563084</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.0077615884445</v>
+        <v>48.00904569734504</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>30.20636824280255</v>
+        <v>24.75911745649091</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.47435838329012</v>
+        <v>37.35924044948898</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>37.90043174058239</v>
+        <v>38.83524288565867</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>14.55511600422634</v>
+        <v>9.162263021351176</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.01364604532309</v>
+        <v>35.95035685221445</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>39.51992120711267</v>
+        <v>43.71152898612628</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>20.69001084013687</v>
+        <v>19.24047571426573</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.23132503009056</v>
+        <v>33.74321199516082</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>40.91389846404926</v>
+        <v>42.87200636760943</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>14.85079770584195</v>
+        <v>10.98784165467147</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.82224884209846</v>
+        <v>30.93415758640194</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.759194630397</v>
+        <v>43.0507311887657</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.30466286014294</v>
+        <v>14.70914752878014</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.5141951605471</v>
+        <v>47.34463154820375</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>53.40246862360502</v>
+        <v>60.63431271144526</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.02111461658131</v>
+        <v>48.41282665845009</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>58.06953882356414</v>
+        <v>59.1823926541869</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>66.59814119640271</v>
+        <v>76.24986610273785</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.1789167998462</v>
+        <v>26.93194647555642</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>53.89258555747814</v>
+        <v>58.63210988782014</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>59.82039851669193</v>
+        <v>68.07502217606802</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.43717071339452</v>
+        <v>7.58991728625104</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>12.37608486423533</v>
+        <v>6.438331878430564</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.59447560467236</v>
+        <v>9.994400854586804</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.63293977715191</v>
+        <v>-0.2947920357075446</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.6607644102887</v>
+        <v>8.218349098072572</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.11490886772255</v>
+        <v>13.38443159333795</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.175658466771711</v>
+        <v>-2.111807035015609</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.65020200100522</v>
+        <v>8.407217192209753</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.31855032490763</v>
+        <v>13.26819884769905</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.65493000852943</v>
+        <v>5.629707337867732</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.01395325169369</v>
+        <v>5.978173772268033</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.56545256929399</v>
+        <v>17.04754837560377</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.01436737678251</v>
+        <v>6.844871189514151</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>12.6971325916946</v>
+        <v>9.569265743803385</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.6981188736356</v>
+        <v>15.50010731237369</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.26188043842896</v>
+        <v>20.45955776716028</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.35136589746249</v>
+        <v>36.3075261022901</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.75402003458481</v>
+        <v>37.36174966666126</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>12.56794013711879</v>
+        <v>9.022443433900307</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.08169998782626</v>
+        <v>34.98063084583711</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.18912519986911</v>
+        <v>38.24236919351372</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.63959702300902</v>
+        <v>9.637795605314572</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>46.53247177836615</v>
+        <v>53.66039879316773</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>49.89624111270881</v>
+        <v>55.54797049583401</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.05192368712444</v>
+        <v>46.92355435325063</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.59334388826431</v>
+        <v>53.79067986529175</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.29819901443729</v>
+        <v>54.41557380004503</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.36424033380295</v>
+        <v>21.26363988380584</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>50.50763061720776</v>
+        <v>57.51978164959939</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>51.58373072813004</v>
+        <v>58.62976387338848</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.71349332945486</v>
+        <v>24.8680713148792</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.02473302911471</v>
+        <v>43.43163569299099</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.60830730612263</v>
+        <v>45.82837416317116</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>12.76588118475878</v>
+        <v>9.569187702451636</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>44.96871028943148</v>
+        <v>46.52712282903424</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>48.9851799806556</v>
+        <v>50.35476066434065</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>12.98700398065441</v>
+        <v>10.06287439156497</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>60.56100191059122</v>
+        <v>69.38298673998803</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.12763919842124</v>
+        <v>66.6799735261352</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.68733934918245</v>
+        <v>74.64228010608512</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>71.56226503470776</v>
+        <v>82.77561641319832</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>72.66048750319152</v>
+        <v>81.55313226226477</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.58058375989204</v>
+        <v>26.20790835015731</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>70.52643789500857</v>
+        <v>80.89975667538079</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>68.47778026062412</v>
+        <v>79.17363759471232</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>19.46491058420489</v>
+        <v>14.41962988100248</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.96737621212386</v>
+        <v>17.22603513472511</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.86537733151738</v>
+        <v>19.78949243734572</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>12.59935479404093</v>
+        <v>1.551463945194325</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.78274535810984</v>
+        <v>16.12075005334998</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.92430723749134</v>
+        <v>20.55676416778979</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.10968148784984</v>
+        <v>2.013782479240888</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.78941864053088</v>
+        <v>22.61126871278501</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.09478126023829</v>
+        <v>26.50843589803399</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.95151824954274</v>
+        <v>21.87040911127151</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.54676560760184</v>
+        <v>25.09477450990607</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.32956684282173</v>
+        <v>27.80332889122651</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>17.50064325218715</v>
+        <v>14.67013288938547</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.21610581170825</v>
+        <v>24.58311890981619</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.49388373942627</v>
+        <v>28.41201496187259</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.52942864319647</v>
+        <v>8.80033000581999</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.2548234059287</v>
+        <v>15.71214247294811</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.41894599943313</v>
+        <v>22.45194410397009</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>12.17649256291567</v>
+        <v>0.8225343398622087</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>15.836092931395</v>
+        <v>11.59512743587717</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.7735331148399</v>
+        <v>21.47799398051966</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>11.37105645737018</v>
+        <v>0.3421012973845521</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>19.73619807963412</v>
+        <v>18.89952006449481</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.24831361756384</v>
+        <v>34.23672869384836</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>18.34870954674377</v>
+        <v>13.65874458165846</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.04120833210134</v>
+        <v>23.0836458949565</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.25341292093017</v>
+        <v>29.78508274300729</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>11.97180895588372</v>
+        <v>6.494929219018712</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.90252767951638</v>
+        <v>22.87187575055703</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.32908325049418</v>
+        <v>29.96546253660336</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.59970854502887</v>
+        <v>21.79164934724174</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.02540563263729</v>
+        <v>31.33268950881478</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.28481180787025</v>
+        <v>37.15444141215328</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>13.54727422181008</v>
+        <v>5.237845914101811</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.06067171464598</v>
+        <v>26.30163260339614</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.51158991661281</v>
+        <v>32.48870141955094</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>17.09762314256042</v>
+        <v>9.645759201261242</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.17367649315691</v>
+        <v>44.69475907691565</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>49.58758648104657</v>
+        <v>52.51935809200954</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.14111347886459</v>
+        <v>48.11191044714273</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.47269646917125</v>
+        <v>55.92097066213155</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>56.06851712112514</v>
+        <v>64.6183550841227</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>30.48865293296257</v>
+        <v>27.57987156378794</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>46.09868251877666</v>
+        <v>51.88201397421756</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>49.84419447742164</v>
+        <v>53.93230608069734</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.10302360937244</v>
+        <v>8.528272930286413</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.11713423712595</v>
+        <v>9.594007581560412</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.78090168055307</v>
+        <v>10.49087037102702</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.93792495102394</v>
+        <v>-0.3081355514780668</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.63936390124107</v>
+        <v>7.867191768259321</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.06540851759252</v>
+        <v>10.74667907858345</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.34524103037027</v>
+        <v>1.20075829495206</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>12.9131874051605</v>
+        <v>10.05865955445595</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.84252813031787</v>
+        <v>10.88184739478071</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.05986904755062</v>
+        <v>7.324339905721715</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.19010436180667</v>
+        <v>6.718330949384594</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.09807119685058</v>
+        <v>10.05880257443424</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.94034101205857</v>
+        <v>9.575111627473952</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.53977761636915</v>
+        <v>12.49236268206921</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.15947049384211</v>
+        <v>15.15344412686866</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.52998753381202</v>
+        <v>6.514737610962872</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.11525124994778</v>
+        <v>9.630079921689809</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>13.78582665392371</v>
+        <v>11.41303797179541</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.70050071584384</v>
+        <v>0.3715495147894003</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.95428814618919</v>
+        <v>5.645927576501983</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.59021134113297</v>
+        <v>10.31600612821</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>10.95252026434592</v>
+        <v>-0.1063236205746563</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>13.79478875085286</v>
+        <v>8.98649621641291</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.22708871423792</v>
+        <v>12.21300085912034</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>13.31286386754163</v>
+        <v>6.537586370195697</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>15.31524376474025</v>
+        <v>9.246348559489988</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.70601721817864</v>
+        <v>7.584314915055941</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>12.56149592289875</v>
+        <v>2.437905459596976</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>13.34827010337955</v>
+        <v>10.14908659849745</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.28315715135899</v>
+        <v>11.65806258338061</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.42202752057939</v>
+        <v>20.87564943125574</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.56124647099696</v>
+        <v>25.61912272807574</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.41959959795497</v>
+        <v>29.54128787372413</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>13.75294349732253</v>
+        <v>4.873887898273711</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>23.86496245922144</v>
+        <v>19.49139147805283</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.90595290257058</v>
+        <v>24.12399694184783</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.74037048220484</v>
+        <v>9.732135882754744</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.54670910015774</v>
+        <v>31.32353625736732</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.31328699820631</v>
+        <v>35.17654996571157</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.78047744016361</v>
+        <v>38.43406477152488</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>39.82656932513402</v>
+        <v>43.84625078012298</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>41.48489475024482</v>
+        <v>41.81503425535843</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.27819196226516</v>
+        <v>25.37446411963489</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.68619190015294</v>
+        <v>34.47468140856842</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.30841963197518</v>
+        <v>39.02486525226565</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.63498936512156</v>
+        <v>20.40694322809367</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.24298069483989</v>
+        <v>24.02764701098404</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.94755221361356</v>
+        <v>31.22127791874393</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>12.33823370666315</v>
+        <v>4.204161388399676</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.49871479592161</v>
+        <v>23.42605817739078</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.17468259618255</v>
+        <v>29.84592745625352</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>13.23680906783522</v>
+        <v>6.242791752126447</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.8795478360228</v>
+        <v>36.6554303718689</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>43.45326084692921</v>
+        <v>41.30581121963931</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.0553029784687</v>
+        <v>33.19749909695378</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.88122080391948</v>
+        <v>41.86466380045443</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>46.28984265120926</v>
+        <v>46.63230995430747</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.89718293483816</v>
+        <v>33.99953808925755</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>45.92289156009171</v>
+        <v>51.67910038205915</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>57.5217554833301</v>
+        <v>63.40149010389835</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.66514863199534</v>
+        <v>14.28255637386279</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.29932443937086</v>
+        <v>24.76128387579294</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.05039062860837</v>
+        <v>26.45723530144222</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>11.50912125031281</v>
+        <v>1.209338888925814</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.40843965989894</v>
+        <v>18.68808313364067</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.10859818690476</v>
+        <v>23.71370433142771</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.79755745521841</v>
+        <v>2.799031268697497</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.20297556938674</v>
+        <v>32.83382523171041</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.29460887898546</v>
+        <v>35.13086062349425</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.88093616461325</v>
+        <v>31.90622138790904</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.19044391145078</v>
+        <v>39.99554414388253</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>35.77239428425059</v>
+        <v>39.15015678981219</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.02705474532124</v>
+        <v>18.76309998245873</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>39.75940274572555</v>
+        <v>43.02791742996592</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>43.08862451992887</v>
+        <v>46.92510961112636</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.05453676664123</v>
+        <v>23.59012093952003</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.70732112173482</v>
+        <v>37.58521583658428</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>43.63636628654021</v>
+        <v>42.46400214127607</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>12.95675686853117</v>
+        <v>7.874531652867585</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.50269484597575</v>
+        <v>32.91974675230936</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.19884009056816</v>
+        <v>38.08815030713581</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>15.87235840666065</v>
+        <v>10.24324042738309</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>50.70834539096664</v>
+        <v>56.49813109541179</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>53.43425208509463</v>
+        <v>59.36416884158977</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>57.40104099367364</v>
+        <v>64.86480107346605</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>62.27694290958843</v>
+        <v>70.46000845405106</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>65.90861075776024</v>
+        <v>76.95407791964843</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.34219510745358</v>
+        <v>31.81036351766828</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>53.24479103992103</v>
+        <v>64.37703138692864</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>60.47878575058013</v>
+        <v>71.02171697851816</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.21109123635645</v>
+        <v>20.68091360083417</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.72217379439891</v>
+        <v>38.46356886245641</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.14596380235879</v>
+        <v>40.06825388275599</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>14.08106784115255</v>
+        <v>11.27322183214434</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>40.15774159650549</v>
+        <v>41.26327503625277</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>41.32602962230267</v>
+        <v>45.37883045561979</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.89106931368624</v>
+        <v>12.31075559320513</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>53.78304944748089</v>
+        <v>56.97105317577038</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>56.4791549857765</v>
+        <v>58.41084846432167</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>59.5048921129534</v>
+        <v>64.50661145927224</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>60.23980573872072</v>
+        <v>67.47386013198644</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>63.32721608518789</v>
+        <v>66.70640910678085</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.53154991773106</v>
+        <v>24.92931873107833</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>57.22334042558146</v>
+        <v>62.79403576966868</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>61.14198004201171</v>
+        <v>66.84916750549998</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.45668449237332</v>
+        <v>18.29609859339136</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.98928507509312</v>
+        <v>34.47052071788984</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.85164355192643</v>
+        <v>38.39770863346408</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>12.40729040132056</v>
+        <v>8.724282827172907</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.8465262388539</v>
+        <v>30.59205502586369</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.28468287342292</v>
+        <v>38.07759009049498</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.84931434383908</v>
+        <v>8.943540203133711</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.10654045866847</v>
+        <v>47.17316290839453</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>53.43305698435488</v>
+        <v>56.69986137206489</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.04245008848078</v>
+        <v>44.84292074206779</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>49.78393456158842</v>
+        <v>53.6870353630752</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>44.78706131682202</v>
+        <v>52.47729958315549</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>23.15973071981029</v>
+        <v>17.88804770716354</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>51.1025636770428</v>
+        <v>55.25978423636404</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>56.55524524869048</v>
+        <v>60.54795462455861</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.9470717980197</v>
+        <v>20.50337143349163</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.78389875838982</v>
+        <v>40.97020306718352</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.20588881601165</v>
+        <v>45.34941903733119</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.59510294140001</v>
+        <v>8.928285301303621</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.83836883485183</v>
+        <v>39.16750672095063</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.49383019604448</v>
+        <v>46.11787439992004</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>12.76850339405413</v>
+        <v>8.989896734470577</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>52.94712613266796</v>
+        <v>58.53128387364326</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>58.77632614095062</v>
+        <v>64.69487197787927</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.06369311084288</v>
+        <v>65.88312218069721</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.37247274658729</v>
+        <v>75.77420626186228</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>70.23265461070142</v>
+        <v>81.33588669355389</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.42441812724663</v>
+        <v>19.36548945420692</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>60.8453482633734</v>
+        <v>70.63916030913003</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>67.13763511353523</v>
+        <v>76.80131570206339</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.48535601629888</v>
+        <v>25.23807356274639</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.1005612572662</v>
+        <v>31.24905229371776</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.86771930141661</v>
+        <v>36.92051190473799</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>12.92293783002811</v>
+        <v>10.15584122218657</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.43449718920961</v>
+        <v>41.81224352390964</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.16044696736377</v>
+        <v>46.27826655910417</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>15.91091510757462</v>
+        <v>11.95065642089849</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>54.46677196715786</v>
+        <v>55.5007797972707</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>54.50990468535905</v>
+        <v>56.87243962454544</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>50.24496014404861</v>
+        <v>59.69846725168527</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>51.3292853212683</v>
+        <v>61.83076546206249</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>54.24370312720641</v>
+        <v>63.24791464477864</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.65227299502406</v>
+        <v>24.93995828587235</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.13653018384071</v>
+        <v>43.94693618178858</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.90560636160405</v>
+        <v>63.24001085598887</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.01595352420687</v>
+        <v>24.64876682342937</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.61624168851038</v>
+        <v>37.94666583358845</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>37.215915218291</v>
+        <v>39.99126494401644</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>12.22440821374344</v>
+        <v>8.833685232934812</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.35283753509626</v>
+        <v>35.70133412081864</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.10319465447771</v>
+        <v>40.45174159700634</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>13.21153927472676</v>
+        <v>7.861950759588559</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>46.20913391698332</v>
+        <v>52.89074045578961</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>54.21777434483332</v>
+        <v>60.44822954544063</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.92639293371082</v>
+        <v>51.459690826876</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.15550232438581</v>
+        <v>57.14590271807221</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.30094564042781</v>
+        <v>57.87624024478714</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.45123695673681</v>
+        <v>24.89220911261227</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>55.24240466946501</v>
+        <v>61.99141014898478</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>56.95230857766822</v>
+        <v>65.25609911991184</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.66963027256416</v>
+        <v>26.7779264678847</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.87586807391992</v>
+        <v>43.15156980780261</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.26933040938462</v>
+        <v>46.75022372072884</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>12.82774599442485</v>
+        <v>10.51576338616083</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.45101346680799</v>
+        <v>43.49440042410004</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.30781940132556</v>
+        <v>49.14617417456897</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>13.58421519040373</v>
+        <v>9.137366030017745</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>56.3050390341103</v>
+        <v>66.41662153591946</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>58.46405802419464</v>
+        <v>69.68671638131195</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>63.15613285982018</v>
+        <v>75.68858774572344</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>68.2688658787136</v>
+        <v>80.32980883723756</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>69.70525654584438</v>
+        <v>82.93612663623014</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.86453183183307</v>
+        <v>27.59488639013115</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>63.18501594422443</v>
+        <v>74.96573862318981</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>65.62444077870764</v>
+        <v>78.83566642875658</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.7861302280653</v>
+        <v>23.94762301879598</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.19114783285083</v>
+        <v>26.18904945271087</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.69518013612153</v>
+        <v>31.21443034807297</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>18.12202467955393</v>
+        <v>15.70786716885428</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>56.60530060227096</v>
+        <v>56.43648474454675</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>54.74405309914363</v>
+        <v>55.66261260496728</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.19624012511607</v>
+        <v>11.70396270485318</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>56.21763658832036</v>
+        <v>57.67787769290479</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>52.87621206336016</v>
+        <v>53.97060039399312</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>55.69448834425856</v>
+        <v>60.60362839645667</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>56.70470555943617</v>
+        <v>62.90211690532371</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>57.70523983284635</v>
+        <v>62.51196580818284</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.7626198128019</v>
+        <v>28.79003140248648</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.8969594183173</v>
+        <v>44.19103673792415</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>56.13567747511429</v>
+        <v>59.53417370042506</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.6137740304428</v>
+        <v>26.01635535559314</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.30048264296057</v>
+        <v>35.20309085875289</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.61642392381906</v>
+        <v>37.45303485974463</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>38.8805486984662</v>
+        <v>36.10526021281461</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>50.46176877521592</v>
+        <v>51.28985402942604</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.89296151377988</v>
+        <v>55.54327574311976</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.03606216427891</v>
+        <v>10.73313614789741</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>49.29574268147067</v>
+        <v>51.93956646508921</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>52.0534598660297</v>
+        <v>58.01403083438285</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>44.2220368243057</v>
+        <v>49.40992523629991</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>50.18963141590338</v>
+        <v>56.40308310994259</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>48.29330621272093</v>
+        <v>55.0965122851803</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.66283045386988</v>
+        <v>30.74193844427847</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.60120558431257</v>
+        <v>59.9469845643914</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>55.51265718126324</v>
+        <v>63.36178680670747</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.04109444413635</v>
+        <v>30.1190658618574</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.57468893540288</v>
+        <v>43.12452091755682</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.33798504476029</v>
+        <v>45.72856341409001</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.0056626906673</v>
+        <v>37.57023938107693</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>54.90867895656243</v>
+        <v>57.21733624357659</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.24800352591144</v>
+        <v>59.66775831696735</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.62249876302711</v>
+        <v>11.4845040559569</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>57.57561798135885</v>
+        <v>66.50178200103895</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>57.19307972097324</v>
+        <v>67.08182813475815</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>69.23697605024856</v>
+        <v>79.18206670868184</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>68.92576767373362</v>
+        <v>79.23122232667956</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>71.94522314247315</v>
+        <v>84.62113884180195</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.90964195058835</v>
+        <v>37.90397876001734</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>65.83725427073735</v>
+        <v>75.60253672122042</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>67.72587907067108</v>
+        <v>80.82748298716396</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.81130215129131</v>
+        <v>18.32383787121226</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.20093315453715</v>
+        <v>31.28345111073473</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.11478792307675</v>
+        <v>36.68459574486079</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>11.54798742685794</v>
+        <v>4.887192019479784</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.00288341369181</v>
+        <v>26.06594184392612</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.33362777878944</v>
+        <v>41.80496973292624</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>11.8739573540489</v>
+        <v>5.509983170632317</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.16588635144682</v>
+        <v>51.14377160256542</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>55.05765319110783</v>
+        <v>55.88929014635833</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.28454975204328</v>
+        <v>57.06719969086807</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>55.51282469155311</v>
+        <v>60.70698916349214</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>60.25250752447042</v>
+        <v>62.79512117621577</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>17.60899854297972</v>
+        <v>15.12008699855338</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>55.61003436840792</v>
+        <v>56.72328369444016</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>58.14923389640686</v>
+        <v>63.80966611156708</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>18.48498424679764</v>
+        <v>15.5541954893207</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.81489086798054</v>
+        <v>32.71584338045011</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.29080230041374</v>
+        <v>35.23538898988727</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>11.97048332656457</v>
+        <v>3.274944288148749</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>32.03236659288844</v>
+        <v>27.88254460694749</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.38597639081566</v>
+        <v>33.21944842405565</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>11.98751237539983</v>
+        <v>3.318463452449201</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>43.88612639496584</v>
+        <v>45.45302487090905</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.15796845248825</v>
+        <v>52.9569517053455</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.41990583536469</v>
+        <v>41.52971825030457</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>48.49978823497376</v>
+        <v>49.86669975293054</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>46.60746882837383</v>
+        <v>49.45015912292236</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>15.02776105953505</v>
+        <v>8.398927745487406</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.41162284069347</v>
+        <v>42.81546287340936</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>53.24669799930287</v>
+        <v>55.92215365954489</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>18.63630600792224</v>
+        <v>16.54661262826356</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.74676702582465</v>
+        <v>36.37115200380313</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.58917792114798</v>
+        <v>42.23677121961349</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>12.22016843662848</v>
+        <v>3.628173906074142</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.04719639583379</v>
+        <v>35.83285726242755</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.53184117632448</v>
+        <v>43.72188497684932</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>11.85961133109657</v>
+        <v>3.67374285697219</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>50.24709587763093</v>
+        <v>54.36440316871914</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.70177685946059</v>
+        <v>63.11613035546752</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.98716055085696</v>
+        <v>62.7298620290869</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>61.62916393408965</v>
+        <v>74.25966711832295</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>68.8932556578538</v>
+        <v>79.33567645398921</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.69458734466292</v>
+        <v>7.793227714822748</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>58.80520072629805</v>
+        <v>66.28209486218287</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>66.2211731263526</v>
+        <v>75.51752880045507</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.69302990068332</v>
+        <v>17.67467368048608</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.91631183622361</v>
+        <v>17.57407677280172</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>21.61832263091237</v>
+        <v>19.50750143883875</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>13.62551440354224</v>
+        <v>5.843388620152108</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.23416006831469</v>
+        <v>20.18285608423646</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.41435643447941</v>
+        <v>23.20307801443656</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>15.36759184354502</v>
+        <v>9.863034867785931</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.90363323194709</v>
+        <v>28.91367631594884</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.79627539340037</v>
+        <v>30.0499120001815</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.34163530993536</v>
+        <v>24.74687001381629</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.58081487696736</v>
+        <v>29.14357927194654</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.18989677869124</v>
+        <v>31.46316924426753</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>23.07296660249192</v>
+        <v>21.06815771830017</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.27450625273344</v>
+        <v>24.90907059582729</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.75053502571309</v>
+        <v>30.08841445118544</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.58875080826757</v>
+        <v>16.7176831245014</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.12212662170788</v>
+        <v>30.01680829421371</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.6638787544703</v>
+        <v>35.78814598803221</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>12.78837875799959</v>
+        <v>9.950827587706399</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>32.83733504107686</v>
+        <v>30.07979275922554</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.234877801686</v>
+        <v>39.9034562835367</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>13.14897041415367</v>
+        <v>10.59315886721651</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.67592676871467</v>
+        <v>44.53718269799551</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>52.78001436709806</v>
+        <v>56.75444532370027</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>42.06136202828346</v>
+        <v>41.753933633193</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.19918524215514</v>
+        <v>46.82360563806029</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>49.32104214556377</v>
+        <v>55.1816502476992</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.68046289987463</v>
+        <v>15.36933282801666</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.02119962486253</v>
+        <v>47.05493255075601</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>51.9738856691846</v>
+        <v>55.29280371232508</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.04662906200943</v>
+        <v>21.39121953866811</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.48764390573248</v>
+        <v>36.11361475760699</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.65822437617116</v>
+        <v>44.78124373140518</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>13.82657282851484</v>
+        <v>9.271849240416753</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.52266842665062</v>
+        <v>35.08187214014286</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>44.19939132404673</v>
+        <v>47.21070197406138</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>17.10065546170746</v>
+        <v>14.37727437938064</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.42861041269259</v>
+        <v>55.18338331254347</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.51861609255588</v>
+        <v>67.48967959055389</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>50.4024062634488</v>
+        <v>55.68290196775821</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>53.34885885034343</v>
+        <v>61.04677691316091</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>68.52463025407503</v>
+        <v>78.93171526414532</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.07048506801777</v>
+        <v>23.20840182195639</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>50.9635558386334</v>
+        <v>55.1013740249109</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>63.55274717749745</v>
+        <v>74.23265448662913</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>19.06817679686111</v>
+        <v>16.41608243651949</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.80730259725931</v>
+        <v>16.4767377401841</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>20.70728178905387</v>
+        <v>19.97468535770568</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>11.77885747385124</v>
+        <v>1.627378767158667</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.89628346929262</v>
+        <v>27.31948225062024</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.01862194055106</v>
+        <v>30.02239753002875</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>12.24358063972381</v>
+        <v>3.021305012661845</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.42522228404216</v>
+        <v>37.21178114064932</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.12185349293263</v>
+        <v>36.24117394175211</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.22326178421125</v>
+        <v>32.78305737846011</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.97863830781021</v>
+        <v>40.57816083205241</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.59398289750188</v>
+        <v>45.43572093260791</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.10790958490864</v>
+        <v>20.60308119588636</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>42.24857571163041</v>
+        <v>38.12246063876285</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>44.24412679467302</v>
+        <v>48.08488972716326</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>13.46698993510615</v>
+        <v>9.15443345048044</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.46592045767436</v>
+        <v>19.18982973189302</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.94656367841583</v>
+        <v>29.80908838660079</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.22032582232958</v>
+        <v>8.084877971518953</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.70016610126017</v>
+        <v>21.04801884161571</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>47.23516075780869</v>
+        <v>47.278278214875</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>10.6293373511063</v>
+        <v>-0.3932097188136083</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.82808130389913</v>
+        <v>31.41373306082625</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>48.26116811453701</v>
+        <v>50.31780141407427</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.35421182604675</v>
+        <v>30.72705682241081</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.74077013703427</v>
+        <v>41.20550827712198</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>49.81527946042664</v>
+        <v>51.94227629227954</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.70424328417043</v>
+        <v>10.70442794576434</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.51300220571635</v>
+        <v>43.95102186695797</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>51.39166063694838</v>
+        <v>55.00441087978041</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.48538733012174</v>
+        <v>18.79284165259221</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.88692348576667</v>
+        <v>28.81917692675418</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.18998526677523</v>
+        <v>38.67319083390409</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>12.61195631074657</v>
+        <v>8.812259251412442</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.52260120177813</v>
+        <v>26.32662618110869</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.13597447806806</v>
+        <v>42.99384709161546</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>11.47476774271923</v>
+        <v>1.82005519934906</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.13279344899041</v>
+        <v>42.38455269425211</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.73230120837051</v>
+        <v>58.35880316221662</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>49.94802246487009</v>
+        <v>58.38889944657073</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.77297051376949</v>
+        <v>59.83692599478609</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>66.83364045859625</v>
+        <v>72.77191998144227</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>18.44321281809586</v>
+        <v>16.08400658070221</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.37762985773452</v>
+        <v>50.05398512931653</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>60.95788933731264</v>
+        <v>68.78724211503891</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>27.53745052361775</v>
+        <v>23.74072607819989</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.09412955005593</v>
+        <v>31.78310171088568</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.6721866915258</v>
+        <v>36.02845244177692</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>13.51245873738884</v>
+        <v>10.47147633865017</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.65106473950959</v>
+        <v>44.63121693437466</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>42.69412463155066</v>
+        <v>46.1420779168398</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>17.35216366761815</v>
+        <v>12.59774371013157</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>55.88989138790799</v>
+        <v>58.75260254314661</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>54.63716494026428</v>
+        <v>56.28165940007102</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>49.46396832058396</v>
+        <v>59.17293855965168</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>55.49285789957851</v>
+        <v>62.85750000256577</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>57.63194254986944</v>
+        <v>65.09951156667245</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.18062340993392</v>
+        <v>28.90821133781577</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.32878114305417</v>
+        <v>41.11048323995258</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>62.15595957721639</v>
+        <v>66.23249774102419</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.88489093559057</v>
+        <v>27.2120367373434</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.64211492860698</v>
+        <v>39.34405756328481</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.06975242658506</v>
+        <v>40.01928633110919</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>12.86359375131013</v>
+        <v>9.712905226230099</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.63166515704666</v>
+        <v>37.0190311129241</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.02952093619388</v>
+        <v>40.07469001464008</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>12.98774082821862</v>
+        <v>10.48012144422739</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>50.19281182211254</v>
+        <v>54.42519918888048</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>50.5243895905465</v>
+        <v>55.95122622296444</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.66681436785779</v>
+        <v>51.44620069372451</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>49.42929018069674</v>
+        <v>55.77160817206655</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.91399400879041</v>
+        <v>56.67960228284875</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.52701804260108</v>
+        <v>28.63893323913036</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>53.11049346266213</v>
+        <v>58.49181285301966</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>53.16508088268725</v>
+        <v>60.89504686020871</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.4758179095367</v>
+        <v>27.16202106998688</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.51843786567849</v>
+        <v>41.69740380694546</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>39.87059546338828</v>
+        <v>44.79632049442899</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>13.28718552982775</v>
+        <v>10.12967511604813</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.70844504882783</v>
+        <v>43.00187093527578</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>40.82200144083495</v>
+        <v>45.8593295575558</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>12.90677157768857</v>
+        <v>10.11642787765277</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>58.76063468206298</v>
+        <v>65.31245709418693</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>59.77530192049164</v>
+        <v>64.07908494716452</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>65.05254500782829</v>
+        <v>73.5054895597732</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>66.16686186654273</v>
+        <v>74.45752494871414</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>66.30713407484853</v>
+        <v>78.12967214798672</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>33.9222584333285</v>
+        <v>32.15288972105714</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>59.66312773479493</v>
+        <v>68.98782439841671</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>63.36784939504236</v>
+        <v>76.03065791062011</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.80792596249337</v>
+        <v>18.68764682763631</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.48038378804581</v>
+        <v>31.53246713209023</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.75486303150497</v>
+        <v>35.5905513131613</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>12.43500187982974</v>
+        <v>6.87430110584436</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.93912019076091</v>
+        <v>33.52467363638673</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.01942537365949</v>
+        <v>42.33982294619545</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>11.79656859387027</v>
+        <v>6.410561506418134</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>49.1732415830411</v>
+        <v>51.64897004906738</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>52.68891382090233</v>
+        <v>53.95582149350128</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.64930930254037</v>
+        <v>54.18387767711116</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>56.80317847272525</v>
+        <v>61.74040743331695</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>56.29179882494317</v>
+        <v>59.71950503059992</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.3953548161794</v>
+        <v>14.90753229322628</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>52.58695560620825</v>
+        <v>54.46475816981022</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>57.45368730340267</v>
+        <v>63.02612523532437</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>18.23623955787557</v>
+        <v>17.03021756374553</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.32738542264713</v>
+        <v>34.38020579381058</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.73145442110116</v>
+        <v>36.05335815830063</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>12.12360228680412</v>
+        <v>6.829759805030342</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>31.24737516670395</v>
+        <v>32.68371844756982</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.38594304160649</v>
+        <v>36.33040792360582</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>11.88546232452682</v>
+        <v>7.417791012225749</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.26392765300922</v>
+        <v>49.66813177532691</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>48.98875030204177</v>
+        <v>55.30712802920244</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.28815122503433</v>
+        <v>46.36034062210042</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>47.79505811958407</v>
+        <v>54.38897179063499</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>49.49615372582566</v>
+        <v>53.83387594292294</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>15.88149516654044</v>
+        <v>13.18291459102447</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>50.89128802593269</v>
+        <v>56.5816687654475</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>52.26793944328041</v>
+        <v>59.4733384061427</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>18.2649640881767</v>
+        <v>15.31324767326591</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.3031644062329</v>
+        <v>33.61197344194022</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.88461166814478</v>
+        <v>40.03303378549304</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>12.43031536861572</v>
+        <v>4.546779086958669</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.82525495889998</v>
+        <v>35.70076106009107</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>41.41263230136233</v>
+        <v>42.97701072419409</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>11.54233778202274</v>
+        <v>4.851654370041761</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>47.23961530978752</v>
+        <v>50.63837032130324</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>57.57964657167165</v>
+        <v>61.21113078910588</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.2065685233033</v>
+        <v>57.38147752676363</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>58.19225527694245</v>
+        <v>68.99840852885218</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>67.5012312559075</v>
+        <v>76.56256490398673</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>16.22662493365077</v>
+        <v>11.0200158550926</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>53.03465162134081</v>
+        <v>60.30426961226485</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>62.24723961268239</v>
+        <v>72.20544643754457</v>
       </c>
     </row>
   </sheetData>
